--- a/SharePoint/Docs/MS-WWSP/MS-WWSP_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-WWSP/MS-WWSP_RequirementSpecification.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$384</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$383</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="832">
   <si>
     <t>Req ID</t>
   </si>
@@ -2567,9 +2567,6 @@
     <t>MS-WWSP_R348</t>
   </si>
   <si>
-    <t>[In StartWorkflow] This element[workflowParameters] is considered vendor-extensible and is described in section 4.3.4.</t>
-  </si>
-  <si>
     <t>MS-WWSP_R349</t>
   </si>
   <si>
@@ -2899,19 +2896,10 @@
     <t xml:space="preserve">[In AlterToDo] taskData: taskData SHOULD NOT be null. </t>
   </si>
   <si>
-    <t xml:space="preserve">[In AlterToDo] taskData: If taskData is not present, then the server will return a SOAP fault with error string "Value cannot be null. </t>
-  </si>
-  <si>
-    <t>[In AlterToDo] taskData: Parameter name: taskData".</t>
-  </si>
-  <si>
     <t>MS-WWSP_R418001</t>
   </si>
   <si>
     <t>MS-WWSP_R418002</t>
-  </si>
-  <si>
-    <t>MS-WWSP_R418003</t>
   </si>
   <si>
     <t>[In Messages] ClaimReleaseTaskSoapIn specifies the request to claim or release a claim on a workflow task.</t>
@@ -3127,6 +3115,12 @@
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Implementation does not include this attribute[CorrelationId]. [In Appendix B: Product Behavior] &lt;4&gt; Section 3.1.4.5.2.2:  Office SharePoint Server 2007 and SharePoint Server 2010 do not include this attribute[CorrelationId].</t>
+  </si>
+  <si>
+    <t>[In StartWorkflow] This element[workflowParameters] is considered vendor-extensible and is described in section 4.3.2.</t>
+  </si>
+  <si>
+    <t>[In AlterToDo] taskData: If taskData is not present, then the server will return a SOAP fault with error string "Value cannot be null. Parameter name: taskData".</t>
   </si>
 </sst>
 </file>
@@ -3400,20 +3394,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3439,17 +3424,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="69">
     <dxf>
       <font>
         <strike/>
@@ -3700,290 +3694,6 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4489,34 +4199,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I384" tableType="xml" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
-  <autoFilter ref="A19:I384"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I383" tableType="xml" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+  <autoFilter ref="A19:I383"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="122">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="66">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="121">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="65">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="120">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="64">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="119">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="63">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="118">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="62">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="117">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="61">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="116">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="60">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="115">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="59">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="114">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="58">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4525,12 +4235,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="53">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="108"/>
-    <tableColumn id="2" name="Test" dataDxfId="107"/>
-    <tableColumn id="3" name="Description" dataDxfId="106"/>
+    <tableColumn id="1" name="Scope" dataDxfId="52"/>
+    <tableColumn id="2" name="Test" dataDxfId="51"/>
+    <tableColumn id="3" name="Description" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4824,10 +4534,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K386"/>
+  <dimension ref="A1:K385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C293" sqref="C293"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:XFD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4847,7 +4557,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -4856,7 +4566,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4872,127 +4582,127 @@
         <v>3.2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F3" s="11">
         <v>42627</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:9" ht="78.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="24" t="s">
@@ -5004,12 +4714,12 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="25" t="s">
@@ -5021,12 +4731,12 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="25" t="s">
@@ -5038,12 +4748,12 @@
       <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="26" t="s">
@@ -5055,57 +4765,57 @@
       <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="1:10" ht="64.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
     </row>
     <row r="19" spans="1:10" s="32" customFormat="1" ht="30">
       <c r="A19" s="3" t="s">
@@ -5186,7 +4896,7 @@
         <v>17</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J21" s="22"/>
     </row>
@@ -5874,7 +5584,7 @@
         <v>100</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21" t="s">
@@ -6186,7 +5896,7 @@
         <v>100</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21" t="s">
@@ -6202,7 +5912,7 @@
         <v>17</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J60" s="19"/>
     </row>
@@ -6214,7 +5924,7 @@
         <v>100</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="21" t="s">
@@ -6292,7 +6002,7 @@
         <v>100</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="21" t="s">
@@ -6308,7 +6018,7 @@
         <v>17</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J64" s="19"/>
     </row>
@@ -6762,7 +6472,7 @@
         <v>171</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21" t="s">
@@ -6788,7 +6498,7 @@
         <v>171</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21" t="s">
@@ -7402,7 +7112,7 @@
         <v>17</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J106" s="19"/>
     </row>
@@ -7540,13 +7250,13 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="21" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B112" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C112" s="52" t="s">
-        <v>799</v>
+      <c r="C112" s="39" t="s">
+        <v>798</v>
       </c>
       <c r="D112" s="31"/>
       <c r="E112" s="21" t="s">
@@ -7561,18 +7271,18 @@
       <c r="H112" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I112" s="51"/>
+      <c r="I112" s="38"/>
       <c r="J112" s="19"/>
     </row>
     <row r="113" spans="1:10" ht="30">
       <c r="A113" s="21" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B113" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C113" s="52" t="s">
-        <v>800</v>
+      <c r="C113" s="39" t="s">
+        <v>831</v>
       </c>
       <c r="D113" s="31"/>
       <c r="E113" s="21" t="s">
@@ -7587,44 +7297,44 @@
       <c r="H113" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I113" s="51"/>
+      <c r="I113" s="38"/>
       <c r="J113" s="19"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" ht="30">
       <c r="A114" s="21" t="s">
-        <v>804</v>
+        <v>237</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="C114" s="52" t="s">
-        <v>801</v>
-      </c>
-      <c r="D114" s="31"/>
+        <v>238</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D114" s="21"/>
       <c r="E114" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F114" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G114" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H114" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I114" s="51"/>
+      <c r="F114" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114" s="19"/>
       <c r="J114" s="19"/>
     </row>
-    <row r="115" spans="1:10" ht="30">
+    <row r="115" spans="1:10" ht="210">
       <c r="A115" s="21" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B115" s="22" t="s">
         <v>238</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D115" s="21"/>
       <c r="E115" s="21" t="s">
@@ -7637,20 +7347,20 @@
         <v>15</v>
       </c>
       <c r="H115" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I115" s="19"/>
       <c r="J115" s="19"/>
     </row>
-    <row r="116" spans="1:10" ht="210">
+    <row r="116" spans="1:10" ht="30">
       <c r="A116" s="21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B116" s="22" t="s">
         <v>238</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D116" s="21"/>
       <c r="E116" s="21" t="s">
@@ -7663,20 +7373,20 @@
         <v>15</v>
       </c>
       <c r="H116" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I116" s="19"/>
       <c r="J116" s="19"/>
     </row>
     <row r="117" spans="1:10" ht="30">
       <c r="A117" s="21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B117" s="22" t="s">
         <v>238</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D117" s="21"/>
       <c r="E117" s="21" t="s">
@@ -7694,15 +7404,15 @@
       <c r="I117" s="19"/>
       <c r="J117" s="19"/>
     </row>
-    <row r="118" spans="1:10" ht="30">
+    <row r="118" spans="1:10">
       <c r="A118" s="21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B118" s="22" t="s">
         <v>238</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D118" s="21"/>
       <c r="E118" s="21" t="s">
@@ -7715,20 +7425,20 @@
         <v>15</v>
       </c>
       <c r="H118" s="21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I118" s="19"/>
       <c r="J118" s="19"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" ht="30">
       <c r="A119" s="21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B119" s="22" t="s">
         <v>238</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>247</v>
+        <v>761</v>
       </c>
       <c r="D119" s="21"/>
       <c r="E119" s="21" t="s">
@@ -7741,20 +7451,20 @@
         <v>15</v>
       </c>
       <c r="H119" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I119" s="19"/>
       <c r="J119" s="19"/>
     </row>
     <row r="120" spans="1:10" ht="30">
       <c r="A120" s="21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B120" s="22" t="s">
         <v>238</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>762</v>
+        <v>250</v>
       </c>
       <c r="D120" s="21"/>
       <c r="E120" s="21" t="s">
@@ -7774,20 +7484,20 @@
     </row>
     <row r="121" spans="1:10" ht="30">
       <c r="A121" s="21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>250</v>
+        <v>803</v>
       </c>
       <c r="D121" s="21"/>
       <c r="E121" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G121" s="21" t="s">
         <v>15</v>
@@ -7798,15 +7508,15 @@
       <c r="I121" s="19"/>
       <c r="J121" s="19"/>
     </row>
-    <row r="122" spans="1:10" ht="30">
+    <row r="122" spans="1:10" ht="75">
       <c r="A122" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B122" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>807</v>
+        <v>253</v>
       </c>
       <c r="D122" s="21"/>
       <c r="E122" s="21" t="s">
@@ -7819,20 +7529,20 @@
         <v>15</v>
       </c>
       <c r="H122" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I122" s="19"/>
       <c r="J122" s="19"/>
     </row>
-    <row r="123" spans="1:10" ht="75">
+    <row r="123" spans="1:10" ht="45">
       <c r="A123" s="21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B123" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D123" s="21"/>
       <c r="E123" s="21" t="s">
@@ -7845,20 +7555,20 @@
         <v>15</v>
       </c>
       <c r="H123" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I123" s="19"/>
       <c r="J123" s="19"/>
     </row>
-    <row r="124" spans="1:10" ht="45">
+    <row r="124" spans="1:10" ht="30">
       <c r="A124" s="21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="D124" s="21"/>
       <c r="E124" s="21" t="s">
@@ -7868,33 +7578,33 @@
         <v>3</v>
       </c>
       <c r="G124" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H124" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I124" s="19"/>
       <c r="J124" s="19"/>
     </row>
     <row r="125" spans="1:10" ht="30">
       <c r="A125" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B125" s="22" t="s">
         <v>257</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>193</v>
+        <v>801</v>
       </c>
       <c r="D125" s="21"/>
       <c r="E125" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H125" s="21" t="s">
         <v>18</v>
@@ -7904,65 +7614,65 @@
     </row>
     <row r="126" spans="1:10" ht="30">
       <c r="A126" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B126" s="22" t="s">
         <v>257</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D126" s="21"/>
       <c r="E126" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G126" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H126" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I126" s="19"/>
       <c r="J126" s="19"/>
     </row>
-    <row r="127" spans="1:10" ht="30">
+    <row r="127" spans="1:10">
       <c r="A127" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>806</v>
+        <v>262</v>
       </c>
       <c r="D127" s="21"/>
       <c r="E127" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H127" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I127" s="19"/>
       <c r="J127" s="19"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" ht="30">
       <c r="A128" s="21" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B128" s="22" t="s">
         <v>261</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D128" s="21"/>
       <c r="E128" s="21" t="s">
@@ -7972,7 +7682,7 @@
         <v>7</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H128" s="21" t="s">
         <v>18</v>
@@ -7980,15 +7690,15 @@
       <c r="I128" s="19"/>
       <c r="J128" s="19"/>
     </row>
-    <row r="129" spans="1:10" ht="30">
+    <row r="129" spans="1:10">
       <c r="A129" s="21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B129" s="22" t="s">
         <v>261</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D129" s="21"/>
       <c r="E129" s="21" t="s">
@@ -8006,25 +7716,25 @@
       <c r="I129" s="19"/>
       <c r="J129" s="19"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" ht="30">
       <c r="A130" s="21" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D130" s="21"/>
       <c r="E130" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F130" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H130" s="21" t="s">
         <v>18</v>
@@ -8034,13 +7744,13 @@
     </row>
     <row r="131" spans="1:10" ht="30">
       <c r="A131" s="21" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B131" s="22" t="s">
         <v>268</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D131" s="21"/>
       <c r="E131" s="21" t="s">
@@ -8050,59 +7760,59 @@
         <v>6</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H131" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I131" s="19"/>
       <c r="J131" s="19"/>
     </row>
     <row r="132" spans="1:10" ht="30">
       <c r="A132" s="21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="D132" s="21"/>
       <c r="E132" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F132" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H132" s="21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
     </row>
     <row r="133" spans="1:10" ht="30">
       <c r="A133" s="21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B133" s="22" t="s">
         <v>273</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>212</v>
+        <v>804</v>
       </c>
       <c r="D133" s="21"/>
       <c r="E133" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H133" s="21" t="s">
         <v>18</v>
@@ -8112,65 +7822,65 @@
     </row>
     <row r="134" spans="1:10" ht="30">
       <c r="A134" s="21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B134" s="22" t="s">
         <v>273</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D134" s="21"/>
       <c r="E134" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G134" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H134" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I134" s="19"/>
       <c r="J134" s="19"/>
     </row>
-    <row r="135" spans="1:10" ht="30">
+    <row r="135" spans="1:10" ht="45">
       <c r="A135" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>809</v>
+        <v>278</v>
       </c>
       <c r="D135" s="21"/>
       <c r="E135" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G135" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H135" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I135" s="19"/>
       <c r="J135" s="19"/>
     </row>
-    <row r="136" spans="1:10" ht="45">
+    <row r="136" spans="1:10" ht="165">
       <c r="A136" s="21" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B136" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>278</v>
+        <v>806</v>
       </c>
       <c r="D136" s="21"/>
       <c r="E136" s="21" t="s">
@@ -8188,15 +7898,15 @@
       <c r="I136" s="19"/>
       <c r="J136" s="19"/>
     </row>
-    <row r="137" spans="1:10" ht="165">
+    <row r="137" spans="1:10">
       <c r="A137" s="21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B137" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>810</v>
+        <v>281</v>
       </c>
       <c r="D137" s="21"/>
       <c r="E137" s="21" t="s">
@@ -8214,43 +7924,47 @@
       <c r="I137" s="19"/>
       <c r="J137" s="19"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" ht="45">
       <c r="A138" s="21" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B138" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D138" s="21"/>
       <c r="E138" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G138" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H138" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I138" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="I138" s="19" t="s">
+        <v>786</v>
+      </c>
       <c r="J138" s="19"/>
     </row>
-    <row r="139" spans="1:10" ht="45">
+    <row r="139" spans="1:10" ht="30">
       <c r="A139" s="21" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B139" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D139" s="21"/>
+        <v>285</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>286</v>
+      </c>
       <c r="E139" s="21" t="s">
         <v>19</v>
       </c>
@@ -8261,50 +7975,46 @@
         <v>15</v>
       </c>
       <c r="H139" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I139" s="19" t="s">
-        <v>787</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I139" s="19"/>
       <c r="J139" s="19"/>
     </row>
     <row r="140" spans="1:10" ht="30">
       <c r="A140" s="21" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B140" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D140" s="21" t="s">
-        <v>286</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D140" s="21"/>
       <c r="E140" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F140" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G140" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H140" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I140" s="19"/>
       <c r="J140" s="19"/>
     </row>
     <row r="141" spans="1:10" ht="30">
       <c r="A141" s="21" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B141" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D141" s="21"/>
       <c r="E141" s="21" t="s">
@@ -8324,13 +8034,13 @@
     </row>
     <row r="142" spans="1:10" ht="30">
       <c r="A142" s="21" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B142" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D142" s="21"/>
       <c r="E142" s="21" t="s">
@@ -8350,13 +8060,13 @@
     </row>
     <row r="143" spans="1:10" ht="30">
       <c r="A143" s="21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B143" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D143" s="21"/>
       <c r="E143" s="21" t="s">
@@ -8374,15 +8084,15 @@
       <c r="I143" s="19"/>
       <c r="J143" s="19"/>
     </row>
-    <row r="144" spans="1:10" ht="30">
+    <row r="144" spans="1:10">
       <c r="A144" s="21" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B144" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D144" s="21"/>
       <c r="E144" s="21" t="s">
@@ -8402,13 +8112,13 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="21" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B145" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>296</v>
+        <v>762</v>
       </c>
       <c r="D145" s="21"/>
       <c r="E145" s="21" t="s">
@@ -8426,41 +8136,41 @@
       <c r="I145" s="19"/>
       <c r="J145" s="19"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" ht="30">
       <c r="A146" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>763</v>
+        <v>300</v>
       </c>
       <c r="D146" s="21"/>
       <c r="E146" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G146" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H146" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I146" s="19"/>
       <c r="J146" s="19"/>
     </row>
     <row r="147" spans="1:10" ht="30">
       <c r="A147" s="21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B147" s="22" t="s">
         <v>299</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D147" s="21"/>
       <c r="E147" s="21" t="s">
@@ -8470,23 +8180,23 @@
         <v>6</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H147" s="21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I147" s="19"/>
       <c r="J147" s="19"/>
     </row>
-    <row r="148" spans="1:10" ht="30">
+    <row r="148" spans="1:10" ht="345">
       <c r="A148" s="21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B148" s="22" t="s">
         <v>299</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D148" s="21"/>
       <c r="E148" s="21" t="s">
@@ -8496,23 +8206,23 @@
         <v>6</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H148" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I148" s="19"/>
       <c r="J148" s="19"/>
     </row>
-    <row r="149" spans="1:10" ht="345">
+    <row r="149" spans="1:10" ht="30">
       <c r="A149" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B149" s="22" t="s">
         <v>299</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D149" s="21"/>
       <c r="E149" s="21" t="s">
@@ -8525,20 +8235,20 @@
         <v>15</v>
       </c>
       <c r="H149" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I149" s="19"/>
       <c r="J149" s="19"/>
     </row>
-    <row r="150" spans="1:10" ht="30">
+    <row r="150" spans="1:10" ht="45">
       <c r="A150" s="21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B150" s="22" t="s">
         <v>299</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D150" s="21"/>
       <c r="E150" s="21" t="s">
@@ -8556,15 +8266,15 @@
       <c r="I150" s="19"/>
       <c r="J150" s="19"/>
     </row>
-    <row r="151" spans="1:10" ht="45">
+    <row r="151" spans="1:10" ht="30">
       <c r="A151" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B151" s="22" t="s">
         <v>299</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>308</v>
+        <v>807</v>
       </c>
       <c r="D151" s="21"/>
       <c r="E151" s="21" t="s">
@@ -8574,23 +8284,23 @@
         <v>6</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H151" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I151" s="19"/>
       <c r="J151" s="19"/>
     </row>
     <row r="152" spans="1:10" ht="30">
       <c r="A152" s="21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B152" s="22" t="s">
         <v>299</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>811</v>
+        <v>311</v>
       </c>
       <c r="D152" s="21"/>
       <c r="E152" s="21" t="s">
@@ -8600,23 +8310,23 @@
         <v>6</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H152" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I152" s="19"/>
       <c r="J152" s="19"/>
     </row>
     <row r="153" spans="1:10" ht="30">
       <c r="A153" s="21" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B153" s="22" t="s">
         <v>299</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D153" s="21"/>
       <c r="E153" s="21" t="s">
@@ -8636,20 +8346,20 @@
     </row>
     <row r="154" spans="1:10" ht="30">
       <c r="A154" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B154" s="22" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D154" s="21"/>
       <c r="E154" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G154" s="21" t="s">
         <v>15</v>
@@ -8660,15 +8370,15 @@
       <c r="I154" s="19"/>
       <c r="J154" s="19"/>
     </row>
-    <row r="155" spans="1:10" ht="30">
+    <row r="155" spans="1:10" ht="75">
       <c r="A155" s="21" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B155" s="22" t="s">
         <v>315</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D155" s="21"/>
       <c r="E155" s="21" t="s">
@@ -8681,20 +8391,20 @@
         <v>15</v>
       </c>
       <c r="H155" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I155" s="19"/>
       <c r="J155" s="19"/>
     </row>
-    <row r="156" spans="1:10" ht="75">
+    <row r="156" spans="1:10" ht="45">
       <c r="A156" s="21" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B156" s="22" t="s">
         <v>315</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D156" s="21"/>
       <c r="E156" s="21" t="s">
@@ -8707,20 +8417,20 @@
         <v>15</v>
       </c>
       <c r="H156" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I156" s="19"/>
       <c r="J156" s="19"/>
     </row>
-    <row r="157" spans="1:10" ht="45">
+    <row r="157" spans="1:10" ht="30">
       <c r="A157" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="D157" s="21"/>
       <c r="E157" s="21" t="s">
@@ -8730,33 +8440,33 @@
         <v>3</v>
       </c>
       <c r="G157" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H157" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I157" s="19"/>
       <c r="J157" s="19"/>
     </row>
     <row r="158" spans="1:10" ht="30">
       <c r="A158" s="21" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B158" s="22" t="s">
         <v>322</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="D158" s="21"/>
       <c r="E158" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H158" s="21" t="s">
         <v>18</v>
@@ -8766,65 +8476,65 @@
     </row>
     <row r="159" spans="1:10" ht="30">
       <c r="A159" s="21" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B159" s="22" t="s">
         <v>322</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D159" s="21"/>
       <c r="E159" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G159" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H159" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I159" s="19"/>
       <c r="J159" s="19"/>
     </row>
     <row r="160" spans="1:10" ht="30">
       <c r="A160" s="21" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D160" s="21"/>
       <c r="E160" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H160" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I160" s="19"/>
       <c r="J160" s="19"/>
     </row>
-    <row r="161" spans="1:10" ht="30">
+    <row r="161" spans="1:10" ht="45">
       <c r="A161" s="21" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B161" s="22" t="s">
         <v>328</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D161" s="21"/>
       <c r="E161" s="21" t="s">
@@ -8834,7 +8544,7 @@
         <v>7</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H161" s="21" t="s">
         <v>18</v>
@@ -8842,15 +8552,15 @@
       <c r="I161" s="19"/>
       <c r="J161" s="19"/>
     </row>
-    <row r="162" spans="1:10" ht="45">
+    <row r="162" spans="1:10">
       <c r="A162" s="21" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B162" s="22" t="s">
         <v>328</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D162" s="21"/>
       <c r="E162" s="21" t="s">
@@ -8868,25 +8578,25 @@
       <c r="I162" s="19"/>
       <c r="J162" s="19"/>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" ht="30">
       <c r="A163" s="21" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D163" s="21"/>
       <c r="E163" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G163" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H163" s="21" t="s">
         <v>18</v>
@@ -8896,13 +8606,13 @@
     </row>
     <row r="164" spans="1:10" ht="30">
       <c r="A164" s="21" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B164" s="22" t="s">
         <v>335</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D164" s="21"/>
       <c r="E164" s="21" t="s">
@@ -8912,59 +8622,59 @@
         <v>6</v>
       </c>
       <c r="G164" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H164" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I164" s="19"/>
       <c r="J164" s="19"/>
     </row>
     <row r="165" spans="1:10" ht="30">
       <c r="A165" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>338</v>
+        <v>212</v>
       </c>
       <c r="D165" s="21"/>
       <c r="E165" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F165" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G165" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H165" s="21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I165" s="19"/>
       <c r="J165" s="19"/>
     </row>
     <row r="166" spans="1:10" ht="30">
       <c r="A166" s="21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B166" s="22" t="s">
         <v>340</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>212</v>
+        <v>342</v>
       </c>
       <c r="D166" s="21"/>
       <c r="E166" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F166" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H166" s="21" t="s">
         <v>18</v>
@@ -8972,67 +8682,67 @@
       <c r="I166" s="19"/>
       <c r="J166" s="19"/>
     </row>
-    <row r="167" spans="1:10" ht="30">
+    <row r="167" spans="1:10" ht="45">
       <c r="A167" s="21" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B167" s="22" t="s">
         <v>340</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D167" s="21"/>
       <c r="E167" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F167" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G167" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H167" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I167" s="19"/>
       <c r="J167" s="19"/>
     </row>
-    <row r="168" spans="1:10" ht="45">
+    <row r="168" spans="1:10" ht="30">
       <c r="A168" s="21" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D168" s="21"/>
       <c r="E168" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F168" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G168" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H168" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I168" s="19"/>
       <c r="J168" s="19"/>
     </row>
-    <row r="169" spans="1:10" ht="30">
+    <row r="169" spans="1:10" ht="120">
       <c r="A169" s="21" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B169" s="22" t="s">
         <v>346</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D169" s="21"/>
       <c r="E169" s="21" t="s">
@@ -9050,15 +8760,15 @@
       <c r="I169" s="19"/>
       <c r="J169" s="19"/>
     </row>
-    <row r="170" spans="1:10" ht="120">
+    <row r="170" spans="1:10">
       <c r="A170" s="21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B170" s="22" t="s">
         <v>346</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D170" s="21"/>
       <c r="E170" s="21" t="s">
@@ -9076,15 +8786,15 @@
       <c r="I170" s="19"/>
       <c r="J170" s="19"/>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" ht="30">
       <c r="A171" s="21" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B171" s="22" t="s">
         <v>346</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D171" s="21"/>
       <c r="E171" s="21" t="s">
@@ -9104,13 +8814,13 @@
     </row>
     <row r="172" spans="1:10" ht="30">
       <c r="A172" s="21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B172" s="22" t="s">
         <v>346</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D172" s="21"/>
       <c r="E172" s="21" t="s">
@@ -9130,39 +8840,39 @@
     </row>
     <row r="173" spans="1:10" ht="30">
       <c r="A173" s="21" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B173" s="22" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D173" s="21"/>
       <c r="E173" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F173" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G173" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H173" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I173" s="19"/>
       <c r="J173" s="19"/>
     </row>
-    <row r="174" spans="1:10" ht="30">
+    <row r="174" spans="1:10" ht="225">
       <c r="A174" s="21" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B174" s="22" t="s">
         <v>357</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>358</v>
+        <v>808</v>
       </c>
       <c r="D174" s="21"/>
       <c r="E174" s="21" t="s">
@@ -9180,15 +8890,15 @@
       <c r="I174" s="19"/>
       <c r="J174" s="19"/>
     </row>
-    <row r="175" spans="1:10" ht="225">
+    <row r="175" spans="1:10" ht="30">
       <c r="A175" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B175" s="22" t="s">
         <v>357</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>812</v>
+        <v>361</v>
       </c>
       <c r="D175" s="21"/>
       <c r="E175" s="21" t="s">
@@ -9206,41 +8916,41 @@
       <c r="I175" s="19"/>
       <c r="J175" s="19"/>
     </row>
-    <row r="176" spans="1:10" ht="30">
+    <row r="176" spans="1:10">
       <c r="A176" s="21" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D176" s="21"/>
       <c r="E176" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F176" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G176" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H176" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I176" s="19"/>
       <c r="J176" s="19"/>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" ht="75">
       <c r="A177" s="21" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B177" s="22" t="s">
         <v>363</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D177" s="21"/>
       <c r="E177" s="21" t="s">
@@ -9253,20 +8963,20 @@
         <v>15</v>
       </c>
       <c r="H177" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I177" s="19"/>
       <c r="J177" s="19"/>
     </row>
-    <row r="178" spans="1:10" ht="75">
+    <row r="178" spans="1:10" ht="30">
       <c r="A178" s="21" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B178" s="22" t="s">
         <v>363</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D178" s="21"/>
       <c r="E178" s="21" t="s">
@@ -9279,20 +8989,20 @@
         <v>15</v>
       </c>
       <c r="H178" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I178" s="19"/>
       <c r="J178" s="19"/>
     </row>
     <row r="179" spans="1:10" ht="30">
       <c r="A179" s="21" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>368</v>
+        <v>193</v>
       </c>
       <c r="D179" s="21"/>
       <c r="E179" s="21" t="s">
@@ -9302,33 +9012,33 @@
         <v>3</v>
       </c>
       <c r="G179" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H179" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I179" s="19"/>
       <c r="J179" s="19"/>
     </row>
     <row r="180" spans="1:10" ht="30">
       <c r="A180" s="21" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B180" s="22" t="s">
         <v>370</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>193</v>
+        <v>372</v>
       </c>
       <c r="D180" s="21"/>
       <c r="E180" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F180" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G180" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H180" s="21" t="s">
         <v>18</v>
@@ -9338,65 +9048,65 @@
     </row>
     <row r="181" spans="1:10" ht="30">
       <c r="A181" s="21" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B181" s="22" t="s">
         <v>370</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D181" s="21"/>
       <c r="E181" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F181" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G181" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H181" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I181" s="19"/>
       <c r="J181" s="19"/>
     </row>
-    <row r="182" spans="1:10" ht="30">
+    <row r="182" spans="1:10">
       <c r="A182" s="21" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D182" s="21"/>
       <c r="E182" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F182" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G182" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H182" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I182" s="19"/>
       <c r="J182" s="19"/>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" ht="30">
       <c r="A183" s="21" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B183" s="22" t="s">
         <v>376</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D183" s="21"/>
       <c r="E183" s="21" t="s">
@@ -9406,7 +9116,7 @@
         <v>7</v>
       </c>
       <c r="G183" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H183" s="21" t="s">
         <v>18</v>
@@ -9414,15 +9124,15 @@
       <c r="I183" s="19"/>
       <c r="J183" s="19"/>
     </row>
-    <row r="184" spans="1:10" ht="30">
+    <row r="184" spans="1:10">
       <c r="A184" s="21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B184" s="22" t="s">
         <v>376</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D184" s="21"/>
       <c r="E184" s="21" t="s">
@@ -9440,25 +9150,25 @@
       <c r="I184" s="19"/>
       <c r="J184" s="19"/>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" ht="30">
       <c r="A185" s="21" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D185" s="21"/>
       <c r="E185" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F185" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G185" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H185" s="21" t="s">
         <v>18</v>
@@ -9468,13 +9178,13 @@
     </row>
     <row r="186" spans="1:10" ht="30">
       <c r="A186" s="21" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B186" s="22" t="s">
         <v>383</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D186" s="21"/>
       <c r="E186" s="21" t="s">
@@ -9484,59 +9194,59 @@
         <v>6</v>
       </c>
       <c r="G186" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H186" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I186" s="19"/>
       <c r="J186" s="19"/>
     </row>
     <row r="187" spans="1:10" ht="30">
       <c r="A187" s="21" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>386</v>
+        <v>212</v>
       </c>
       <c r="D187" s="21"/>
       <c r="E187" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F187" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G187" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H187" s="21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I187" s="19"/>
       <c r="J187" s="19"/>
     </row>
     <row r="188" spans="1:10" ht="30">
       <c r="A188" s="21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B188" s="22" t="s">
         <v>388</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>212</v>
+        <v>390</v>
       </c>
       <c r="D188" s="21"/>
       <c r="E188" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F188" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G188" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H188" s="21" t="s">
         <v>18</v>
@@ -9546,65 +9256,65 @@
     </row>
     <row r="189" spans="1:10" ht="30">
       <c r="A189" s="21" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B189" s="22" t="s">
         <v>388</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D189" s="21"/>
       <c r="E189" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F189" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G189" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H189" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I189" s="19"/>
       <c r="J189" s="19"/>
     </row>
     <row r="190" spans="1:10" ht="30">
       <c r="A190" s="21" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D190" s="21"/>
       <c r="E190" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F190" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G190" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H190" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I190" s="19"/>
       <c r="J190" s="19"/>
     </row>
-    <row r="191" spans="1:10" ht="30">
+    <row r="191" spans="1:10" ht="120">
       <c r="A191" s="21" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B191" s="22" t="s">
         <v>394</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D191" s="21"/>
       <c r="E191" s="21" t="s">
@@ -9614,7 +9324,7 @@
         <v>7</v>
       </c>
       <c r="G191" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H191" s="21" t="s">
         <v>18</v>
@@ -9622,15 +9332,15 @@
       <c r="I191" s="19"/>
       <c r="J191" s="19"/>
     </row>
-    <row r="192" spans="1:10" ht="120">
+    <row r="192" spans="1:10">
       <c r="A192" s="21" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B192" s="22" t="s">
         <v>394</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D192" s="21"/>
       <c r="E192" s="21" t="s">
@@ -9648,25 +9358,25 @@
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" ht="30">
       <c r="A193" s="21" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B193" s="22" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D193" s="21"/>
       <c r="E193" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F193" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G193" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H193" s="21" t="s">
         <v>18</v>
@@ -9674,15 +9384,15 @@
       <c r="I193" s="19"/>
       <c r="J193" s="19"/>
     </row>
-    <row r="194" spans="1:10" ht="30">
+    <row r="194" spans="1:10" ht="210">
       <c r="A194" s="21" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B194" s="22" t="s">
         <v>401</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>402</v>
+        <v>809</v>
       </c>
       <c r="D194" s="21"/>
       <c r="E194" s="21" t="s">
@@ -9692,23 +9402,23 @@
         <v>6</v>
       </c>
       <c r="G194" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H194" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
     </row>
-    <row r="195" spans="1:10" ht="210">
+    <row r="195" spans="1:10" ht="30">
       <c r="A195" s="21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B195" s="22" t="s">
         <v>401</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>813</v>
+        <v>405</v>
       </c>
       <c r="D195" s="21"/>
       <c r="E195" s="21" t="s">
@@ -9728,39 +9438,39 @@
     </row>
     <row r="196" spans="1:10" ht="30">
       <c r="A196" s="21" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D196" s="21"/>
       <c r="E196" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F196" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G196" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H196" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I196" s="19"/>
       <c r="J196" s="19"/>
     </row>
-    <row r="197" spans="1:10" ht="30">
+    <row r="197" spans="1:10" ht="45">
       <c r="A197" s="21" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B197" s="22" t="s">
         <v>407</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D197" s="21"/>
       <c r="E197" s="21" t="s">
@@ -9778,15 +9488,15 @@
       <c r="I197" s="19"/>
       <c r="J197" s="19"/>
     </row>
-    <row r="198" spans="1:10" ht="45">
+    <row r="198" spans="1:10" ht="75">
       <c r="A198" s="21" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B198" s="22" t="s">
         <v>407</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D198" s="21"/>
       <c r="E198" s="21" t="s">
@@ -9799,20 +9509,20 @@
         <v>15</v>
       </c>
       <c r="H198" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I198" s="19"/>
       <c r="J198" s="19"/>
     </row>
-    <row r="199" spans="1:10" ht="75">
+    <row r="199" spans="1:10" ht="45">
       <c r="A199" s="21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B199" s="22" t="s">
         <v>407</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D199" s="21"/>
       <c r="E199" s="21" t="s">
@@ -9825,20 +9535,20 @@
         <v>15</v>
       </c>
       <c r="H199" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I199" s="19"/>
       <c r="J199" s="19"/>
     </row>
-    <row r="200" spans="1:10" ht="45">
+    <row r="200" spans="1:10" ht="30">
       <c r="A200" s="21" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>414</v>
+        <v>193</v>
       </c>
       <c r="D200" s="21"/>
       <c r="E200" s="21" t="s">
@@ -9848,33 +9558,33 @@
         <v>3</v>
       </c>
       <c r="G200" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H200" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I200" s="19"/>
       <c r="J200" s="19"/>
     </row>
     <row r="201" spans="1:10" ht="30">
       <c r="A201" s="21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B201" s="22" t="s">
         <v>416</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>193</v>
+        <v>418</v>
       </c>
       <c r="D201" s="21"/>
       <c r="E201" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F201" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G201" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H201" s="21" t="s">
         <v>18</v>
@@ -9882,67 +9592,67 @@
       <c r="I201" s="19"/>
       <c r="J201" s="19"/>
     </row>
-    <row r="202" spans="1:10" ht="30">
+    <row r="202" spans="1:10" ht="45">
       <c r="A202" s="21" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B202" s="22" t="s">
         <v>416</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D202" s="21"/>
       <c r="E202" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F202" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G202" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H202" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I202" s="19"/>
       <c r="J202" s="19"/>
     </row>
-    <row r="203" spans="1:10" ht="45">
+    <row r="203" spans="1:10" ht="30">
       <c r="A203" s="21" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D203" s="21"/>
       <c r="E203" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F203" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G203" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H203" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I203" s="19"/>
       <c r="J203" s="19"/>
     </row>
-    <row r="204" spans="1:10" ht="30">
+    <row r="204" spans="1:10" ht="45">
       <c r="A204" s="21" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B204" s="22" t="s">
         <v>422</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D204" s="21"/>
       <c r="E204" s="21" t="s">
@@ -9952,7 +9662,7 @@
         <v>7</v>
       </c>
       <c r="G204" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H204" s="21" t="s">
         <v>18</v>
@@ -9960,15 +9670,15 @@
       <c r="I204" s="19"/>
       <c r="J204" s="19"/>
     </row>
-    <row r="205" spans="1:10" ht="45">
+    <row r="205" spans="1:10" ht="30">
       <c r="A205" s="21" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B205" s="22" t="s">
         <v>422</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D205" s="21"/>
       <c r="E205" s="21" t="s">
@@ -9988,23 +9698,23 @@
     </row>
     <row r="206" spans="1:10" ht="30">
       <c r="A206" s="21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D206" s="21"/>
       <c r="E206" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F206" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G206" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H206" s="21" t="s">
         <v>18</v>
@@ -10014,13 +9724,13 @@
     </row>
     <row r="207" spans="1:10" ht="30">
       <c r="A207" s="21" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B207" s="22" t="s">
         <v>429</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D207" s="21"/>
       <c r="E207" s="21" t="s">
@@ -10030,59 +9740,59 @@
         <v>6</v>
       </c>
       <c r="G207" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H207" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I207" s="19"/>
       <c r="J207" s="19"/>
     </row>
     <row r="208" spans="1:10" ht="30">
       <c r="A208" s="21" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>432</v>
+        <v>212</v>
       </c>
       <c r="D208" s="21"/>
       <c r="E208" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F208" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G208" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H208" s="21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I208" s="19"/>
       <c r="J208" s="19"/>
     </row>
-    <row r="209" spans="1:10" ht="30">
+    <row r="209" spans="1:10" ht="45">
       <c r="A209" s="21" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B209" s="22" t="s">
         <v>434</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>212</v>
+        <v>436</v>
       </c>
       <c r="D209" s="21"/>
       <c r="E209" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F209" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G209" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H209" s="21" t="s">
         <v>18</v>
@@ -10092,65 +9802,65 @@
     </row>
     <row r="210" spans="1:10" ht="45">
       <c r="A210" s="21" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B210" s="22" t="s">
         <v>434</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D210" s="21"/>
       <c r="E210" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F210" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G210" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H210" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I210" s="19"/>
       <c r="J210" s="19"/>
     </row>
-    <row r="211" spans="1:10" ht="45">
+    <row r="211" spans="1:10" ht="30">
       <c r="A211" s="21" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B211" s="22" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D211" s="21"/>
       <c r="E211" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F211" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G211" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H211" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I211" s="19"/>
       <c r="J211" s="19"/>
     </row>
-    <row r="212" spans="1:10" ht="30">
+    <row r="212" spans="1:10" ht="120">
       <c r="A212" s="21" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B212" s="22" t="s">
         <v>440</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D212" s="21"/>
       <c r="E212" s="21" t="s">
@@ -10168,15 +9878,15 @@
       <c r="I212" s="19"/>
       <c r="J212" s="19"/>
     </row>
-    <row r="213" spans="1:10" ht="120">
+    <row r="213" spans="1:10">
       <c r="A213" s="21" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B213" s="22" t="s">
         <v>440</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D213" s="21"/>
       <c r="E213" s="21" t="s">
@@ -10194,25 +9904,25 @@
       <c r="I213" s="19"/>
       <c r="J213" s="19"/>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" ht="30">
       <c r="A214" s="21" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B214" s="22" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D214" s="21"/>
       <c r="E214" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F214" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G214" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H214" s="21" t="s">
         <v>18</v>
@@ -10220,15 +9930,15 @@
       <c r="I214" s="19"/>
       <c r="J214" s="19"/>
     </row>
-    <row r="215" spans="1:10" ht="30">
+    <row r="215" spans="1:10" ht="409.5">
       <c r="A215" s="21" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B215" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>448</v>
+        <v>810</v>
       </c>
       <c r="D215" s="21"/>
       <c r="E215" s="21" t="s">
@@ -10238,23 +9948,23 @@
         <v>6</v>
       </c>
       <c r="G215" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H215" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I215" s="19"/>
       <c r="J215" s="19"/>
     </row>
-    <row r="216" spans="1:10" ht="409.5">
+    <row r="216" spans="1:10" ht="45">
       <c r="A216" s="21" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B216" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>814</v>
+        <v>451</v>
       </c>
       <c r="D216" s="21"/>
       <c r="E216" s="21" t="s">
@@ -10274,13 +9984,13 @@
     </row>
     <row r="217" spans="1:10" ht="45">
       <c r="A217" s="21" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B217" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D217" s="21"/>
       <c r="E217" s="21" t="s">
@@ -10300,13 +10010,13 @@
     </row>
     <row r="218" spans="1:10" ht="45">
       <c r="A218" s="21" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B218" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D218" s="21"/>
       <c r="E218" s="21" t="s">
@@ -10319,20 +10029,20 @@
         <v>15</v>
       </c>
       <c r="H218" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I218" s="19"/>
       <c r="J218" s="19"/>
     </row>
     <row r="219" spans="1:10" ht="45">
       <c r="A219" s="21" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B219" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D219" s="21"/>
       <c r="E219" s="21" t="s">
@@ -10352,46 +10062,46 @@
     </row>
     <row r="220" spans="1:10" ht="45">
       <c r="A220" s="21" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B220" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D220" s="21"/>
       <c r="E220" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F220" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G220" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H220" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I220" s="19"/>
       <c r="J220" s="19"/>
     </row>
     <row r="221" spans="1:10" ht="45">
       <c r="A221" s="21" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B221" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D221" s="21"/>
       <c r="E221" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F221" s="21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G221" s="21" t="s">
         <v>15</v>
@@ -10402,15 +10112,15 @@
       <c r="I221" s="19"/>
       <c r="J221" s="19"/>
     </row>
-    <row r="222" spans="1:10" ht="45">
+    <row r="222" spans="1:10" ht="60">
       <c r="A222" s="21" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B222" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D222" s="21"/>
       <c r="E222" s="21" t="s">
@@ -10423,20 +10133,20 @@
         <v>15</v>
       </c>
       <c r="H222" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I222" s="19"/>
       <c r="J222" s="19"/>
     </row>
     <row r="223" spans="1:10" ht="60">
       <c r="A223" s="21" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B223" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D223" s="21"/>
       <c r="E223" s="21" t="s">
@@ -10454,15 +10164,15 @@
       <c r="I223" s="19"/>
       <c r="J223" s="19"/>
     </row>
-    <row r="224" spans="1:10" ht="60">
+    <row r="224" spans="1:10" ht="45">
       <c r="A224" s="21" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B224" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D224" s="21"/>
       <c r="E224" s="21" t="s">
@@ -10475,1714 +10185,1714 @@
         <v>15</v>
       </c>
       <c r="H224" s="21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I224" s="19"/>
       <c r="J224" s="19"/>
     </row>
     <row r="225" spans="1:10" ht="45">
       <c r="A225" s="21" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B225" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D225" s="21"/>
       <c r="E225" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F225" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G225" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H225" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I225" s="19"/>
       <c r="J225" s="19"/>
     </row>
     <row r="226" spans="1:10" ht="45">
       <c r="A226" s="21" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B226" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D226" s="21"/>
       <c r="E226" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F226" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G226" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H226" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I226" s="19"/>
       <c r="J226" s="19"/>
     </row>
     <row r="227" spans="1:10" ht="45">
       <c r="A227" s="21" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B227" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D227" s="21"/>
       <c r="E227" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F227" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G227" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H227" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I227" s="19"/>
       <c r="J227" s="19"/>
     </row>
     <row r="228" spans="1:10" ht="45">
       <c r="A228" s="21" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B228" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D228" s="21"/>
       <c r="E228" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F228" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G228" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H228" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I228" s="19"/>
       <c r="J228" s="19"/>
     </row>
     <row r="229" spans="1:10" ht="45">
       <c r="A229" s="21" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B229" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D229" s="21"/>
       <c r="E229" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F229" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G229" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H229" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I229" s="19"/>
       <c r="J229" s="19"/>
     </row>
     <row r="230" spans="1:10" ht="45">
       <c r="A230" s="21" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B230" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D230" s="21"/>
       <c r="E230" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F230" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G230" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H230" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I230" s="19"/>
       <c r="J230" s="19"/>
     </row>
     <row r="231" spans="1:10" ht="45">
       <c r="A231" s="21" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B231" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D231" s="21"/>
       <c r="E231" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F231" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G231" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H231" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I231" s="19"/>
       <c r="J231" s="19"/>
     </row>
     <row r="232" spans="1:10" ht="45">
       <c r="A232" s="21" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B232" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D232" s="21"/>
       <c r="E232" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F232" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G232" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H232" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I232" s="19"/>
       <c r="J232" s="19"/>
     </row>
     <row r="233" spans="1:10" ht="45">
       <c r="A233" s="21" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B233" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D233" s="21"/>
       <c r="E233" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F233" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G233" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H233" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I233" s="19"/>
       <c r="J233" s="19"/>
     </row>
     <row r="234" spans="1:10" ht="45">
       <c r="A234" s="21" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B234" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D234" s="21"/>
       <c r="E234" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F234" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G234" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H234" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I234" s="19"/>
       <c r="J234" s="19"/>
     </row>
     <row r="235" spans="1:10" ht="45">
       <c r="A235" s="21" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B235" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D235" s="21"/>
       <c r="E235" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F235" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G235" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H235" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
     </row>
     <row r="236" spans="1:10" ht="45">
       <c r="A236" s="21" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B236" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D236" s="21"/>
       <c r="E236" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F236" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G236" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H236" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
     </row>
     <row r="237" spans="1:10" ht="45">
       <c r="A237" s="21" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B237" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C237" s="19" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D237" s="21"/>
       <c r="E237" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F237" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G237" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H237" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
     </row>
     <row r="238" spans="1:10" ht="45">
       <c r="A238" s="21" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B238" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C238" s="19" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D238" s="21"/>
       <c r="E238" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F238" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G238" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H238" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I238" s="19"/>
       <c r="J238" s="19"/>
     </row>
     <row r="239" spans="1:10" ht="45">
       <c r="A239" s="21" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B239" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D239" s="21"/>
       <c r="E239" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F239" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G239" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H239" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I239" s="19"/>
       <c r="J239" s="19"/>
     </row>
     <row r="240" spans="1:10" ht="45">
       <c r="A240" s="21" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B240" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D240" s="21"/>
       <c r="E240" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F240" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G240" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H240" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I240" s="19"/>
       <c r="J240" s="19"/>
     </row>
     <row r="241" spans="1:10" ht="45">
       <c r="A241" s="21" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B241" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D241" s="21"/>
       <c r="E241" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F241" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G241" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H241" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I241" s="19"/>
       <c r="J241" s="19"/>
     </row>
     <row r="242" spans="1:10" ht="45">
       <c r="A242" s="21" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B242" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C242" s="19" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D242" s="21"/>
       <c r="E242" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F242" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G242" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H242" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I242" s="19"/>
       <c r="J242" s="19"/>
     </row>
     <row r="243" spans="1:10" ht="45">
       <c r="A243" s="21" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B243" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D243" s="21"/>
       <c r="E243" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F243" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G243" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H243" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I243" s="19"/>
       <c r="J243" s="19"/>
     </row>
     <row r="244" spans="1:10" ht="45">
       <c r="A244" s="21" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B244" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D244" s="21"/>
       <c r="E244" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F244" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G244" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H244" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I244" s="19"/>
       <c r="J244" s="19"/>
     </row>
     <row r="245" spans="1:10" ht="45">
       <c r="A245" s="21" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B245" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D245" s="21"/>
       <c r="E245" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F245" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G245" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H245" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I245" s="19"/>
       <c r="J245" s="19"/>
     </row>
     <row r="246" spans="1:10" ht="45">
       <c r="A246" s="21" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B246" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D246" s="21"/>
       <c r="E246" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F246" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G246" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H246" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I246" s="19"/>
       <c r="J246" s="19"/>
     </row>
     <row r="247" spans="1:10" ht="45">
       <c r="A247" s="21" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B247" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D247" s="21"/>
       <c r="E247" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F247" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G247" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H247" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I247" s="19"/>
       <c r="J247" s="19"/>
     </row>
     <row r="248" spans="1:10" ht="45">
       <c r="A248" s="21" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B248" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C248" s="19" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D248" s="21"/>
       <c r="E248" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F248" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G248" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H248" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I248" s="19"/>
       <c r="J248" s="19"/>
     </row>
     <row r="249" spans="1:10" ht="45">
       <c r="A249" s="21" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B249" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C249" s="19" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D249" s="21"/>
       <c r="E249" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F249" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G249" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H249" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I249" s="19"/>
       <c r="J249" s="19"/>
     </row>
     <row r="250" spans="1:10" ht="45">
       <c r="A250" s="21" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B250" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D250" s="21"/>
       <c r="E250" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F250" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G250" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H250" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I250" s="19"/>
       <c r="J250" s="19"/>
     </row>
     <row r="251" spans="1:10" ht="45">
       <c r="A251" s="21" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B251" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D251" s="21"/>
       <c r="E251" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F251" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G251" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H251" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I251" s="19"/>
       <c r="J251" s="19"/>
     </row>
     <row r="252" spans="1:10" ht="45">
       <c r="A252" s="21" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B252" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D252" s="21"/>
       <c r="E252" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F252" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G252" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H252" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I252" s="19"/>
       <c r="J252" s="19"/>
     </row>
     <row r="253" spans="1:10" ht="45">
       <c r="A253" s="21" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B253" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D253" s="21"/>
       <c r="E253" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F253" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G253" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H253" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I253" s="19"/>
       <c r="J253" s="19"/>
     </row>
     <row r="254" spans="1:10" ht="45">
       <c r="A254" s="21" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B254" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D254" s="21"/>
       <c r="E254" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F254" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G254" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H254" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I254" s="19"/>
       <c r="J254" s="19"/>
     </row>
     <row r="255" spans="1:10" ht="45">
       <c r="A255" s="21" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B255" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D255" s="21"/>
       <c r="E255" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F255" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G255" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H255" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I255" s="19"/>
       <c r="J255" s="19"/>
     </row>
     <row r="256" spans="1:10" ht="45">
       <c r="A256" s="21" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B256" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C256" s="19" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D256" s="21"/>
       <c r="E256" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F256" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G256" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H256" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I256" s="19"/>
       <c r="J256" s="19"/>
     </row>
     <row r="257" spans="1:10" ht="45">
       <c r="A257" s="21" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B257" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C257" s="19" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D257" s="21"/>
       <c r="E257" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F257" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G257" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H257" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I257" s="19"/>
       <c r="J257" s="19"/>
     </row>
     <row r="258" spans="1:10" ht="45">
       <c r="A258" s="21" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B258" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D258" s="21"/>
       <c r="E258" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F258" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G258" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H258" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I258" s="19"/>
       <c r="J258" s="19"/>
     </row>
     <row r="259" spans="1:10" ht="45">
       <c r="A259" s="21" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B259" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D259" s="21"/>
       <c r="E259" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F259" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G259" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H259" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I259" s="19"/>
       <c r="J259" s="19"/>
     </row>
     <row r="260" spans="1:10" ht="45">
       <c r="A260" s="21" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B260" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D260" s="21"/>
       <c r="E260" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F260" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G260" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H260" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I260" s="19"/>
       <c r="J260" s="19"/>
     </row>
     <row r="261" spans="1:10" ht="45">
       <c r="A261" s="21" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B261" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D261" s="21"/>
       <c r="E261" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F261" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G261" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H261" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I261" s="19"/>
       <c r="J261" s="19"/>
     </row>
     <row r="262" spans="1:10" ht="45">
       <c r="A262" s="21" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B262" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D262" s="21"/>
       <c r="E262" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F262" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G262" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H262" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I262" s="19"/>
       <c r="J262" s="19"/>
     </row>
     <row r="263" spans="1:10" ht="45">
       <c r="A263" s="21" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B263" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D263" s="21"/>
       <c r="E263" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F263" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G263" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H263" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I263" s="19"/>
       <c r="J263" s="19"/>
     </row>
     <row r="264" spans="1:10" ht="45">
       <c r="A264" s="21" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B264" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D264" s="21"/>
       <c r="E264" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F264" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G264" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H264" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I264" s="19"/>
       <c r="J264" s="19"/>
     </row>
     <row r="265" spans="1:10" ht="45">
       <c r="A265" s="21" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B265" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D265" s="21"/>
       <c r="E265" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F265" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G265" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H265" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I265" s="19"/>
       <c r="J265" s="19"/>
     </row>
     <row r="266" spans="1:10" ht="45">
       <c r="A266" s="21" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B266" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D266" s="21"/>
       <c r="E266" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F266" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G266" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H266" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I266" s="19"/>
       <c r="J266" s="19"/>
     </row>
     <row r="267" spans="1:10" ht="45">
       <c r="A267" s="21" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B267" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D267" s="21"/>
       <c r="E267" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F267" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G267" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H267" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I267" s="19"/>
       <c r="J267" s="19"/>
     </row>
     <row r="268" spans="1:10" ht="45">
       <c r="A268" s="21" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B268" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D268" s="21"/>
       <c r="E268" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F268" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G268" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H268" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I268" s="19"/>
       <c r="J268" s="19"/>
     </row>
     <row r="269" spans="1:10" ht="45">
       <c r="A269" s="21" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B269" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D269" s="21"/>
       <c r="E269" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F269" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G269" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H269" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I269" s="19"/>
       <c r="J269" s="19"/>
     </row>
     <row r="270" spans="1:10" ht="45">
       <c r="A270" s="21" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B270" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D270" s="21"/>
       <c r="E270" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F270" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G270" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H270" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I270" s="19"/>
       <c r="J270" s="19"/>
     </row>
     <row r="271" spans="1:10" ht="45">
       <c r="A271" s="21" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B271" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D271" s="21"/>
       <c r="E271" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F271" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G271" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H271" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I271" s="19"/>
       <c r="J271" s="19"/>
     </row>
     <row r="272" spans="1:10" ht="45">
       <c r="A272" s="21" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B272" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D272" s="21"/>
       <c r="E272" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F272" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G272" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H272" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I272" s="19"/>
       <c r="J272" s="19"/>
     </row>
     <row r="273" spans="1:10" ht="45">
       <c r="A273" s="21" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B273" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C273" s="19" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D273" s="21"/>
       <c r="E273" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F273" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G273" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H273" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I273" s="19"/>
       <c r="J273" s="19"/>
     </row>
     <row r="274" spans="1:10" ht="45">
       <c r="A274" s="21" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B274" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D274" s="21"/>
       <c r="E274" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F274" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G274" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H274" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I274" s="19"/>
       <c r="J274" s="19"/>
     </row>
     <row r="275" spans="1:10" ht="45">
       <c r="A275" s="21" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B275" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C275" s="19" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D275" s="21"/>
       <c r="E275" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F275" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G275" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H275" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I275" s="19"/>
       <c r="J275" s="19"/>
     </row>
     <row r="276" spans="1:10" ht="45">
       <c r="A276" s="21" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B276" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D276" s="21"/>
       <c r="E276" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F276" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G276" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H276" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I276" s="19"/>
       <c r="J276" s="19"/>
     </row>
     <row r="277" spans="1:10" ht="45">
       <c r="A277" s="21" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B277" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D277" s="21"/>
       <c r="E277" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F277" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G277" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H277" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I277" s="19"/>
       <c r="J277" s="19"/>
     </row>
     <row r="278" spans="1:10" ht="45">
       <c r="A278" s="21" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B278" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>573</v>
+        <v>811</v>
       </c>
       <c r="D278" s="21"/>
       <c r="E278" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F278" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G278" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H278" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I278" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="I278" s="19" t="s">
+        <v>787</v>
+      </c>
       <c r="J278" s="19"/>
     </row>
     <row r="279" spans="1:10" ht="45">
       <c r="A279" s="21" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B279" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>815</v>
+        <v>776</v>
       </c>
       <c r="D279" s="21"/>
       <c r="E279" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F279" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G279" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H279" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>788</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I279" s="19"/>
       <c r="J279" s="19"/>
     </row>
     <row r="280" spans="1:10" ht="45">
       <c r="A280" s="21" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B280" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>777</v>
+        <v>812</v>
       </c>
       <c r="D280" s="21"/>
       <c r="E280" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F280" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G280" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H280" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I280" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="I280" s="19" t="s">
+        <v>788</v>
+      </c>
       <c r="J280" s="19"/>
     </row>
-    <row r="281" spans="1:10" ht="45">
+    <row r="281" spans="1:10">
       <c r="A281" s="21" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B281" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>816</v>
+        <v>777</v>
       </c>
       <c r="D281" s="21"/>
       <c r="E281" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F281" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G281" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H281" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I281" s="19" t="s">
-        <v>789</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I281" s="19"/>
       <c r="J281" s="19"/>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" ht="45">
       <c r="A282" s="21" t="s">
-        <v>577</v>
+        <v>814</v>
       </c>
       <c r="B282" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="C282" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="D282" s="21"/>
+      <c r="C282" s="39" t="s">
+        <v>813</v>
+      </c>
+      <c r="D282" s="31"/>
       <c r="E282" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F282" s="21" t="s">
+      <c r="F282" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G282" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H282" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I282" s="19"/>
+      <c r="G282" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H282" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I282" s="38"/>
       <c r="J282" s="19"/>
     </row>
     <row r="283" spans="1:10" ht="45">
       <c r="A283" s="21" t="s">
-        <v>818</v>
+        <v>578</v>
       </c>
       <c r="B283" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="C283" s="52" t="s">
-        <v>817</v>
-      </c>
-      <c r="D283" s="31"/>
+      <c r="C283" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="D283" s="21"/>
       <c r="E283" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F283" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G283" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H283" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I283" s="51"/>
+      <c r="F283" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G283" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H283" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I283" s="19"/>
       <c r="J283" s="19"/>
     </row>
     <row r="284" spans="1:10" ht="45">
       <c r="A284" s="21" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B284" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D284" s="21"/>
       <c r="E284" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F284" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G284" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H284" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I284" s="19"/>
       <c r="J284" s="19"/>
     </row>
     <row r="285" spans="1:10" ht="45">
       <c r="A285" s="21" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B285" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C285" s="19" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D285" s="21"/>
       <c r="E285" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F285" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G285" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H285" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I285" s="19"/>
       <c r="J285" s="19"/>
     </row>
     <row r="286" spans="1:10" ht="45">
       <c r="A286" s="21" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B286" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C286" s="19" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D286" s="21"/>
       <c r="E286" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F286" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G286" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H286" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I286" s="19"/>
       <c r="J286" s="19"/>
     </row>
     <row r="287" spans="1:10" ht="45">
       <c r="A287" s="21" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B287" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D287" s="21"/>
       <c r="E287" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F287" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G287" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H287" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I287" s="19"/>
       <c r="J287" s="19"/>
     </row>
     <row r="288" spans="1:10" ht="45">
       <c r="A288" s="21" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B288" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D288" s="21"/>
       <c r="E288" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F288" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G288" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H288" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I288" s="19"/>
       <c r="J288" s="19"/>
     </row>
-    <row r="289" spans="1:10" ht="45">
+    <row r="289" spans="1:10" ht="60">
       <c r="A289" s="21" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B289" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D289" s="21"/>
       <c r="E289" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F289" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G289" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H289" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I289" s="19"/>
       <c r="J289" s="19"/>
     </row>
-    <row r="290" spans="1:10" ht="60">
+    <row r="290" spans="1:10" ht="45">
       <c r="A290" s="21" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B290" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D290" s="21"/>
       <c r="E290" s="21" t="s">
@@ -12195,20 +11905,20 @@
         <v>15</v>
       </c>
       <c r="H290" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I290" s="19"/>
       <c r="J290" s="19"/>
     </row>
     <row r="291" spans="1:10" ht="45">
       <c r="A291" s="21" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B291" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D291" s="21"/>
       <c r="E291" s="21" t="s">
@@ -12218,23 +11928,23 @@
         <v>6</v>
       </c>
       <c r="G291" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H291" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I291" s="19"/>
       <c r="J291" s="19"/>
     </row>
-    <row r="292" spans="1:10" ht="45">
+    <row r="292" spans="1:10" s="33" customFormat="1" ht="45">
       <c r="A292" s="21" t="s">
-        <v>594</v>
+        <v>728</v>
       </c>
       <c r="B292" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>595</v>
+        <v>729</v>
       </c>
       <c r="D292" s="21"/>
       <c r="E292" s="21" t="s">
@@ -12244,23 +11954,23 @@
         <v>6</v>
       </c>
       <c r="G292" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H292" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I292" s="19"/>
+      <c r="I292" s="22"/>
       <c r="J292" s="19"/>
     </row>
-    <row r="293" spans="1:10" s="33" customFormat="1" ht="45">
+    <row r="293" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A293" s="21" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B293" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D293" s="21"/>
       <c r="E293" s="21" t="s">
@@ -12280,13 +11990,13 @@
     </row>
     <row r="294" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A294" s="21" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B294" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C294" s="19" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D294" s="21"/>
       <c r="E294" s="21" t="s">
@@ -12306,13 +12016,13 @@
     </row>
     <row r="295" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A295" s="21" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B295" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D295" s="21"/>
       <c r="E295" s="21" t="s">
@@ -12332,13 +12042,13 @@
     </row>
     <row r="296" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A296" s="21" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B296" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D296" s="21"/>
       <c r="E296" s="21" t="s">
@@ -12356,15 +12066,15 @@
       <c r="I296" s="22"/>
       <c r="J296" s="19"/>
     </row>
-    <row r="297" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="297" spans="1:10" s="33" customFormat="1" ht="45">
       <c r="A297" s="21" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B297" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D297" s="21"/>
       <c r="E297" s="21" t="s">
@@ -12382,15 +12092,15 @@
       <c r="I297" s="22"/>
       <c r="J297" s="19"/>
     </row>
-    <row r="298" spans="1:10" s="33" customFormat="1" ht="45">
+    <row r="298" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A298" s="21" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B298" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D298" s="21"/>
       <c r="E298" s="21" t="s">
@@ -12410,13 +12120,13 @@
     </row>
     <row r="299" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A299" s="21" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B299" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C299" s="19" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D299" s="21"/>
       <c r="E299" s="21" t="s">
@@ -12436,13 +12146,13 @@
     </row>
     <row r="300" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A300" s="21" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B300" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D300" s="21"/>
       <c r="E300" s="21" t="s">
@@ -12460,15 +12170,15 @@
       <c r="I300" s="22"/>
       <c r="J300" s="19"/>
     </row>
-    <row r="301" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="301" spans="1:10" s="33" customFormat="1" ht="45">
       <c r="A301" s="21" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B301" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D301" s="21"/>
       <c r="E301" s="21" t="s">
@@ -12486,41 +12196,41 @@
       <c r="I301" s="22"/>
       <c r="J301" s="19"/>
     </row>
-    <row r="302" spans="1:10" s="33" customFormat="1" ht="45">
+    <row r="302" spans="1:10">
       <c r="A302" s="21" t="s">
-        <v>747</v>
+        <v>596</v>
       </c>
       <c r="B302" s="22" t="s">
-        <v>447</v>
+        <v>597</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>748</v>
+        <v>598</v>
       </c>
       <c r="D302" s="21"/>
       <c r="E302" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F302" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G302" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H302" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I302" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="I302" s="19"/>
       <c r="J302" s="19"/>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" ht="75">
       <c r="A303" s="21" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B303" s="22" t="s">
         <v>597</v>
       </c>
       <c r="C303" s="19" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D303" s="21"/>
       <c r="E303" s="21" t="s">
@@ -12533,20 +12243,20 @@
         <v>15</v>
       </c>
       <c r="H303" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I303" s="19"/>
       <c r="J303" s="19"/>
     </row>
-    <row r="304" spans="1:10" ht="75">
+    <row r="304" spans="1:10" ht="45">
       <c r="A304" s="21" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B304" s="22" t="s">
         <v>597</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D304" s="21"/>
       <c r="E304" s="21" t="s">
@@ -12559,20 +12269,20 @@
         <v>15</v>
       </c>
       <c r="H304" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I304" s="19"/>
       <c r="J304" s="19"/>
     </row>
-    <row r="305" spans="1:10" ht="45">
+    <row r="305" spans="1:10" ht="30">
       <c r="A305" s="21" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B305" s="22" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>602</v>
+        <v>193</v>
       </c>
       <c r="D305" s="21"/>
       <c r="E305" s="21" t="s">
@@ -12582,33 +12292,33 @@
         <v>3</v>
       </c>
       <c r="G305" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H305" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I305" s="19"/>
       <c r="J305" s="19"/>
     </row>
     <row r="306" spans="1:10" ht="30">
       <c r="A306" s="21" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B306" s="22" t="s">
         <v>604</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>193</v>
+        <v>606</v>
       </c>
       <c r="D306" s="21"/>
       <c r="E306" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F306" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G306" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H306" s="21" t="s">
         <v>18</v>
@@ -12618,65 +12328,65 @@
     </row>
     <row r="307" spans="1:10" ht="30">
       <c r="A307" s="21" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B307" s="22" t="s">
         <v>604</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D307" s="21"/>
       <c r="E307" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F307" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G307" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H307" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I307" s="19"/>
       <c r="J307" s="19"/>
     </row>
     <row r="308" spans="1:10" ht="30">
       <c r="A308" s="21" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B308" s="22" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D308" s="21"/>
       <c r="E308" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F308" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G308" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H308" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I308" s="19"/>
       <c r="J308" s="19"/>
     </row>
-    <row r="309" spans="1:10" ht="30">
+    <row r="309" spans="1:10" ht="45">
       <c r="A309" s="21" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B309" s="22" t="s">
         <v>610</v>
       </c>
       <c r="C309" s="19" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D309" s="21"/>
       <c r="E309" s="21" t="s">
@@ -12686,7 +12396,7 @@
         <v>7</v>
       </c>
       <c r="G309" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H309" s="21" t="s">
         <v>18</v>
@@ -12694,15 +12404,15 @@
       <c r="I309" s="19"/>
       <c r="J309" s="19"/>
     </row>
-    <row r="310" spans="1:10" ht="45">
+    <row r="310" spans="1:10">
       <c r="A310" s="21" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B310" s="22" t="s">
         <v>610</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D310" s="21"/>
       <c r="E310" s="21" t="s">
@@ -12720,25 +12430,25 @@
       <c r="I310" s="19"/>
       <c r="J310" s="19"/>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" ht="30">
       <c r="A311" s="21" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B311" s="22" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D311" s="21"/>
       <c r="E311" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F311" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G311" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H311" s="21" t="s">
         <v>18</v>
@@ -12748,13 +12458,13 @@
     </row>
     <row r="312" spans="1:10" ht="30">
       <c r="A312" s="21" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B312" s="22" t="s">
         <v>617</v>
       </c>
       <c r="C312" s="19" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D312" s="21"/>
       <c r="E312" s="21" t="s">
@@ -12764,59 +12474,59 @@
         <v>6</v>
       </c>
       <c r="G312" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H312" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I312" s="19"/>
       <c r="J312" s="19"/>
     </row>
     <row r="313" spans="1:10" ht="30">
       <c r="A313" s="21" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B313" s="22" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>620</v>
+        <v>212</v>
       </c>
       <c r="D313" s="21"/>
       <c r="E313" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F313" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G313" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H313" s="21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I313" s="19"/>
       <c r="J313" s="19"/>
     </row>
     <row r="314" spans="1:10" ht="30">
       <c r="A314" s="21" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B314" s="22" t="s">
         <v>622</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>212</v>
+        <v>624</v>
       </c>
       <c r="D314" s="21"/>
       <c r="E314" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F314" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G314" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H314" s="21" t="s">
         <v>18</v>
@@ -12826,65 +12536,65 @@
     </row>
     <row r="315" spans="1:10" ht="30">
       <c r="A315" s="21" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B315" s="22" t="s">
         <v>622</v>
       </c>
       <c r="C315" s="19" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D315" s="21"/>
       <c r="E315" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F315" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G315" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H315" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I315" s="19"/>
       <c r="J315" s="19"/>
     </row>
     <row r="316" spans="1:10" ht="30">
       <c r="A316" s="21" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B316" s="22" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C316" s="19" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D316" s="21"/>
       <c r="E316" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F316" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G316" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H316" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I316" s="19"/>
       <c r="J316" s="19"/>
     </row>
-    <row r="317" spans="1:10" ht="30">
+    <row r="317" spans="1:10" ht="135">
       <c r="A317" s="21" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B317" s="22" t="s">
         <v>628</v>
       </c>
       <c r="C317" s="19" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D317" s="21"/>
       <c r="E317" s="21" t="s">
@@ -12902,15 +12612,15 @@
       <c r="I317" s="19"/>
       <c r="J317" s="19"/>
     </row>
-    <row r="318" spans="1:10" ht="135">
+    <row r="318" spans="1:10">
       <c r="A318" s="21" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B318" s="22" t="s">
         <v>628</v>
       </c>
       <c r="C318" s="19" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D318" s="21"/>
       <c r="E318" s="21" t="s">
@@ -12928,43 +12638,47 @@
       <c r="I318" s="19"/>
       <c r="J318" s="19"/>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" ht="30">
       <c r="A319" s="21" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B319" s="22" t="s">
         <v>628</v>
       </c>
       <c r="C319" s="19" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D319" s="21"/>
       <c r="E319" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F319" s="21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G319" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H319" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I319" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="I319" s="19" t="s">
+        <v>789</v>
+      </c>
       <c r="J319" s="19"/>
     </row>
-    <row r="320" spans="1:10" ht="30">
+    <row r="320" spans="1:10" ht="45">
       <c r="A320" s="21" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B320" s="22" t="s">
         <v>628</v>
       </c>
       <c r="C320" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="D320" s="21"/>
+        <v>637</v>
+      </c>
+      <c r="D320" s="21" t="s">
+        <v>638</v>
+      </c>
       <c r="E320" s="21" t="s">
         <v>19</v>
       </c>
@@ -12975,26 +12689,22 @@
         <v>15</v>
       </c>
       <c r="H320" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I320" s="19" t="s">
-        <v>790</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I320" s="19"/>
       <c r="J320" s="19"/>
     </row>
-    <row r="321" spans="1:10" ht="45">
+    <row r="321" spans="1:10" ht="30">
       <c r="A321" s="21" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B321" s="22" t="s">
         <v>628</v>
       </c>
       <c r="C321" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="D321" s="21" t="s">
-        <v>638</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="D321" s="21"/>
       <c r="E321" s="21" t="s">
         <v>19</v>
       </c>
@@ -13010,41 +12720,41 @@
       <c r="I321" s="19"/>
       <c r="J321" s="19"/>
     </row>
-    <row r="322" spans="1:10" ht="30">
+    <row r="322" spans="1:10">
       <c r="A322" s="21" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B322" s="22" t="s">
         <v>628</v>
       </c>
       <c r="C322" s="19" t="s">
-        <v>819</v>
+        <v>641</v>
       </c>
       <c r="D322" s="21"/>
       <c r="E322" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F322" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G322" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H322" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I322" s="19"/>
       <c r="J322" s="19"/>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:10" ht="30">
       <c r="A323" s="21" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B323" s="22" t="s">
         <v>628</v>
       </c>
       <c r="C323" s="19" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D323" s="21"/>
       <c r="E323" s="21" t="s">
@@ -13064,23 +12774,23 @@
     </row>
     <row r="324" spans="1:10" ht="30">
       <c r="A324" s="21" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B324" s="22" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="C324" s="19" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D324" s="21"/>
       <c r="E324" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F324" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G324" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H324" s="21" t="s">
         <v>18</v>
@@ -13088,15 +12798,15 @@
       <c r="I324" s="19"/>
       <c r="J324" s="19"/>
     </row>
-    <row r="325" spans="1:10" ht="30">
+    <row r="325" spans="1:10" ht="195">
       <c r="A325" s="21" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B325" s="22" t="s">
         <v>645</v>
       </c>
       <c r="C325" s="19" t="s">
-        <v>646</v>
+        <v>816</v>
       </c>
       <c r="D325" s="21"/>
       <c r="E325" s="21" t="s">
@@ -13106,23 +12816,23 @@
         <v>6</v>
       </c>
       <c r="G325" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H325" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I325" s="19"/>
       <c r="J325" s="19"/>
     </row>
-    <row r="326" spans="1:10" ht="195">
+    <row r="326" spans="1:10" ht="60">
       <c r="A326" s="21" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B326" s="22" t="s">
         <v>645</v>
       </c>
       <c r="C326" s="19" t="s">
-        <v>820</v>
+        <v>649</v>
       </c>
       <c r="D326" s="21"/>
       <c r="E326" s="21" t="s">
@@ -13140,15 +12850,15 @@
       <c r="I326" s="19"/>
       <c r="J326" s="19"/>
     </row>
-    <row r="327" spans="1:10" ht="60">
+    <row r="327" spans="1:10">
       <c r="A327" s="21" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B327" s="22" t="s">
         <v>645</v>
       </c>
       <c r="C327" s="19" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D327" s="21"/>
       <c r="E327" s="21" t="s">
@@ -13158,23 +12868,23 @@
         <v>6</v>
       </c>
       <c r="G327" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H327" s="21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I327" s="19"/>
       <c r="J327" s="19"/>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" ht="45">
       <c r="A328" s="21" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B328" s="22" t="s">
         <v>645</v>
       </c>
       <c r="C328" s="19" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D328" s="21"/>
       <c r="E328" s="21" t="s">
@@ -13184,49 +12894,49 @@
         <v>6</v>
       </c>
       <c r="G328" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H328" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I328" s="19"/>
       <c r="J328" s="19"/>
     </row>
-    <row r="329" spans="1:10" ht="45">
+    <row r="329" spans="1:10" ht="30">
       <c r="A329" s="21" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B329" s="22" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D329" s="21"/>
       <c r="E329" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F329" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G329" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H329" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I329" s="19"/>
       <c r="J329" s="19"/>
     </row>
-    <row r="330" spans="1:10" ht="30">
+    <row r="330" spans="1:10" ht="75">
       <c r="A330" s="21" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B330" s="22" t="s">
         <v>655</v>
       </c>
       <c r="C330" s="19" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D330" s="21"/>
       <c r="E330" s="21" t="s">
@@ -13239,20 +12949,20 @@
         <v>15</v>
       </c>
       <c r="H330" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I330" s="19"/>
       <c r="J330" s="19"/>
     </row>
-    <row r="331" spans="1:10" ht="75">
+    <row r="331" spans="1:10" ht="30">
       <c r="A331" s="21" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B331" s="22" t="s">
         <v>655</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D331" s="21"/>
       <c r="E331" s="21" t="s">
@@ -13265,82 +12975,82 @@
         <v>15</v>
       </c>
       <c r="H331" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I331" s="19"/>
       <c r="J331" s="19"/>
     </row>
     <row r="332" spans="1:10" ht="30">
       <c r="A332" s="21" t="s">
-        <v>659</v>
+        <v>818</v>
       </c>
       <c r="B332" s="22" t="s">
         <v>655</v>
       </c>
-      <c r="C332" s="19" t="s">
-        <v>660</v>
-      </c>
-      <c r="D332" s="21"/>
+      <c r="C332" s="39" t="s">
+        <v>817</v>
+      </c>
+      <c r="D332" s="31"/>
       <c r="E332" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F332" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G332" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H332" s="21" t="s">
+      <c r="F332" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G332" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H332" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I332" s="19"/>
+      <c r="I332" s="38"/>
       <c r="J332" s="19"/>
     </row>
     <row r="333" spans="1:10" ht="30">
       <c r="A333" s="21" t="s">
-        <v>822</v>
+        <v>661</v>
       </c>
       <c r="B333" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="C333" s="52" t="s">
-        <v>821</v>
-      </c>
-      <c r="D333" s="31"/>
+        <v>662</v>
+      </c>
+      <c r="C333" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D333" s="21"/>
       <c r="E333" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F333" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G333" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H333" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I333" s="51"/>
+      <c r="F333" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G333" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H333" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I333" s="19"/>
       <c r="J333" s="19"/>
     </row>
     <row r="334" spans="1:10" ht="30">
       <c r="A334" s="21" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B334" s="22" t="s">
         <v>662</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>193</v>
+        <v>664</v>
       </c>
       <c r="D334" s="21"/>
       <c r="E334" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F334" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G334" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H334" s="21" t="s">
         <v>18</v>
@@ -13350,65 +13060,65 @@
     </row>
     <row r="335" spans="1:10" ht="30">
       <c r="A335" s="21" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B335" s="22" t="s">
         <v>662</v>
       </c>
       <c r="C335" s="19" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D335" s="21"/>
       <c r="E335" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F335" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G335" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H335" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I335" s="19"/>
       <c r="J335" s="19"/>
     </row>
-    <row r="336" spans="1:10" ht="30">
+    <row r="336" spans="1:10">
       <c r="A336" s="21" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B336" s="22" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C336" s="19" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D336" s="21"/>
       <c r="E336" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F336" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G336" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H336" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I336" s="19"/>
       <c r="J336" s="19"/>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" ht="30">
       <c r="A337" s="21" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B337" s="22" t="s">
         <v>668</v>
       </c>
       <c r="C337" s="19" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D337" s="21"/>
       <c r="E337" s="21" t="s">
@@ -13418,7 +13128,7 @@
         <v>7</v>
       </c>
       <c r="G337" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H337" s="21" t="s">
         <v>18</v>
@@ -13426,15 +13136,15 @@
       <c r="I337" s="19"/>
       <c r="J337" s="19"/>
     </row>
-    <row r="338" spans="1:10" ht="30">
+    <row r="338" spans="1:10">
       <c r="A338" s="21" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B338" s="22" t="s">
         <v>668</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D338" s="21"/>
       <c r="E338" s="21" t="s">
@@ -13452,25 +13162,25 @@
       <c r="I338" s="19"/>
       <c r="J338" s="19"/>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:10" ht="30">
       <c r="A339" s="21" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B339" s="22" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="C339" s="19" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D339" s="21"/>
       <c r="E339" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F339" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G339" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H339" s="21" t="s">
         <v>18</v>
@@ -13478,15 +13188,15 @@
       <c r="I339" s="19"/>
       <c r="J339" s="19"/>
     </row>
-    <row r="340" spans="1:10" ht="30">
+    <row r="340" spans="1:10">
       <c r="A340" s="21" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B340" s="22" t="s">
         <v>675</v>
       </c>
       <c r="C340" s="19" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D340" s="21"/>
       <c r="E340" s="21" t="s">
@@ -13496,59 +13206,59 @@
         <v>6</v>
       </c>
       <c r="G340" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H340" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I340" s="19"/>
       <c r="J340" s="19"/>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:10" ht="30">
       <c r="A341" s="21" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B341" s="22" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="C341" s="19" t="s">
-        <v>678</v>
+        <v>212</v>
       </c>
       <c r="D341" s="21"/>
       <c r="E341" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F341" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G341" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H341" s="21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I341" s="19"/>
       <c r="J341" s="19"/>
     </row>
     <row r="342" spans="1:10" ht="30">
       <c r="A342" s="21" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B342" s="22" t="s">
         <v>680</v>
       </c>
       <c r="C342" s="19" t="s">
-        <v>212</v>
+        <v>763</v>
       </c>
       <c r="D342" s="21"/>
       <c r="E342" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F342" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G342" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H342" s="21" t="s">
         <v>18</v>
@@ -13558,7 +13268,7 @@
     </row>
     <row r="343" spans="1:10" ht="30">
       <c r="A343" s="21" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B343" s="22" t="s">
         <v>680</v>
@@ -13571,52 +13281,52 @@
         <v>19</v>
       </c>
       <c r="F343" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G343" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H343" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I343" s="19"/>
       <c r="J343" s="19"/>
     </row>
-    <row r="344" spans="1:10" ht="30">
+    <row r="344" spans="1:10">
       <c r="A344" s="21" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B344" s="22" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C344" s="19" t="s">
-        <v>765</v>
+        <v>685</v>
       </c>
       <c r="D344" s="21"/>
       <c r="E344" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F344" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G344" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H344" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I344" s="19"/>
       <c r="J344" s="19"/>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:10" ht="240">
       <c r="A345" s="21" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B345" s="22" t="s">
         <v>684</v>
       </c>
       <c r="C345" s="19" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D345" s="21"/>
       <c r="E345" s="21" t="s">
@@ -13634,15 +13344,15 @@
       <c r="I345" s="19"/>
       <c r="J345" s="19"/>
     </row>
-    <row r="346" spans="1:10" ht="240">
+    <row r="346" spans="1:10">
       <c r="A346" s="21" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B346" s="22" t="s">
         <v>684</v>
       </c>
       <c r="C346" s="19" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D346" s="21"/>
       <c r="E346" s="21" t="s">
@@ -13662,13 +13372,13 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347" s="21" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B347" s="22" t="s">
         <v>684</v>
       </c>
       <c r="C347" s="19" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D347" s="21"/>
       <c r="E347" s="21" t="s">
@@ -13686,15 +13396,15 @@
       <c r="I347" s="19"/>
       <c r="J347" s="19"/>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" ht="30">
       <c r="A348" s="21" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B348" s="22" t="s">
         <v>684</v>
       </c>
       <c r="C348" s="19" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D348" s="21"/>
       <c r="E348" s="21" t="s">
@@ -13714,13 +13424,13 @@
     </row>
     <row r="349" spans="1:10" ht="30">
       <c r="A349" s="21" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B349" s="22" t="s">
         <v>684</v>
       </c>
       <c r="C349" s="19" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D349" s="21"/>
       <c r="E349" s="21" t="s">
@@ -13738,15 +13448,15 @@
       <c r="I349" s="19"/>
       <c r="J349" s="19"/>
     </row>
-    <row r="350" spans="1:10" ht="30">
+    <row r="350" spans="1:10">
       <c r="A350" s="21" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B350" s="22" t="s">
         <v>684</v>
       </c>
       <c r="C350" s="19" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D350" s="21"/>
       <c r="E350" s="21" t="s">
@@ -13764,15 +13474,15 @@
       <c r="I350" s="19"/>
       <c r="J350" s="19"/>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" ht="30">
       <c r="A351" s="21" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B351" s="22" t="s">
         <v>684</v>
       </c>
       <c r="C351" s="19" t="s">
-        <v>697</v>
+        <v>830</v>
       </c>
       <c r="D351" s="21"/>
       <c r="E351" s="21" t="s">
@@ -13782,7 +13492,7 @@
         <v>7</v>
       </c>
       <c r="G351" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H351" s="21" t="s">
         <v>18</v>
@@ -13790,67 +13500,67 @@
       <c r="I351" s="19"/>
       <c r="J351" s="19"/>
     </row>
-    <row r="352" spans="1:10" ht="30">
+    <row r="352" spans="1:10">
       <c r="A352" s="21" t="s">
-        <v>698</v>
+        <v>819</v>
       </c>
       <c r="B352" s="22" t="s">
         <v>684</v>
       </c>
-      <c r="C352" s="19" t="s">
+      <c r="C352" s="39" t="s">
+        <v>820</v>
+      </c>
+      <c r="D352" s="31"/>
+      <c r="E352" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F352" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G352" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H352" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I352" s="38"/>
+      <c r="J352" s="19"/>
+    </row>
+    <row r="353" spans="1:10" ht="30">
+      <c r="A353" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D352" s="21"/>
-      <c r="E352" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F352" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G352" s="21" t="s">
+      <c r="B353" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="C353" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="D353" s="21"/>
+      <c r="E353" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F353" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G353" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H352" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I352" s="19"/>
-      <c r="J352" s="19"/>
-    </row>
-    <row r="353" spans="1:10">
-      <c r="A353" s="21" t="s">
-        <v>823</v>
-      </c>
-      <c r="B353" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="C353" s="52" t="s">
-        <v>824</v>
-      </c>
-      <c r="D353" s="31"/>
-      <c r="E353" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F353" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G353" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H353" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I353" s="51"/>
+      <c r="H353" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I353" s="19"/>
       <c r="J353" s="19"/>
     </row>
-    <row r="354" spans="1:10" ht="30">
+    <row r="354" spans="1:10" ht="120">
       <c r="A354" s="21" t="s">
+        <v>702</v>
+      </c>
+      <c r="B354" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="B354" s="22" t="s">
-        <v>701</v>
-      </c>
       <c r="C354" s="19" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D354" s="21"/>
       <c r="E354" s="21" t="s">
@@ -13860,23 +13570,23 @@
         <v>6</v>
       </c>
       <c r="G354" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H354" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I354" s="19"/>
       <c r="J354" s="19"/>
     </row>
-    <row r="355" spans="1:10" ht="120">
+    <row r="355" spans="1:10">
       <c r="A355" s="21" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B355" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C355" s="19" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D355" s="21"/>
       <c r="E355" s="21" t="s">
@@ -13886,33 +13596,33 @@
         <v>6</v>
       </c>
       <c r="G355" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H355" s="21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I355" s="19"/>
       <c r="J355" s="19"/>
     </row>
     <row r="356" spans="1:10">
       <c r="A356" s="21" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B356" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C356" s="19" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D356" s="21"/>
       <c r="E356" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F356" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G356" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H356" s="21" t="s">
         <v>18</v>
@@ -13920,44 +13630,48 @@
       <c r="I356" s="19"/>
       <c r="J356" s="19"/>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:10" s="33" customFormat="1" ht="45">
       <c r="A357" s="21" t="s">
-        <v>707</v>
-      </c>
-      <c r="B357" s="22" t="s">
-        <v>701</v>
+        <v>46</v>
+      </c>
+      <c r="B357" s="35">
+        <v>7</v>
       </c>
       <c r="C357" s="19" t="s">
-        <v>708</v>
-      </c>
-      <c r="D357" s="21"/>
+        <v>765</v>
+      </c>
+      <c r="D357" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="E357" s="21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F357" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G357" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H357" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I357" s="19"/>
-      <c r="J357" s="19"/>
-    </row>
-    <row r="358" spans="1:10" s="33" customFormat="1" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I357" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="J357" s="22"/>
+    </row>
+    <row r="358" spans="1:10" ht="45">
       <c r="A358" s="21" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="B358" s="35">
         <v>7</v>
       </c>
       <c r="C358" s="19" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="D358" s="21" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="E358" s="21" t="s">
         <v>22</v>
@@ -13972,49 +13686,45 @@
         <v>21</v>
       </c>
       <c r="I358" s="19" t="s">
-        <v>760</v>
-      </c>
-      <c r="J358" s="22"/>
+        <v>759</v>
+      </c>
+      <c r="J358" s="19"/>
     </row>
     <row r="359" spans="1:10" ht="45">
       <c r="A359" s="21" t="s">
-        <v>128</v>
+        <v>708</v>
       </c>
       <c r="B359" s="35">
         <v>7</v>
       </c>
       <c r="C359" s="19" t="s">
-        <v>779</v>
-      </c>
-      <c r="D359" s="21" t="s">
-        <v>129</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="D359" s="21"/>
       <c r="E359" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F359" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G359" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H359" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I359" s="19" t="s">
-        <v>760</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I359" s="19"/>
       <c r="J359" s="19"/>
     </row>
-    <row r="360" spans="1:10" ht="45">
+    <row r="360" spans="1:10" ht="30">
       <c r="A360" s="21" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B360" s="35">
         <v>7</v>
       </c>
       <c r="C360" s="19" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D360" s="21"/>
       <c r="E360" s="21" t="s">
@@ -14032,22 +13742,22 @@
       <c r="I360" s="19"/>
       <c r="J360" s="19"/>
     </row>
-    <row r="361" spans="1:10" ht="30">
+    <row r="361" spans="1:10" ht="45">
       <c r="A361" s="21" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B361" s="35">
         <v>7</v>
       </c>
       <c r="C361" s="19" t="s">
-        <v>712</v>
+        <v>821</v>
       </c>
       <c r="D361" s="21"/>
       <c r="E361" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F361" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G361" s="21" t="s">
         <v>16</v>
@@ -14066,25 +13776,25 @@
         <v>7</v>
       </c>
       <c r="C362" s="19" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D362" s="21"/>
       <c r="E362" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F362" s="21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G362" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H362" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I362" s="19"/>
       <c r="J362" s="19"/>
     </row>
-    <row r="363" spans="1:10" ht="45">
+    <row r="363" spans="1:10" ht="60">
       <c r="A363" s="21" t="s">
         <v>714</v>
       </c>
@@ -14092,7 +13802,7 @@
         <v>7</v>
       </c>
       <c r="C363" s="19" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D363" s="21"/>
       <c r="E363" s="21" t="s">
@@ -14110,7 +13820,7 @@
       <c r="I363" s="19"/>
       <c r="J363" s="19"/>
     </row>
-    <row r="364" spans="1:10" ht="60">
+    <row r="364" spans="1:10" ht="45">
       <c r="A364" s="21" t="s">
         <v>715</v>
       </c>
@@ -14118,7 +13828,7 @@
         <v>7</v>
       </c>
       <c r="C364" s="19" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D364" s="21"/>
       <c r="E364" s="21" t="s">
@@ -14136,7 +13846,7 @@
       <c r="I364" s="19"/>
       <c r="J364" s="19"/>
     </row>
-    <row r="365" spans="1:10" ht="45">
+    <row r="365" spans="1:10" ht="60">
       <c r="A365" s="21" t="s">
         <v>716</v>
       </c>
@@ -14144,7 +13854,7 @@
         <v>7</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D365" s="21"/>
       <c r="E365" s="21" t="s">
@@ -14162,7 +13872,7 @@
       <c r="I365" s="19"/>
       <c r="J365" s="19"/>
     </row>
-    <row r="366" spans="1:10" ht="60">
+    <row r="366" spans="1:10" ht="45">
       <c r="A366" s="21" t="s">
         <v>717</v>
       </c>
@@ -14170,7 +13880,7 @@
         <v>7</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>829</v>
+        <v>718</v>
       </c>
       <c r="D366" s="21"/>
       <c r="E366" s="21" t="s">
@@ -14188,15 +13898,15 @@
       <c r="I366" s="19"/>
       <c r="J366" s="19"/>
     </row>
-    <row r="367" spans="1:10" ht="45">
+    <row r="367" spans="1:10" ht="60">
       <c r="A367" s="21" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B367" s="35">
         <v>7</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>719</v>
+        <v>826</v>
       </c>
       <c r="D367" s="21"/>
       <c r="E367" s="21" t="s">
@@ -14214,7 +13924,7 @@
       <c r="I367" s="19"/>
       <c r="J367" s="19"/>
     </row>
-    <row r="368" spans="1:10" ht="60">
+    <row r="368" spans="1:10" ht="45">
       <c r="A368" s="21" t="s">
         <v>720</v>
       </c>
@@ -14222,20 +13932,22 @@
         <v>7</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="D368" s="21"/>
+        <v>827</v>
+      </c>
+      <c r="D368" s="21" t="s">
+        <v>779</v>
+      </c>
       <c r="E368" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F368" s="21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G368" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H368" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I368" s="19"/>
       <c r="J368" s="19"/>
@@ -14248,10 +13960,10 @@
         <v>7</v>
       </c>
       <c r="C369" s="19" t="s">
-        <v>831</v>
+        <v>766</v>
       </c>
       <c r="D369" s="21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E369" s="21" t="s">
         <v>22</v>
@@ -14263,9 +13975,11 @@
         <v>15</v>
       </c>
       <c r="H369" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I369" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="I369" s="19" t="s">
+        <v>759</v>
+      </c>
       <c r="J369" s="19"/>
     </row>
     <row r="370" spans="1:11" ht="45">
@@ -14276,7 +13990,7 @@
         <v>7</v>
       </c>
       <c r="C370" s="19" t="s">
-        <v>767</v>
+        <v>828</v>
       </c>
       <c r="D370" s="21" t="s">
         <v>780</v>
@@ -14294,7 +14008,7 @@
         <v>21</v>
       </c>
       <c r="I370" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J370" s="19"/>
     </row>
@@ -14306,10 +14020,10 @@
         <v>7</v>
       </c>
       <c r="C371" s="19" t="s">
-        <v>832</v>
+        <v>724</v>
       </c>
       <c r="D371" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E371" s="21" t="s">
         <v>22</v>
@@ -14324,19 +14038,19 @@
         <v>21</v>
       </c>
       <c r="I371" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J371" s="19"/>
     </row>
-    <row r="372" spans="1:11" ht="45">
+    <row r="372" spans="1:11" ht="60">
       <c r="A372" s="21" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B372" s="35">
         <v>7</v>
       </c>
       <c r="C372" s="19" t="s">
-        <v>725</v>
+        <v>829</v>
       </c>
       <c r="D372" s="21" t="s">
         <v>781</v>
@@ -14354,11 +14068,11 @@
         <v>21</v>
       </c>
       <c r="I372" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J372" s="19"/>
     </row>
-    <row r="373" spans="1:11" ht="60">
+    <row r="373" spans="1:11" ht="45">
       <c r="A373" s="21" t="s">
         <v>726</v>
       </c>
@@ -14366,10 +14080,10 @@
         <v>7</v>
       </c>
       <c r="C373" s="19" t="s">
-        <v>833</v>
+        <v>727</v>
       </c>
       <c r="D373" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E373" s="21" t="s">
         <v>22</v>
@@ -14384,43 +14098,40 @@
         <v>21</v>
       </c>
       <c r="I373" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J373" s="19"/>
     </row>
-    <row r="374" spans="1:11" ht="45">
-      <c r="A374" s="21" t="s">
-        <v>727</v>
-      </c>
-      <c r="B374" s="35">
-        <v>7</v>
-      </c>
-      <c r="C374" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="D374" s="21" t="s">
-        <v>782</v>
-      </c>
-      <c r="E374" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F374" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G374" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H374" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I374" s="19" t="s">
-        <v>760</v>
-      </c>
-      <c r="J374" s="19"/>
-    </row>
-    <row r="375" spans="1:11" customFormat="1" ht="30">
+    <row r="374" spans="1:11" customFormat="1" ht="30">
+      <c r="A374" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="B374" s="34">
+        <v>2.4</v>
+      </c>
+      <c r="C374" s="29" t="s">
+        <v>767</v>
+      </c>
+      <c r="D374" s="28"/>
+      <c r="E374" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F374" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G374" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H374" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I374" s="30"/>
+      <c r="J374" s="37"/>
+      <c r="K374" s="37"/>
+    </row>
+    <row r="375" spans="1:11" customFormat="1" ht="285">
       <c r="A375" s="27" t="s">
-        <v>791</v>
+        <v>748</v>
       </c>
       <c r="B375" s="34">
         <v>2.4</v>
@@ -14436,16 +14147,16 @@
         <v>6</v>
       </c>
       <c r="G375" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H375" s="27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I375" s="30"/>
       <c r="J375" s="37"/>
       <c r="K375" s="37"/>
     </row>
-    <row r="376" spans="1:11" customFormat="1" ht="285">
+    <row r="376" spans="1:11" customFormat="1" ht="30">
       <c r="A376" s="27" t="s">
         <v>749</v>
       </c>
@@ -14463,10 +14174,10 @@
         <v>6</v>
       </c>
       <c r="G376" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H376" s="27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I376" s="30"/>
       <c r="J376" s="37"/>
@@ -14544,16 +14255,16 @@
         <v>6</v>
       </c>
       <c r="G379" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H379" s="27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I379" s="30"/>
       <c r="J379" s="37"/>
       <c r="K379" s="37"/>
     </row>
-    <row r="380" spans="1:11" customFormat="1" ht="30">
+    <row r="380" spans="1:11" customFormat="1">
       <c r="A380" s="27" t="s">
         <v>753</v>
       </c>
@@ -14571,16 +14282,16 @@
         <v>6</v>
       </c>
       <c r="G380" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H380" s="27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I380" s="30"/>
       <c r="J380" s="37"/>
       <c r="K380" s="37"/>
     </row>
-    <row r="381" spans="1:11" customFormat="1">
+    <row r="381" spans="1:11" customFormat="1" ht="30">
       <c r="A381" s="27" t="s">
         <v>754</v>
       </c>
@@ -14598,10 +14309,10 @@
         <v>6</v>
       </c>
       <c r="G381" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H381" s="27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I381" s="30"/>
       <c r="J381" s="37"/>
@@ -14609,7 +14320,7 @@
     </row>
     <row r="382" spans="1:11" customFormat="1" ht="30">
       <c r="A382" s="27" t="s">
-        <v>755</v>
+        <v>791</v>
       </c>
       <c r="B382" s="34">
         <v>2.4</v>
@@ -14625,24 +14336,24 @@
         <v>6</v>
       </c>
       <c r="G382" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H382" s="27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I382" s="30"/>
       <c r="J382" s="37"/>
       <c r="K382" s="37"/>
     </row>
-    <row r="383" spans="1:11" customFormat="1" ht="30">
+    <row r="383" spans="1:11" s="31" customFormat="1" ht="45">
       <c r="A383" s="27" t="s">
-        <v>792</v>
+        <v>755</v>
       </c>
       <c r="B383" s="34">
         <v>2.4</v>
       </c>
       <c r="C383" s="29" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="D383" s="28"/>
       <c r="E383" s="27" t="s">
@@ -14658,44 +14369,22 @@
         <v>18</v>
       </c>
       <c r="I383" s="30"/>
-      <c r="J383" s="37"/>
-      <c r="K383" s="37"/>
-    </row>
-    <row r="384" spans="1:11" s="31" customFormat="1" ht="45">
-      <c r="A384" s="27" t="s">
-        <v>756</v>
-      </c>
-      <c r="B384" s="34">
-        <v>2.4</v>
-      </c>
-      <c r="C384" s="29" t="s">
-        <v>757</v>
-      </c>
-      <c r="D384" s="28"/>
-      <c r="E384" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F384" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G384" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H384" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I384" s="30"/>
+    </row>
+    <row r="384" spans="1:11">
+      <c r="A384" s="3"/>
+      <c r="B384" s="9"/>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="3"/>
       <c r="B385" s="9"/>
     </row>
-    <row r="386" spans="1:2">
-      <c r="A386" s="3"/>
-      <c r="B386" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -14703,14 +14392,9 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A384:I384 A375:K383 A20:J60 I64:I292 I303:I357 J61:J358 A61:H358 A359:J374">
+  <conditionalFormatting sqref="A383:I383 A374:K382 A20:J60 I302:I356 A358:J373 I64:I291 J61:J357 A61:H357">
     <cfRule type="expression" dxfId="49" priority="404">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -14721,15 +14405,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F384">
+  <conditionalFormatting sqref="F383">
     <cfRule type="expression" dxfId="46" priority="385">
-      <formula>NOT(VLOOKUP(F384,$A$13:$C$16,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F383,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="386">
-      <formula>(VLOOKUP(F384,$A$13:$C$16,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F383,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A375:I384 A20:J60 I64:I292 I303:I357 J61:J358 A61:H358 A359:J374">
+  <conditionalFormatting sqref="A374:I383 A20:J60 I302:I356 A358:J373 I64:I291 J61:J357 A61:H357">
     <cfRule type="expression" dxfId="44" priority="393">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -14740,12 +14424,12 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F375:F383">
+  <conditionalFormatting sqref="F374:F382">
     <cfRule type="expression" dxfId="41" priority="39">
-      <formula>NOT(VLOOKUP(F375,$A$13:$C$16,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F374,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="40">
-      <formula>(VLOOKUP(F375,$A$13:$C$16,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F374,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:I62">
@@ -14770,15 +14454,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F293:F302">
+  <conditionalFormatting sqref="F292:F301">
     <cfRule type="expression" dxfId="33" priority="50">
-      <formula>NOT(VLOOKUP(F293,$A$13:$C$16,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F292,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="51">
-      <formula>(VLOOKUP(F293,$A$13:$C$16,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F292,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I293:I302">
+  <conditionalFormatting sqref="I292:I301">
     <cfRule type="expression" dxfId="31" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -14789,7 +14473,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I293:I302">
+  <conditionalFormatting sqref="I292:I301">
     <cfRule type="expression" dxfId="28" priority="41">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -14800,7 +14484,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F374">
+  <conditionalFormatting sqref="F20:F373">
     <cfRule type="expression" dxfId="25" priority="34">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -14852,7 +14536,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I358">
+  <conditionalFormatting sqref="I357">
     <cfRule type="expression" dxfId="11" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -14863,7 +14547,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I358">
+  <conditionalFormatting sqref="I357">
     <cfRule type="expression" dxfId="8" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -14874,7 +14558,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I358">
+  <conditionalFormatting sqref="I357">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -14885,7 +14569,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I358">
+  <conditionalFormatting sqref="I357">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -14897,23 +14581,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F292 F303:F374">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F302:F373 F20:F291">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E384">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E383">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G384">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G383">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F293:F302 F375:F384">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F292:F301 F374:F383">
       <formula1>$A$14:$A$16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H384">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H383">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14923,7 +14607,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="C3 B19:B111 B115:B282 B284:B332 B354:B361 B334:B352 B362:B386" numberStoredAsText="1"/>
+    <ignoredError sqref="C3 B19:B111 B114:B281 B283:B331 B353:B360 B333:B351 B361:B385" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -14933,6 +14617,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -14981,32 +14680,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15026,9 +14703,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-WWSP/MS-WWSP_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-WWSP/MS-WWSP_RequirementSpecification.xlsx
@@ -3400,6 +3400,21 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3424,292 +3439,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="69">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4072,6 +3806,272 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4199,34 +4199,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I383" tableType="xml" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I383" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A19:I383"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="66">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="65">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="64">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="63">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="62">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="61">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="60">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="59">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="58">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4235,12 +4235,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54" totalsRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="52"/>
-    <tableColumn id="2" name="Test" dataDxfId="51"/>
-    <tableColumn id="3" name="Description" dataDxfId="50"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4536,8 +4536,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:XFD114"/>
+    <sheetView tabSelected="1" topLeftCell="D105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4589,120 +4589,120 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="78.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="24" t="s">
@@ -4714,12 +4714,12 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="25" t="s">
@@ -4731,12 +4731,12 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="25" t="s">
@@ -4748,12 +4748,12 @@
       <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="26" t="s">
@@ -4765,57 +4765,57 @@
       <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="1:10" ht="64.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:10" s="32" customFormat="1" ht="30">
       <c r="A19" s="3" t="s">
@@ -7295,7 +7295,7 @@
         <v>15</v>
       </c>
       <c r="H113" s="31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I113" s="38"/>
       <c r="J113" s="19"/>
@@ -14380,11 +14380,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -14392,191 +14387,196 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A383:I383 A374:K382 A20:J60 I302:I356 A358:J373 I64:I291 J61:J357 A61:H357">
-    <cfRule type="expression" dxfId="49" priority="404">
+    <cfRule type="expression" dxfId="68" priority="404">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="405">
+    <cfRule type="expression" dxfId="67" priority="405">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="406">
+    <cfRule type="expression" dxfId="66" priority="406">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F383">
-    <cfRule type="expression" dxfId="46" priority="385">
+    <cfRule type="expression" dxfId="65" priority="385">
       <formula>NOT(VLOOKUP(F383,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="386">
+    <cfRule type="expression" dxfId="64" priority="386">
       <formula>(VLOOKUP(F383,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A374:I383 A20:J60 I302:I356 A358:J373 I64:I291 J61:J357 A61:H357">
-    <cfRule type="expression" dxfId="44" priority="393">
+    <cfRule type="expression" dxfId="63" priority="393">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="394">
+    <cfRule type="expression" dxfId="62" priority="394">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="395">
+    <cfRule type="expression" dxfId="61" priority="395">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374:F382">
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="60" priority="39">
       <formula>NOT(VLOOKUP(F374,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="59" priority="40">
       <formula>(VLOOKUP(F374,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:I62">
-    <cfRule type="expression" dxfId="39" priority="52">
+    <cfRule type="expression" dxfId="58" priority="52">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="53">
+    <cfRule type="expression" dxfId="57" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="54">
+    <cfRule type="expression" dxfId="56" priority="54">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:I62">
-    <cfRule type="expression" dxfId="36" priority="47">
+    <cfRule type="expression" dxfId="55" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="48">
+    <cfRule type="expression" dxfId="54" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="49">
+    <cfRule type="expression" dxfId="53" priority="49">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F292:F301">
-    <cfRule type="expression" dxfId="33" priority="50">
+    <cfRule type="expression" dxfId="52" priority="50">
       <formula>NOT(VLOOKUP(F292,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="51">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>(VLOOKUP(F292,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I292:I301">
-    <cfRule type="expression" dxfId="31" priority="44">
+    <cfRule type="expression" dxfId="50" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="45">
+    <cfRule type="expression" dxfId="49" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="46">
+    <cfRule type="expression" dxfId="48" priority="46">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I292:I301">
-    <cfRule type="expression" dxfId="28" priority="41">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="42">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="43">
+    <cfRule type="expression" dxfId="45" priority="43">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F373">
-    <cfRule type="expression" dxfId="25" priority="34">
+    <cfRule type="expression" dxfId="44" priority="34">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="35">
+    <cfRule type="expression" dxfId="43" priority="35">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="42" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="41" priority="23">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="40" priority="24">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="39" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="38" priority="20">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="36" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="35" priority="17">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="33" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="32" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I357">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="30" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I357">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I357">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I357">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14617,21 +14617,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -14680,10 +14665,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14703,16 +14710,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-WWSP/MS-WWSP_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-WWSP/MS-WWSP_RequirementSpecification.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Interop-TestSuites2\SharePoint\Docs\MS-WWSP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
   </bookViews>
@@ -3126,7 +3131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -3400,21 +3405,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3438,6 +3428,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4289,7 +4294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4322,9 +4327,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4357,6 +4379,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4536,21 +4575,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="10" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
@@ -4589,120 +4626,120 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:9" ht="78.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="24" t="s">
@@ -4714,12 +4751,12 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="25" t="s">
@@ -4731,12 +4768,12 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="25" t="s">
@@ -4748,12 +4785,12 @@
       <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="26" t="s">
@@ -4765,57 +4802,57 @@
       <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="1:10" ht="64.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
     </row>
     <row r="19" spans="1:10" s="32" customFormat="1" ht="30">
       <c r="A19" s="3" t="s">
@@ -4978,7 +5015,7 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="25" spans="1:10" s="33" customFormat="1">
       <c r="A25" s="21" t="s">
         <v>54</v>
       </c>
@@ -5082,7 +5119,7 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="29" spans="1:10" s="33" customFormat="1">
       <c r="A29" s="21" t="s">
         <v>63</v>
       </c>
@@ -5186,7 +5223,7 @@
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
     </row>
-    <row r="33" spans="1:10" ht="30">
+    <row r="33" spans="1:10">
       <c r="A33" s="21" t="s">
         <v>71</v>
       </c>
@@ -5264,7 +5301,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" ht="30">
+    <row r="36" spans="1:10">
       <c r="A36" s="21" t="s">
         <v>77</v>
       </c>
@@ -5706,7 +5743,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
     </row>
-    <row r="53" spans="1:10" ht="45">
+    <row r="53" spans="1:10" ht="30">
       <c r="A53" s="21" t="s">
         <v>113</v>
       </c>
@@ -5758,7 +5795,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
     </row>
-    <row r="55" spans="1:10" ht="30">
+    <row r="55" spans="1:10">
       <c r="A55" s="21" t="s">
         <v>117</v>
       </c>
@@ -5888,7 +5925,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" spans="1:10" ht="45">
+    <row r="60" spans="1:10" ht="30">
       <c r="A60" s="21" t="s">
         <v>127</v>
       </c>
@@ -5942,7 +5979,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
     </row>
-    <row r="62" spans="1:10" ht="45">
+    <row r="62" spans="1:10" ht="30">
       <c r="A62" s="21" t="s">
         <v>131</v>
       </c>
@@ -5968,7 +6005,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="1:10" ht="45">
+    <row r="63" spans="1:10" ht="30">
       <c r="A63" s="21" t="s">
         <v>133</v>
       </c>
@@ -5994,7 +6031,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="1:10" ht="60">
+    <row r="64" spans="1:10" ht="45">
       <c r="A64" s="21" t="s">
         <v>135</v>
       </c>
@@ -6022,7 +6059,7 @@
       </c>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" spans="1:10" ht="60">
+    <row r="65" spans="1:10" ht="45">
       <c r="A65" s="21" t="s">
         <v>136</v>
       </c>
@@ -6074,7 +6111,7 @@
       <c r="I66" s="19"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" spans="1:10" ht="30">
+    <row r="67" spans="1:10">
       <c r="A67" s="21" t="s">
         <v>140</v>
       </c>
@@ -6178,7 +6215,7 @@
       <c r="I70" s="19"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="1:10" ht="30">
+    <row r="71" spans="1:10">
       <c r="A71" s="21" t="s">
         <v>149</v>
       </c>
@@ -6334,7 +6371,7 @@
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
     </row>
-    <row r="77" spans="1:10" ht="45">
+    <row r="77" spans="1:10" ht="30">
       <c r="A77" s="21" t="s">
         <v>161</v>
       </c>
@@ -6412,7 +6449,7 @@
       <c r="I79" s="19"/>
       <c r="J79" s="19"/>
     </row>
-    <row r="80" spans="1:10" ht="45">
+    <row r="80" spans="1:10" ht="30">
       <c r="A80" s="21" t="s">
         <v>168</v>
       </c>
@@ -6464,7 +6501,7 @@
       <c r="I81" s="19"/>
       <c r="J81" s="19"/>
     </row>
-    <row r="82" spans="1:10" ht="30">
+    <row r="82" spans="1:10">
       <c r="A82" s="21" t="s">
         <v>173</v>
       </c>
@@ -6516,7 +6553,7 @@
       <c r="I83" s="19"/>
       <c r="J83" s="19"/>
     </row>
-    <row r="84" spans="1:10" ht="45">
+    <row r="84" spans="1:10" ht="30">
       <c r="A84" s="21" t="s">
         <v>175</v>
       </c>
@@ -6568,7 +6605,7 @@
       <c r="I85" s="19"/>
       <c r="J85" s="19"/>
     </row>
-    <row r="86" spans="1:10" ht="45">
+    <row r="86" spans="1:10" ht="30">
       <c r="A86" s="21" t="s">
         <v>179</v>
       </c>
@@ -6802,7 +6839,7 @@
       <c r="I94" s="19"/>
       <c r="J94" s="19"/>
     </row>
-    <row r="95" spans="1:10" ht="30">
+    <row r="95" spans="1:10">
       <c r="A95" s="21" t="s">
         <v>198</v>
       </c>
@@ -6958,7 +6995,7 @@
       <c r="I100" s="19"/>
       <c r="J100" s="19"/>
     </row>
-    <row r="101" spans="1:10" ht="30">
+    <row r="101" spans="1:10">
       <c r="A101" s="21" t="s">
         <v>213</v>
       </c>
@@ -7326,7 +7363,7 @@
       <c r="I114" s="19"/>
       <c r="J114" s="19"/>
     </row>
-    <row r="115" spans="1:10" ht="210">
+    <row r="115" spans="1:10" ht="195">
       <c r="A115" s="21" t="s">
         <v>240</v>
       </c>
@@ -7482,7 +7519,7 @@
       <c r="I120" s="19"/>
       <c r="J120" s="19"/>
     </row>
-    <row r="121" spans="1:10" ht="30">
+    <row r="121" spans="1:10">
       <c r="A121" s="21" t="s">
         <v>251</v>
       </c>
@@ -7508,7 +7545,7 @@
       <c r="I121" s="19"/>
       <c r="J121" s="19"/>
     </row>
-    <row r="122" spans="1:10" ht="75">
+    <row r="122" spans="1:10" ht="60">
       <c r="A122" s="21" t="s">
         <v>252</v>
       </c>
@@ -7534,7 +7571,7 @@
       <c r="I122" s="19"/>
       <c r="J122" s="19"/>
     </row>
-    <row r="123" spans="1:10" ht="45">
+    <row r="123" spans="1:10" ht="30">
       <c r="A123" s="21" t="s">
         <v>254</v>
       </c>
@@ -7586,7 +7623,7 @@
       <c r="I124" s="19"/>
       <c r="J124" s="19"/>
     </row>
-    <row r="125" spans="1:10" ht="30">
+    <row r="125" spans="1:10">
       <c r="A125" s="21" t="s">
         <v>258</v>
       </c>
@@ -7716,7 +7753,7 @@
       <c r="I129" s="19"/>
       <c r="J129" s="19"/>
     </row>
-    <row r="130" spans="1:10" ht="30">
+    <row r="130" spans="1:10">
       <c r="A130" s="21" t="s">
         <v>267</v>
       </c>
@@ -7742,7 +7779,7 @@
       <c r="I130" s="19"/>
       <c r="J130" s="19"/>
     </row>
-    <row r="131" spans="1:10" ht="30">
+    <row r="131" spans="1:10">
       <c r="A131" s="21" t="s">
         <v>270</v>
       </c>
@@ -7794,7 +7831,7 @@
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
     </row>
-    <row r="133" spans="1:10" ht="30">
+    <row r="133" spans="1:10">
       <c r="A133" s="21" t="s">
         <v>274</v>
       </c>
@@ -7846,7 +7883,7 @@
       <c r="I134" s="19"/>
       <c r="J134" s="19"/>
     </row>
-    <row r="135" spans="1:10" ht="45">
+    <row r="135" spans="1:10" ht="30">
       <c r="A135" s="21" t="s">
         <v>276</v>
       </c>
@@ -7872,7 +7909,7 @@
       <c r="I135" s="19"/>
       <c r="J135" s="19"/>
     </row>
-    <row r="136" spans="1:10" ht="165">
+    <row r="136" spans="1:10" ht="150">
       <c r="A136" s="21" t="s">
         <v>279</v>
       </c>
@@ -7924,7 +7961,7 @@
       <c r="I137" s="19"/>
       <c r="J137" s="19"/>
     </row>
-    <row r="138" spans="1:10" ht="45">
+    <row r="138" spans="1:10" ht="30">
       <c r="A138" s="21" t="s">
         <v>282</v>
       </c>
@@ -8058,7 +8095,7 @@
       <c r="I142" s="19"/>
       <c r="J142" s="19"/>
     </row>
-    <row r="143" spans="1:10" ht="30">
+    <row r="143" spans="1:10">
       <c r="A143" s="21" t="s">
         <v>293</v>
       </c>
@@ -8240,7 +8277,7 @@
       <c r="I149" s="19"/>
       <c r="J149" s="19"/>
     </row>
-    <row r="150" spans="1:10" ht="45">
+    <row r="150" spans="1:10" ht="30">
       <c r="A150" s="21" t="s">
         <v>307</v>
       </c>
@@ -8396,7 +8433,7 @@
       <c r="I155" s="19"/>
       <c r="J155" s="19"/>
     </row>
-    <row r="156" spans="1:10" ht="45">
+    <row r="156" spans="1:10" ht="30">
       <c r="A156" s="21" t="s">
         <v>319</v>
       </c>
@@ -8500,7 +8537,7 @@
       <c r="I159" s="19"/>
       <c r="J159" s="19"/>
     </row>
-    <row r="160" spans="1:10" ht="30">
+    <row r="160" spans="1:10">
       <c r="A160" s="21" t="s">
         <v>327</v>
       </c>
@@ -8526,7 +8563,7 @@
       <c r="I160" s="19"/>
       <c r="J160" s="19"/>
     </row>
-    <row r="161" spans="1:10" ht="45">
+    <row r="161" spans="1:10" ht="30">
       <c r="A161" s="21" t="s">
         <v>330</v>
       </c>
@@ -8604,7 +8641,7 @@
       <c r="I163" s="19"/>
       <c r="J163" s="19"/>
     </row>
-    <row r="164" spans="1:10" ht="30">
+    <row r="164" spans="1:10">
       <c r="A164" s="21" t="s">
         <v>337</v>
       </c>
@@ -8682,7 +8719,7 @@
       <c r="I166" s="19"/>
       <c r="J166" s="19"/>
     </row>
-    <row r="167" spans="1:10" ht="45">
+    <row r="167" spans="1:10" ht="30">
       <c r="A167" s="21" t="s">
         <v>343</v>
       </c>
@@ -8838,7 +8875,7 @@
       <c r="I172" s="19"/>
       <c r="J172" s="19"/>
     </row>
-    <row r="173" spans="1:10" ht="30">
+    <row r="173" spans="1:10">
       <c r="A173" s="21" t="s">
         <v>356</v>
       </c>
@@ -8864,7 +8901,7 @@
       <c r="I173" s="19"/>
       <c r="J173" s="19"/>
     </row>
-    <row r="174" spans="1:10" ht="225">
+    <row r="174" spans="1:10" ht="210">
       <c r="A174" s="21" t="s">
         <v>359</v>
       </c>
@@ -8942,7 +8979,7 @@
       <c r="I176" s="19"/>
       <c r="J176" s="19"/>
     </row>
-    <row r="177" spans="1:10" ht="75">
+    <row r="177" spans="1:10" ht="60">
       <c r="A177" s="21" t="s">
         <v>365</v>
       </c>
@@ -9150,7 +9187,7 @@
       <c r="I184" s="19"/>
       <c r="J184" s="19"/>
     </row>
-    <row r="185" spans="1:10" ht="30">
+    <row r="185" spans="1:10">
       <c r="A185" s="21" t="s">
         <v>382</v>
       </c>
@@ -9176,7 +9213,7 @@
       <c r="I185" s="19"/>
       <c r="J185" s="19"/>
     </row>
-    <row r="186" spans="1:10" ht="30">
+    <row r="186" spans="1:10">
       <c r="A186" s="21" t="s">
         <v>385</v>
       </c>
@@ -9280,7 +9317,7 @@
       <c r="I189" s="19"/>
       <c r="J189" s="19"/>
     </row>
-    <row r="190" spans="1:10" ht="30">
+    <row r="190" spans="1:10">
       <c r="A190" s="21" t="s">
         <v>393</v>
       </c>
@@ -9306,7 +9343,7 @@
       <c r="I190" s="19"/>
       <c r="J190" s="19"/>
     </row>
-    <row r="191" spans="1:10" ht="120">
+    <row r="191" spans="1:10" ht="105">
       <c r="A191" s="21" t="s">
         <v>396</v>
       </c>
@@ -9462,7 +9499,7 @@
       <c r="I196" s="19"/>
       <c r="J196" s="19"/>
     </row>
-    <row r="197" spans="1:10" ht="45">
+    <row r="197" spans="1:10" ht="30">
       <c r="A197" s="21" t="s">
         <v>409</v>
       </c>
@@ -9514,7 +9551,7 @@
       <c r="I198" s="19"/>
       <c r="J198" s="19"/>
     </row>
-    <row r="199" spans="1:10" ht="45">
+    <row r="199" spans="1:10" ht="30">
       <c r="A199" s="21" t="s">
         <v>413</v>
       </c>
@@ -9618,7 +9655,7 @@
       <c r="I202" s="19"/>
       <c r="J202" s="19"/>
     </row>
-    <row r="203" spans="1:10" ht="30">
+    <row r="203" spans="1:10">
       <c r="A203" s="21" t="s">
         <v>421</v>
       </c>
@@ -9644,7 +9681,7 @@
       <c r="I203" s="19"/>
       <c r="J203" s="19"/>
     </row>
-    <row r="204" spans="1:10" ht="45">
+    <row r="204" spans="1:10" ht="30">
       <c r="A204" s="21" t="s">
         <v>424</v>
       </c>
@@ -9670,7 +9707,7 @@
       <c r="I204" s="19"/>
       <c r="J204" s="19"/>
     </row>
-    <row r="205" spans="1:10" ht="30">
+    <row r="205" spans="1:10">
       <c r="A205" s="21" t="s">
         <v>426</v>
       </c>
@@ -9956,7 +9993,7 @@
       <c r="I215" s="19"/>
       <c r="J215" s="19"/>
     </row>
-    <row r="216" spans="1:10" ht="45">
+    <row r="216" spans="1:10" ht="30">
       <c r="A216" s="21" t="s">
         <v>450</v>
       </c>
@@ -9982,7 +10019,7 @@
       <c r="I216" s="19"/>
       <c r="J216" s="19"/>
     </row>
-    <row r="217" spans="1:10" ht="45">
+    <row r="217" spans="1:10" ht="30">
       <c r="A217" s="21" t="s">
         <v>452</v>
       </c>
@@ -10112,7 +10149,7 @@
       <c r="I221" s="19"/>
       <c r="J221" s="19"/>
     </row>
-    <row r="222" spans="1:10" ht="60">
+    <row r="222" spans="1:10" ht="45">
       <c r="A222" s="21" t="s">
         <v>462</v>
       </c>
@@ -10164,7 +10201,7 @@
       <c r="I223" s="19"/>
       <c r="J223" s="19"/>
     </row>
-    <row r="224" spans="1:10" ht="45">
+    <row r="224" spans="1:10" ht="30">
       <c r="A224" s="21" t="s">
         <v>466</v>
       </c>
@@ -10190,7 +10227,7 @@
       <c r="I224" s="19"/>
       <c r="J224" s="19"/>
     </row>
-    <row r="225" spans="1:10" ht="45">
+    <row r="225" spans="1:10" ht="30">
       <c r="A225" s="21" t="s">
         <v>468</v>
       </c>
@@ -10216,7 +10253,7 @@
       <c r="I225" s="19"/>
       <c r="J225" s="19"/>
     </row>
-    <row r="226" spans="1:10" ht="45">
+    <row r="226" spans="1:10" ht="30">
       <c r="A226" s="21" t="s">
         <v>470</v>
       </c>
@@ -10242,7 +10279,7 @@
       <c r="I226" s="19"/>
       <c r="J226" s="19"/>
     </row>
-    <row r="227" spans="1:10" ht="45">
+    <row r="227" spans="1:10" ht="30">
       <c r="A227" s="21" t="s">
         <v>472</v>
       </c>
@@ -10294,7 +10331,7 @@
       <c r="I228" s="19"/>
       <c r="J228" s="19"/>
     </row>
-    <row r="229" spans="1:10" ht="45">
+    <row r="229" spans="1:10" ht="30">
       <c r="A229" s="21" t="s">
         <v>476</v>
       </c>
@@ -10346,7 +10383,7 @@
       <c r="I230" s="19"/>
       <c r="J230" s="19"/>
     </row>
-    <row r="231" spans="1:10" ht="45">
+    <row r="231" spans="1:10" ht="30">
       <c r="A231" s="21" t="s">
         <v>480</v>
       </c>
@@ -10554,7 +10591,7 @@
       <c r="I238" s="19"/>
       <c r="J238" s="19"/>
     </row>
-    <row r="239" spans="1:10" ht="45">
+    <row r="239" spans="1:10" ht="30">
       <c r="A239" s="21" t="s">
         <v>496</v>
       </c>
@@ -10658,7 +10695,7 @@
       <c r="I242" s="19"/>
       <c r="J242" s="19"/>
     </row>
-    <row r="243" spans="1:10" ht="45">
+    <row r="243" spans="1:10" ht="30">
       <c r="A243" s="21" t="s">
         <v>504</v>
       </c>
@@ -10762,7 +10799,7 @@
       <c r="I246" s="19"/>
       <c r="J246" s="19"/>
     </row>
-    <row r="247" spans="1:10" ht="45">
+    <row r="247" spans="1:10" ht="30">
       <c r="A247" s="21" t="s">
         <v>512</v>
       </c>
@@ -10814,7 +10851,7 @@
       <c r="I248" s="19"/>
       <c r="J248" s="19"/>
     </row>
-    <row r="249" spans="1:10" ht="45">
+    <row r="249" spans="1:10" ht="30">
       <c r="A249" s="21" t="s">
         <v>516</v>
       </c>
@@ -10866,7 +10903,7 @@
       <c r="I250" s="19"/>
       <c r="J250" s="19"/>
     </row>
-    <row r="251" spans="1:10" ht="45">
+    <row r="251" spans="1:10" ht="30">
       <c r="A251" s="21" t="s">
         <v>520</v>
       </c>
@@ -10918,7 +10955,7 @@
       <c r="I252" s="19"/>
       <c r="J252" s="19"/>
     </row>
-    <row r="253" spans="1:10" ht="45">
+    <row r="253" spans="1:10" ht="30">
       <c r="A253" s="21" t="s">
         <v>524</v>
       </c>
@@ -10970,7 +11007,7 @@
       <c r="I254" s="19"/>
       <c r="J254" s="19"/>
     </row>
-    <row r="255" spans="1:10" ht="45">
+    <row r="255" spans="1:10" ht="30">
       <c r="A255" s="21" t="s">
         <v>528</v>
       </c>
@@ -11022,7 +11059,7 @@
       <c r="I256" s="19"/>
       <c r="J256" s="19"/>
     </row>
-    <row r="257" spans="1:10" ht="45">
+    <row r="257" spans="1:10" ht="30">
       <c r="A257" s="21" t="s">
         <v>532</v>
       </c>
@@ -11074,7 +11111,7 @@
       <c r="I258" s="19"/>
       <c r="J258" s="19"/>
     </row>
-    <row r="259" spans="1:10" ht="45">
+    <row r="259" spans="1:10" ht="30">
       <c r="A259" s="21" t="s">
         <v>536</v>
       </c>
@@ -11126,7 +11163,7 @@
       <c r="I260" s="19"/>
       <c r="J260" s="19"/>
     </row>
-    <row r="261" spans="1:10" ht="45">
+    <row r="261" spans="1:10" ht="30">
       <c r="A261" s="21" t="s">
         <v>540</v>
       </c>
@@ -11178,7 +11215,7 @@
       <c r="I262" s="19"/>
       <c r="J262" s="19"/>
     </row>
-    <row r="263" spans="1:10" ht="45">
+    <row r="263" spans="1:10" ht="30">
       <c r="A263" s="21" t="s">
         <v>544</v>
       </c>
@@ -11858,7 +11895,7 @@
       <c r="I288" s="19"/>
       <c r="J288" s="19"/>
     </row>
-    <row r="289" spans="1:10" ht="60">
+    <row r="289" spans="1:10" ht="45">
       <c r="A289" s="21" t="s">
         <v>590</v>
       </c>
@@ -12066,7 +12103,7 @@
       <c r="I296" s="22"/>
       <c r="J296" s="19"/>
     </row>
-    <row r="297" spans="1:10" s="33" customFormat="1" ht="45">
+    <row r="297" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A297" s="21" t="s">
         <v>738</v>
       </c>
@@ -12248,7 +12285,7 @@
       <c r="I303" s="19"/>
       <c r="J303" s="19"/>
     </row>
-    <row r="304" spans="1:10" ht="45">
+    <row r="304" spans="1:10" ht="30">
       <c r="A304" s="21" t="s">
         <v>601</v>
       </c>
@@ -12352,7 +12389,7 @@
       <c r="I307" s="19"/>
       <c r="J307" s="19"/>
     </row>
-    <row r="308" spans="1:10" ht="30">
+    <row r="308" spans="1:10">
       <c r="A308" s="21" t="s">
         <v>609</v>
       </c>
@@ -12378,7 +12415,7 @@
       <c r="I308" s="19"/>
       <c r="J308" s="19"/>
     </row>
-    <row r="309" spans="1:10" ht="45">
+    <row r="309" spans="1:10" ht="30">
       <c r="A309" s="21" t="s">
         <v>612</v>
       </c>
@@ -12456,7 +12493,7 @@
       <c r="I311" s="19"/>
       <c r="J311" s="19"/>
     </row>
-    <row r="312" spans="1:10" ht="30">
+    <row r="312" spans="1:10">
       <c r="A312" s="21" t="s">
         <v>619</v>
       </c>
@@ -12508,7 +12545,7 @@
       <c r="I313" s="19"/>
       <c r="J313" s="19"/>
     </row>
-    <row r="314" spans="1:10" ht="30">
+    <row r="314" spans="1:10">
       <c r="A314" s="21" t="s">
         <v>623</v>
       </c>
@@ -12709,13 +12746,13 @@
         <v>19</v>
       </c>
       <c r="F321" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G321" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H321" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I321" s="19"/>
       <c r="J321" s="19"/>
@@ -12824,7 +12861,7 @@
       <c r="I325" s="19"/>
       <c r="J325" s="19"/>
     </row>
-    <row r="326" spans="1:10" ht="60">
+    <row r="326" spans="1:10" ht="45">
       <c r="A326" s="21" t="s">
         <v>648</v>
       </c>
@@ -12928,7 +12965,7 @@
       <c r="I329" s="19"/>
       <c r="J329" s="19"/>
     </row>
-    <row r="330" spans="1:10" ht="75">
+    <row r="330" spans="1:10" ht="60">
       <c r="A330" s="21" t="s">
         <v>657</v>
       </c>
@@ -13162,7 +13199,7 @@
       <c r="I338" s="19"/>
       <c r="J338" s="19"/>
     </row>
-    <row r="339" spans="1:10" ht="30">
+    <row r="339" spans="1:10">
       <c r="A339" s="21" t="s">
         <v>674</v>
       </c>
@@ -13266,7 +13303,7 @@
       <c r="I342" s="19"/>
       <c r="J342" s="19"/>
     </row>
-    <row r="343" spans="1:10" ht="30">
+    <row r="343" spans="1:10">
       <c r="A343" s="21" t="s">
         <v>682</v>
       </c>
@@ -13318,7 +13355,7 @@
       <c r="I344" s="19"/>
       <c r="J344" s="19"/>
     </row>
-    <row r="345" spans="1:10" ht="240">
+    <row r="345" spans="1:10" ht="225">
       <c r="A345" s="21" t="s">
         <v>686</v>
       </c>
@@ -13783,13 +13820,13 @@
         <v>22</v>
       </c>
       <c r="F362" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G362" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H362" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I362" s="19"/>
       <c r="J362" s="19"/>
@@ -13809,13 +13846,13 @@
         <v>22</v>
       </c>
       <c r="F363" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G363" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H363" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I363" s="19"/>
       <c r="J363" s="19"/>
@@ -13835,18 +13872,18 @@
         <v>22</v>
       </c>
       <c r="F364" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G364" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H364" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I364" s="19"/>
       <c r="J364" s="19"/>
     </row>
-    <row r="365" spans="1:10" ht="60">
+    <row r="365" spans="1:10" ht="45">
       <c r="A365" s="21" t="s">
         <v>716</v>
       </c>
@@ -13861,13 +13898,13 @@
         <v>22</v>
       </c>
       <c r="F365" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G365" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H365" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I365" s="19"/>
       <c r="J365" s="19"/>
@@ -13887,18 +13924,18 @@
         <v>22</v>
       </c>
       <c r="F366" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G366" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H366" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I366" s="19"/>
       <c r="J366" s="19"/>
     </row>
-    <row r="367" spans="1:10" ht="60">
+    <row r="367" spans="1:10" ht="45">
       <c r="A367" s="21" t="s">
         <v>719</v>
       </c>
@@ -13913,13 +13950,13 @@
         <v>22</v>
       </c>
       <c r="F367" s="21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G367" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H367" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I367" s="19"/>
       <c r="J367" s="19"/>
@@ -14042,7 +14079,7 @@
       </c>
       <c r="J371" s="19"/>
     </row>
-    <row r="372" spans="1:11" ht="60">
+    <row r="372" spans="1:11" ht="45">
       <c r="A372" s="21" t="s">
         <v>725</v>
       </c>
@@ -14156,7 +14193,7 @@
       <c r="J375" s="37"/>
       <c r="K375" s="37"/>
     </row>
-    <row r="376" spans="1:11" customFormat="1" ht="30">
+    <row r="376" spans="1:11" customFormat="1">
       <c r="A376" s="27" t="s">
         <v>749</v>
       </c>
@@ -14210,7 +14247,7 @@
       <c r="J377" s="37"/>
       <c r="K377" s="37"/>
     </row>
-    <row r="378" spans="1:11" customFormat="1" ht="30">
+    <row r="378" spans="1:11" customFormat="1">
       <c r="A378" s="27" t="s">
         <v>751</v>
       </c>
@@ -14291,7 +14328,7 @@
       <c r="J380" s="37"/>
       <c r="K380" s="37"/>
     </row>
-    <row r="381" spans="1:11" customFormat="1" ht="30">
+    <row r="381" spans="1:11" customFormat="1">
       <c r="A381" s="27" t="s">
         <v>754</v>
       </c>
@@ -14318,7 +14355,7 @@
       <c r="J381" s="37"/>
       <c r="K381" s="37"/>
     </row>
-    <row r="382" spans="1:11" customFormat="1" ht="30">
+    <row r="382" spans="1:11" customFormat="1">
       <c r="A382" s="27" t="s">
         <v>791</v>
       </c>
@@ -14345,7 +14382,7 @@
       <c r="J382" s="37"/>
       <c r="K382" s="37"/>
     </row>
-    <row r="383" spans="1:11" s="31" customFormat="1" ht="45">
+    <row r="383" spans="1:11" s="31" customFormat="1" ht="30">
       <c r="A383" s="27" t="s">
         <v>755</v>
       </c>
@@ -14380,6 +14417,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -14387,14 +14429,9 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A383:I383 A374:K382 A20:J60 I302:I356 A358:J373 I64:I291 J61:J357 A61:H357">
+  <conditionalFormatting sqref="A383:I383 A374:K382 A20:J60 I302:I356 I64:I291 J61:J357 A61:H357 A358:J373">
     <cfRule type="expression" dxfId="68" priority="404">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -14413,7 +14450,7 @@
       <formula>(VLOOKUP(F383,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A374:I383 A20:J60 I302:I356 A358:J373 I64:I291 J61:J357 A61:H357">
+  <conditionalFormatting sqref="A374:I383 A20:J60 I302:I356 I64:I291 J61:J357 A61:H357 A358:J373">
     <cfRule type="expression" dxfId="63" priority="393">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -14581,7 +14618,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F302:F373 F20:F291">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F291 F302:F373">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E383">
@@ -14607,7 +14644,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="C3 B19:B111 B114:B281 B283:B331 B353:B360 B333:B351 B361:B385" numberStoredAsText="1"/>
+    <ignoredError sqref="C3 B19:B332 B352:B360 B333:B351 B361:B385" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -14617,6 +14654,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -14665,12 +14708,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14681,6 +14718,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14695,20 +14746,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/SharePoint/Docs/MS-WWSP/MS-WWSP_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-WWSP/MS-WWSP_RequirementSpecification.xlsx
@@ -3405,6 +3405,21 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3428,21 +3443,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4626,120 +4626,120 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="78.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="24" t="s">
@@ -4751,12 +4751,12 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="25" t="s">
@@ -4768,12 +4768,12 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="25" t="s">
@@ -4785,12 +4785,12 @@
       <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="26" t="s">
@@ -4802,57 +4802,57 @@
       <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="1:10" ht="64.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:10" s="32" customFormat="1" ht="30">
       <c r="A19" s="3" t="s">
@@ -14417,11 +14417,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -14429,6 +14424,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A383:I383 A374:K382 A20:J60 I302:I356 I64:I291 J61:J357 A61:H357 A358:J373">
@@ -14654,12 +14654,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -14708,6 +14702,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14718,20 +14718,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14746,6 +14732,20 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/SharePoint/Docs/MS-WWSP/MS-WWSP_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-WWSP/MS-WWSP_RequirementSpecification.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Interop-TestSuites2\SharePoint\Docs\MS-WWSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanff\source\repos\MAPITEST-Interop-TestSuites\SharePoint\Docs\MS-WWSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98E75B5-487C-4A69-B4A9-4405F07ABECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -389,21 +390,12 @@
     <t>MS-WWSP_R6</t>
   </si>
   <si>
-    <t>[In Transport] Protocol messages MUST be formatted as specified in [SOAP1.1] section 4[, or [SOAP1.2/1] section 5].</t>
-  </si>
-  <si>
     <t>MS-WWSP_R7</t>
   </si>
   <si>
-    <t>[In Transport] Protocol messages MUST be formatted as specified in [[SOAP1.1] section 4, or] [SOAP1.2/1] section 5.</t>
-  </si>
-  <si>
     <t>MS-WWSP_R368</t>
   </si>
   <si>
-    <t>[In Transport] Protocol server faults MUST be returned either using HTTP Status Codes as specified in [RFC2616] section 10 or using SOAP faults as specified in [SOAP1.1] section 4.4, or [SOAP1.2/1] section 5.4, SOAP Fault.</t>
-  </si>
-  <si>
     <t>MS-WWSP_R11</t>
   </si>
   <si>
@@ -411,9 +403,6 @@
   </si>
   <si>
     <t>MS-WWSP_R369</t>
-  </si>
-  <si>
-    <t>[In Common Message Syntax] The syntax of the definitions uses XML schema, as specified in [XMLSCHEMA1] and [XMLSCHEMA2], and WSDL, as specified in [WSDL].</t>
   </si>
   <si>
     <t>MS-WWSP_R370</t>
@@ -460,9 +449,6 @@
     <t>MS-WWSP_R376</t>
   </si>
   <si>
-    <t>[In Namespaces] Perfix "soap12" is used for namespace URI: http://schemas.xmlsoap.org/wsdl/soap12/</t>
-  </si>
-  <si>
     <t>MS-WWSP_R377</t>
   </si>
   <si>
@@ -473,14 +459,7 @@
     <t>MS-WWSP_R378</t>
   </si>
   <si>
-    <t>[In Namespaces] Perfix "wsdl" is used for namespace URI:
-http://schemas.xmlsoap.org/wsdl/</t>
-  </si>
-  <si>
     <t>MS-WWSP_R379</t>
-  </si>
-  <si>
-    <t>[In Namespaces] Perfix "xsi" is used for namespace URI: http://www.w3.org/2001/XMLSchema-instance</t>
   </si>
   <si>
     <t>MS-WWSP_R380</t>
@@ -902,9 +881,6 @@
     <t>MS-WWSP_R77</t>
   </si>
   <si>
-    <t>[In AlterToDo] This operation is used to modify the values of Fields on a workflow task.</t>
-  </si>
-  <si>
     <t>MS-WWSP_R79</t>
   </si>
   <si>
@@ -1044,9 +1020,6 @@
     <t>[In AlterToDo] The server MUST ignore this[item] value unless the site (2) of the SOAP request URL does not contain a list with the specified todoListId.</t>
   </si>
   <si>
-    <t>MS-WWSP_R97</t>
-  </si>
-  <si>
     <t>[In AlterToDo] Set the different string as the item value, server reply same if the site (2) of the SOAP request URL contains a list with the specified todoListId.</t>
   </si>
   <si>
@@ -1081,9 +1054,6 @@
   </si>
   <si>
     <t>3.1.4.1.2.2</t>
-  </si>
-  <si>
-    <t>[In AlterToDoResponse] This element is sent with AlterToDoSoapOut and specifies whether the AlterToDo operation was successful.</t>
   </si>
   <si>
     <t>MS-WWSP_R104</t>
@@ -2609,13 +2579,7 @@
     <t>MS-WWSP_R1</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms SHOULD or SHOULD NOT implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
-  </si>
-  <si>
     <t>MS-WWSP_R2</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Unless otherwise specified, the term MAY implies that the product does not follow the prescription.</t>
   </si>
   <si>
     <t>MS-WWSP_R356</t>
@@ -3125,22 +3089,72 @@
     <t>[In StartWorkflow] This element[workflowParameters] is considered vendor-extensible and is described in section 4.3.2.</t>
   </si>
   <si>
-    <t>[In AlterToDo] taskData: If taskData is not present, then the server will return a SOAP fault with error string "Value cannot be null. Parameter name: taskData".</t>
+    <t>[In Transport] Protocol messages MUST be formatted as specified in [SOAP1.1] section 4[, or [SOAP1.2-1/2007] section 5].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Transport] Protocol messages MUST be formatted as specified in [[SOAP1.1] section 4, or] [SOAP1.2-1/2007] section 5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Transport] Protocol server faults MUST be returned either using HTTP Status Codes as specified in [RFC2616] section 10 or using SOAP faults as specified in [SOAP1.1] section 4.4, or [SOAP1.2-1/2007] section 5.4, SOAP Fault.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Common Message Syntax] The syntax of the definitions uses XML schema, as specified in [XMLSCHEMA1/2] and [XMLSCHEMA2/2], and WSDL, as specified in [WSDL].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Namespaces] Perfix "soap12" is used for namespace URI: http://schemas.xmlsoap.org/wsdl/soap12/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Namespaces] Perfix "wsdl" is used for namespace URI:
+http://schemas.xmlsoap.org/wsdl/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Namespaces] Perfix "xsi" is used for namespace URI: http://www.w3.org/2001/XMLSchema-instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In AlterToDo] taskData: If taskData is not present, then the server will return a SOAP fault with error string "Value cannot be null. \nParameter name: taskData".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In AlterToDoResponse] This element is sent with AlterToDoSoapOut and specifies whether the AlterToDo operation was successful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In AlterToDo] This operation is used to modify the values of Fields on a workflow task.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-WWSP_R97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms "SHOULD" or "SHOULD NOT" implies product behavior in accordance with the "SHOULD" or "SHOULD NOT" prescription.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Unless otherwise specified, the term "MAY" implies that the product does not follow the prescription.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.0.0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3180,6 +3194,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3326,13 +3341,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3362,7 +3377,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3405,21 +3420,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3444,9 +3444,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="69">
     <dxf>
@@ -4204,34 +4219,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I383" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A19:I383"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I383" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A19:I383" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4240,19 +4255,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4571,13 +4586,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K385"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="10" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
@@ -4592,18 +4607,18 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4611,7 +4626,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
@@ -4619,129 +4634,129 @@
         <v>3.2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="F3" s="11">
-        <v>42627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="40" t="s">
+        <v>43634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:9" ht="78.75" customHeight="1">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+    </row>
+    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-    </row>
-    <row r="10" spans="1:9" ht="33.75" customHeight="1">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
@@ -4751,14 +4766,14 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1">
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>6</v>
       </c>
@@ -4768,14 +4783,14 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>7</v>
       </c>
@@ -4785,14 +4800,14 @@
       <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>3</v>
       </c>
@@ -4802,59 +4817,59 @@
       <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1">
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-    </row>
-    <row r="17" spans="1:10" ht="64.5" customHeight="1">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-    </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-    </row>
-    <row r="19" spans="1:10" s="32" customFormat="1" ht="30">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="1:10" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -4883,7 +4898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="33" customFormat="1">
+    <row r="20" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="s">
         <v>43</v>
       </c>
@@ -4909,7 +4924,7 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="21" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="s">
         <v>45</v>
       </c>
@@ -4933,11 +4948,11 @@
         <v>17</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="J21" s="22"/>
     </row>
-    <row r="22" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="22" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
         <v>48</v>
       </c>
@@ -4945,7 +4960,7 @@
         <v>2.1</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>49</v>
+        <v>819</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21" t="s">
@@ -4963,15 +4978,15 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="23" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="35">
         <v>2.1</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>51</v>
+        <v>820</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21" t="s">
@@ -4989,15 +5004,15 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" s="33" customFormat="1" ht="45">
+    <row r="24" spans="1:10" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="35">
         <v>2.1</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>53</v>
+        <v>821</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21" t="s">
@@ -5015,15 +5030,15 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="1:10" s="33" customFormat="1">
+    <row r="25" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" s="35">
         <v>2.2000000000000002</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21" t="s">
@@ -5041,15 +5056,15 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
     </row>
-    <row r="26" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="26" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A26" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" s="35">
         <v>2.2000000000000002</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>57</v>
+        <v>822</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21" t="s">
@@ -5067,15 +5082,15 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="27" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A27" s="21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21" t="s">
@@ -5093,15 +5108,15 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" s="33" customFormat="1" ht="45">
+    <row r="28" spans="1:10" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A28" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21" t="s">
@@ -5119,15 +5134,15 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" spans="1:10" s="33" customFormat="1">
+    <row r="29" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21" t="s">
@@ -5145,15 +5160,15 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
     </row>
-    <row r="30" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="30" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A30" s="21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21" t="s">
@@ -5171,15 +5186,15 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
     </row>
-    <row r="31" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="31" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A31" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
@@ -5197,15 +5212,15 @@
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
     </row>
-    <row r="32" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="32" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A32" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21" t="s">
@@ -5223,15 +5238,15 @@
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>72</v>
+        <v>823</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
@@ -5249,15 +5264,15 @@
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="1:10" ht="30">
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21" t="s">
@@ -5275,15 +5290,15 @@
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:10" ht="30">
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>76</v>
+        <v>824</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21" t="s">
@@ -5301,15 +5316,15 @@
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>78</v>
+        <v>825</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
@@ -5327,15 +5342,15 @@
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" ht="30">
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21" t="s">
@@ -5353,15 +5368,15 @@
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" ht="30">
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
@@ -5379,15 +5394,15 @@
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:10" ht="30">
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21" t="s">
@@ -5405,15 +5420,15 @@
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:10" ht="30">
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21" t="s">
@@ -5431,15 +5446,15 @@
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21" t="s">
@@ -5457,15 +5472,15 @@
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10" ht="30">
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21" t="s">
@@ -5483,15 +5498,15 @@
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" ht="30">
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21" t="s">
@@ -5509,15 +5524,15 @@
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21" t="s">
@@ -5535,15 +5550,15 @@
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B45" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21" t="s">
@@ -5561,15 +5576,15 @@
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" ht="30">
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21" t="s">
@@ -5587,15 +5602,15 @@
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="1:10" ht="409.5">
+    <row r="47" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21" t="s">
@@ -5613,15 +5628,15 @@
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21" t="s">
@@ -5639,15 +5654,15 @@
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21" t="s">
@@ -5665,15 +5680,15 @@
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21" t="s">
@@ -5691,15 +5706,15 @@
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21" t="s">
@@ -5717,15 +5732,15 @@
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21" t="s">
@@ -5743,15 +5758,15 @@
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
     </row>
-    <row r="53" spans="1:10" ht="30">
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21" t="s">
@@ -5769,15 +5784,15 @@
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
     </row>
-    <row r="54" spans="1:10" ht="30">
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="21" t="s">
@@ -5795,15 +5810,15 @@
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21" t="s">
@@ -5821,15 +5836,15 @@
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
     </row>
-    <row r="56" spans="1:10" ht="30">
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21" t="s">
@@ -5847,15 +5862,15 @@
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="1:10" ht="30">
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="21" t="s">
@@ -5873,15 +5888,15 @@
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" spans="1:10" ht="30">
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="21" t="s">
@@ -5899,15 +5914,15 @@
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="1:10" ht="30">
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21" t="s">
@@ -5925,15 +5940,15 @@
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" spans="1:10" ht="30">
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21" t="s">
@@ -5949,19 +5964,19 @@
         <v>17</v>
       </c>
       <c r="I60" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="J60" s="19"/>
+    </row>
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>783</v>
-      </c>
-      <c r="J60" s="19"/>
-    </row>
-    <row r="61" spans="1:10" ht="30">
-      <c r="A61" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>795</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="21" t="s">
@@ -5979,15 +5994,15 @@
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
     </row>
-    <row r="62" spans="1:10" ht="30">
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="21" t="s">
@@ -6005,15 +6020,15 @@
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="1:10" ht="30">
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="21" t="s">
@@ -6031,15 +6046,15 @@
       <c r="I63" s="19"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="1:10" ht="45">
+    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="21" t="s">
@@ -6055,19 +6070,19 @@
         <v>17</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" spans="1:10" ht="45">
+    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D65" s="21"/>
       <c r="E65" s="21" t="s">
@@ -6085,15 +6100,15 @@
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
     </row>
-    <row r="66" spans="1:10" ht="45">
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="21" t="s">
@@ -6111,15 +6126,15 @@
       <c r="I66" s="19"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D67" s="21"/>
       <c r="E67" s="21" t="s">
@@ -6137,15 +6152,15 @@
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" spans="1:10" ht="105">
+    <row r="68" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="21" t="s">
@@ -6163,15 +6178,15 @@
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="21" t="s">
@@ -6189,15 +6204,15 @@
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B70" s="35">
         <v>3</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="21" t="s">
@@ -6215,15 +6230,15 @@
       <c r="I70" s="19"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B71" s="35">
         <v>3</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="21" t="s">
@@ -6241,15 +6256,15 @@
       <c r="I71" s="19"/>
       <c r="J71" s="19"/>
     </row>
-    <row r="72" spans="1:10" ht="45">
+    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B72" s="35">
         <v>3</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="21" t="s">
@@ -6267,15 +6282,15 @@
       <c r="I72" s="19"/>
       <c r="J72" s="19"/>
     </row>
-    <row r="73" spans="1:10" ht="30">
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B73" s="35">
         <v>3.1</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="21" t="s">
@@ -6293,15 +6308,15 @@
       <c r="I73" s="19"/>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" spans="1:10" ht="45">
+    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B74" s="35">
         <v>3.1</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="21" t="s">
@@ -6319,15 +6334,15 @@
       <c r="I74" s="19"/>
       <c r="J74" s="19"/>
     </row>
-    <row r="75" spans="1:10" ht="30">
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B75" s="35">
         <v>3.1</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="21" t="s">
@@ -6345,15 +6360,15 @@
       <c r="I75" s="19"/>
       <c r="J75" s="19"/>
     </row>
-    <row r="76" spans="1:10" ht="30">
+    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B76" s="35">
         <v>3.1</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21" t="s">
@@ -6371,15 +6386,15 @@
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
     </row>
-    <row r="77" spans="1:10" ht="30">
+    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B77" s="35">
         <v>3.1</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D77" s="21"/>
       <c r="E77" s="21" t="s">
@@ -6397,15 +6412,15 @@
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="1:10" ht="30">
+    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="21" t="s">
@@ -6423,15 +6438,15 @@
       <c r="I78" s="19"/>
       <c r="J78" s="19"/>
     </row>
-    <row r="79" spans="1:10" ht="30">
+    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="21" t="s">
@@ -6449,15 +6464,15 @@
       <c r="I79" s="19"/>
       <c r="J79" s="19"/>
     </row>
-    <row r="80" spans="1:10" ht="30">
+    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="21" t="s">
@@ -6475,15 +6490,15 @@
       <c r="I80" s="19"/>
       <c r="J80" s="19"/>
     </row>
-    <row r="81" spans="1:10" ht="30">
+    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="21" t="s">
@@ -6501,15 +6516,15 @@
       <c r="I81" s="19"/>
       <c r="J81" s="19"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21" t="s">
@@ -6527,15 +6542,15 @@
       <c r="I82" s="19"/>
       <c r="J82" s="19"/>
     </row>
-    <row r="83" spans="1:10" ht="30">
+    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21" t="s">
@@ -6553,15 +6568,15 @@
       <c r="I83" s="19"/>
       <c r="J83" s="19"/>
     </row>
-    <row r="84" spans="1:10" ht="30">
+    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21" t="s">
@@ -6579,15 +6594,15 @@
       <c r="I84" s="19"/>
       <c r="J84" s="19"/>
     </row>
-    <row r="85" spans="1:10" ht="30">
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B85" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21" t="s">
@@ -6605,15 +6620,15 @@
       <c r="I85" s="19"/>
       <c r="J85" s="19"/>
     </row>
-    <row r="86" spans="1:10" ht="30">
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="21" t="s">
@@ -6631,15 +6646,15 @@
       <c r="I86" s="19"/>
       <c r="J86" s="19"/>
     </row>
-    <row r="87" spans="1:10" ht="30">
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="21" t="s">
@@ -6657,15 +6672,15 @@
       <c r="I87" s="19"/>
       <c r="J87" s="19"/>
     </row>
-    <row r="88" spans="1:10" ht="30">
+    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21" t="s">
@@ -6683,15 +6698,15 @@
       <c r="I88" s="19"/>
       <c r="J88" s="19"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B89" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>186</v>
+        <v>828</v>
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="21" t="s">
@@ -6709,15 +6724,15 @@
       <c r="I89" s="19"/>
       <c r="J89" s="19"/>
     </row>
-    <row r="90" spans="1:10" ht="60">
+    <row r="90" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B90" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="21" t="s">
@@ -6735,15 +6750,15 @@
       <c r="I90" s="19"/>
       <c r="J90" s="19"/>
     </row>
-    <row r="91" spans="1:10" ht="30">
+    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B91" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D91" s="21"/>
       <c r="E91" s="21" t="s">
@@ -6761,15 +6776,15 @@
       <c r="I91" s="19"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:10" ht="30">
+    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="21" t="s">
@@ -6787,15 +6802,15 @@
       <c r="I92" s="19"/>
       <c r="J92" s="19"/>
     </row>
-    <row r="93" spans="1:10" ht="30">
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D93" s="21"/>
       <c r="E93" s="21" t="s">
@@ -6813,15 +6828,15 @@
       <c r="I93" s="19"/>
       <c r="J93" s="19"/>
     </row>
-    <row r="94" spans="1:10" ht="30">
+    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="21" t="s">
@@ -6839,15 +6854,15 @@
       <c r="I94" s="19"/>
       <c r="J94" s="19"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D95" s="21"/>
       <c r="E95" s="21" t="s">
@@ -6865,15 +6880,15 @@
       <c r="I95" s="19"/>
       <c r="J95" s="19"/>
     </row>
-    <row r="96" spans="1:10" ht="30">
+    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="21" t="s">
@@ -6891,15 +6906,15 @@
       <c r="I96" s="19"/>
       <c r="J96" s="19"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="21" t="s">
@@ -6917,15 +6932,15 @@
       <c r="I97" s="19"/>
       <c r="J97" s="19"/>
     </row>
-    <row r="98" spans="1:10" ht="30">
+    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="21" t="s">
@@ -6943,15 +6958,15 @@
       <c r="I98" s="19"/>
       <c r="J98" s="19"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D99" s="21"/>
       <c r="E99" s="21" t="s">
@@ -6969,15 +6984,15 @@
       <c r="I99" s="19"/>
       <c r="J99" s="19"/>
     </row>
-    <row r="100" spans="1:10" ht="30">
+    <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="21" t="s">
@@ -6995,15 +7010,15 @@
       <c r="I100" s="19"/>
       <c r="J100" s="19"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D101" s="21"/>
       <c r="E101" s="21" t="s">
@@ -7021,15 +7036,15 @@
       <c r="I101" s="19"/>
       <c r="J101" s="19"/>
     </row>
-    <row r="102" spans="1:10" ht="30">
+    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D102" s="21"/>
       <c r="E102" s="21" t="s">
@@ -7047,15 +7062,15 @@
       <c r="I102" s="19"/>
       <c r="J102" s="19"/>
     </row>
-    <row r="103" spans="1:10" ht="30">
+    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D103" s="21"/>
       <c r="E103" s="21" t="s">
@@ -7073,15 +7088,15 @@
       <c r="I103" s="19"/>
       <c r="J103" s="19"/>
     </row>
-    <row r="104" spans="1:10" ht="240">
+    <row r="104" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D104" s="21"/>
       <c r="E104" s="21" t="s">
@@ -7099,15 +7114,15 @@
       <c r="I104" s="19"/>
       <c r="J104" s="19"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D105" s="21"/>
       <c r="E105" s="21" t="s">
@@ -7125,15 +7140,15 @@
       <c r="I105" s="19"/>
       <c r="J105" s="19"/>
     </row>
-    <row r="106" spans="1:10" ht="30">
+    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D106" s="21"/>
       <c r="E106" s="21" t="s">
@@ -7149,22 +7164,22 @@
         <v>17</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="J106" s="19"/>
     </row>
-    <row r="107" spans="1:10" ht="30">
+    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
-        <v>226</v>
+        <v>829</v>
       </c>
       <c r="B107" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="C107" s="19" t="s">
-        <v>227</v>
-      </c>
       <c r="D107" s="21" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>19</v>
@@ -7181,15 +7196,15 @@
       <c r="I107" s="19"/>
       <c r="J107" s="19"/>
     </row>
-    <row r="108" spans="1:10" ht="30">
+    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D108" s="21"/>
       <c r="E108" s="21" t="s">
@@ -7207,15 +7222,15 @@
       <c r="I108" s="19"/>
       <c r="J108" s="19"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D109" s="21"/>
       <c r="E109" s="21" t="s">
@@ -7233,15 +7248,15 @@
       <c r="I109" s="19"/>
       <c r="J109" s="19"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D110" s="21"/>
       <c r="E110" s="21" t="s">
@@ -7259,15 +7274,15 @@
       <c r="I110" s="19"/>
       <c r="J110" s="19"/>
     </row>
-    <row r="111" spans="1:10" ht="30">
+    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D111" s="21"/>
       <c r="E111" s="21" t="s">
@@ -7285,15 +7300,15 @@
       <c r="I111" s="19"/>
       <c r="J111" s="19"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="D112" s="31"/>
       <c r="E112" s="21" t="s">
@@ -7311,15 +7326,15 @@
       <c r="I112" s="38"/>
       <c r="J112" s="19"/>
     </row>
-    <row r="113" spans="1:10" ht="30">
+    <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="C113" s="39" t="s">
-        <v>831</v>
+        <v>210</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>826</v>
       </c>
       <c r="D113" s="31"/>
       <c r="E113" s="21" t="s">
@@ -7337,15 +7352,15 @@
       <c r="I113" s="38"/>
       <c r="J113" s="19"/>
     </row>
-    <row r="114" spans="1:10" ht="30">
+    <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>239</v>
+        <v>827</v>
       </c>
       <c r="D114" s="21"/>
       <c r="E114" s="21" t="s">
@@ -7363,15 +7378,15 @@
       <c r="I114" s="19"/>
       <c r="J114" s="19"/>
     </row>
-    <row r="115" spans="1:10" ht="195">
+    <row r="115" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D115" s="21"/>
       <c r="E115" s="21" t="s">
@@ -7389,15 +7404,15 @@
       <c r="I115" s="19"/>
       <c r="J115" s="19"/>
     </row>
-    <row r="116" spans="1:10" ht="30">
+    <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D116" s="21"/>
       <c r="E116" s="21" t="s">
@@ -7415,15 +7430,15 @@
       <c r="I116" s="19"/>
       <c r="J116" s="19"/>
     </row>
-    <row r="117" spans="1:10" ht="30">
+    <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D117" s="21"/>
       <c r="E117" s="21" t="s">
@@ -7441,15 +7456,15 @@
       <c r="I117" s="19"/>
       <c r="J117" s="19"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D118" s="21"/>
       <c r="E118" s="21" t="s">
@@ -7467,15 +7482,15 @@
       <c r="I118" s="19"/>
       <c r="J118" s="19"/>
     </row>
-    <row r="119" spans="1:10" ht="30">
+    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="D119" s="21"/>
       <c r="E119" s="21" t="s">
@@ -7493,15 +7508,15 @@
       <c r="I119" s="19"/>
       <c r="J119" s="19"/>
     </row>
-    <row r="120" spans="1:10" ht="30">
+    <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D120" s="21"/>
       <c r="E120" s="21" t="s">
@@ -7519,15 +7534,15 @@
       <c r="I120" s="19"/>
       <c r="J120" s="19"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B121" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="D121" s="21"/>
       <c r="E121" s="21" t="s">
@@ -7545,15 +7560,15 @@
       <c r="I121" s="19"/>
       <c r="J121" s="19"/>
     </row>
-    <row r="122" spans="1:10" ht="60">
+    <row r="122" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B122" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D122" s="21"/>
       <c r="E122" s="21" t="s">
@@ -7571,15 +7586,15 @@
       <c r="I122" s="19"/>
       <c r="J122" s="19"/>
     </row>
-    <row r="123" spans="1:10" ht="30">
+    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B123" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D123" s="21"/>
       <c r="E123" s="21" t="s">
@@ -7597,15 +7612,15 @@
       <c r="I123" s="19"/>
       <c r="J123" s="19"/>
     </row>
-    <row r="124" spans="1:10" ht="30">
+    <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D124" s="21"/>
       <c r="E124" s="21" t="s">
@@ -7623,15 +7638,15 @@
       <c r="I124" s="19"/>
       <c r="J124" s="19"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="D125" s="21"/>
       <c r="E125" s="21" t="s">
@@ -7649,15 +7664,15 @@
       <c r="I125" s="19"/>
       <c r="J125" s="19"/>
     </row>
-    <row r="126" spans="1:10" ht="30">
+    <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="D126" s="21"/>
       <c r="E126" s="21" t="s">
@@ -7675,15 +7690,15 @@
       <c r="I126" s="19"/>
       <c r="J126" s="19"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D127" s="21"/>
       <c r="E127" s="21" t="s">
@@ -7701,15 +7716,15 @@
       <c r="I127" s="19"/>
       <c r="J127" s="19"/>
     </row>
-    <row r="128" spans="1:10" ht="30">
+    <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D128" s="21"/>
       <c r="E128" s="21" t="s">
@@ -7727,15 +7742,15 @@
       <c r="I128" s="19"/>
       <c r="J128" s="19"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D129" s="21"/>
       <c r="E129" s="21" t="s">
@@ -7753,15 +7768,15 @@
       <c r="I129" s="19"/>
       <c r="J129" s="19"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D130" s="21"/>
       <c r="E130" s="21" t="s">
@@ -7779,15 +7794,15 @@
       <c r="I130" s="19"/>
       <c r="J130" s="19"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D131" s="21"/>
       <c r="E131" s="21" t="s">
@@ -7805,15 +7820,15 @@
       <c r="I131" s="19"/>
       <c r="J131" s="19"/>
     </row>
-    <row r="132" spans="1:10" ht="30">
+    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D132" s="21"/>
       <c r="E132" s="21" t="s">
@@ -7831,15 +7846,15 @@
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="D133" s="21"/>
       <c r="E133" s="21" t="s">
@@ -7857,15 +7872,15 @@
       <c r="I133" s="19"/>
       <c r="J133" s="19"/>
     </row>
-    <row r="134" spans="1:10" ht="30">
+    <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="D134" s="21"/>
       <c r="E134" s="21" t="s">
@@ -7883,15 +7898,15 @@
       <c r="I134" s="19"/>
       <c r="J134" s="19"/>
     </row>
-    <row r="135" spans="1:10" ht="30">
+    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D135" s="21"/>
       <c r="E135" s="21" t="s">
@@ -7909,15 +7924,15 @@
       <c r="I135" s="19"/>
       <c r="J135" s="19"/>
     </row>
-    <row r="136" spans="1:10" ht="150">
+    <row r="136" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B136" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="D136" s="21"/>
       <c r="E136" s="21" t="s">
@@ -7935,15 +7950,15 @@
       <c r="I136" s="19"/>
       <c r="J136" s="19"/>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D137" s="21"/>
       <c r="E137" s="21" t="s">
@@ -7961,15 +7976,15 @@
       <c r="I137" s="19"/>
       <c r="J137" s="19"/>
     </row>
-    <row r="138" spans="1:10" ht="30">
+    <row r="138" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D138" s="21"/>
       <c r="E138" s="21" t="s">
@@ -7985,22 +8000,22 @@
         <v>17</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="J138" s="19"/>
     </row>
-    <row r="139" spans="1:10" ht="30">
+    <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E139" s="21" t="s">
         <v>19</v>
@@ -8017,15 +8032,15 @@
       <c r="I139" s="19"/>
       <c r="J139" s="19"/>
     </row>
-    <row r="140" spans="1:10" ht="30">
+    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D140" s="21"/>
       <c r="E140" s="21" t="s">
@@ -8043,15 +8058,15 @@
       <c r="I140" s="19"/>
       <c r="J140" s="19"/>
     </row>
-    <row r="141" spans="1:10" ht="30">
+    <row r="141" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D141" s="21"/>
       <c r="E141" s="21" t="s">
@@ -8069,15 +8084,15 @@
       <c r="I141" s="19"/>
       <c r="J141" s="19"/>
     </row>
-    <row r="142" spans="1:10" ht="30">
+    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D142" s="21"/>
       <c r="E142" s="21" t="s">
@@ -8095,15 +8110,15 @@
       <c r="I142" s="19"/>
       <c r="J142" s="19"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D143" s="21"/>
       <c r="E143" s="21" t="s">
@@ -8121,15 +8136,15 @@
       <c r="I143" s="19"/>
       <c r="J143" s="19"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D144" s="21"/>
       <c r="E144" s="21" t="s">
@@ -8147,15 +8162,15 @@
       <c r="I144" s="19"/>
       <c r="J144" s="19"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="D145" s="21"/>
       <c r="E145" s="21" t="s">
@@ -8173,15 +8188,15 @@
       <c r="I145" s="19"/>
       <c r="J145" s="19"/>
     </row>
-    <row r="146" spans="1:10" ht="30">
+    <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D146" s="21"/>
       <c r="E146" s="21" t="s">
@@ -8199,15 +8214,15 @@
       <c r="I146" s="19"/>
       <c r="J146" s="19"/>
     </row>
-    <row r="147" spans="1:10" ht="30">
+    <row r="147" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D147" s="21"/>
       <c r="E147" s="21" t="s">
@@ -8225,15 +8240,15 @@
       <c r="I147" s="19"/>
       <c r="J147" s="19"/>
     </row>
-    <row r="148" spans="1:10" ht="345">
+    <row r="148" spans="1:10" ht="345" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D148" s="21"/>
       <c r="E148" s="21" t="s">
@@ -8251,15 +8266,15 @@
       <c r="I148" s="19"/>
       <c r="J148" s="19"/>
     </row>
-    <row r="149" spans="1:10" ht="30">
+    <row r="149" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D149" s="21"/>
       <c r="E149" s="21" t="s">
@@ -8277,15 +8292,15 @@
       <c r="I149" s="19"/>
       <c r="J149" s="19"/>
     </row>
-    <row r="150" spans="1:10" ht="30">
+    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D150" s="21"/>
       <c r="E150" s="21" t="s">
@@ -8303,15 +8318,15 @@
       <c r="I150" s="19"/>
       <c r="J150" s="19"/>
     </row>
-    <row r="151" spans="1:10" ht="30">
+    <row r="151" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="D151" s="21"/>
       <c r="E151" s="21" t="s">
@@ -8329,15 +8344,15 @@
       <c r="I151" s="19"/>
       <c r="J151" s="19"/>
     </row>
-    <row r="152" spans="1:10" ht="30">
+    <row r="152" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B152" s="22" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D152" s="21"/>
       <c r="E152" s="21" t="s">
@@ -8355,15 +8370,15 @@
       <c r="I152" s="19"/>
       <c r="J152" s="19"/>
     </row>
-    <row r="153" spans="1:10" ht="30">
+    <row r="153" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B153" s="22" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D153" s="21"/>
       <c r="E153" s="21" t="s">
@@ -8381,15 +8396,15 @@
       <c r="I153" s="19"/>
       <c r="J153" s="19"/>
     </row>
-    <row r="154" spans="1:10" ht="30">
+    <row r="154" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B154" s="22" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D154" s="21"/>
       <c r="E154" s="21" t="s">
@@ -8407,15 +8422,15 @@
       <c r="I154" s="19"/>
       <c r="J154" s="19"/>
     </row>
-    <row r="155" spans="1:10" ht="75">
+    <row r="155" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B155" s="22" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D155" s="21"/>
       <c r="E155" s="21" t="s">
@@ -8433,15 +8448,15 @@
       <c r="I155" s="19"/>
       <c r="J155" s="19"/>
     </row>
-    <row r="156" spans="1:10" ht="30">
+    <row r="156" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D156" s="21"/>
       <c r="E156" s="21" t="s">
@@ -8459,15 +8474,15 @@
       <c r="I156" s="19"/>
       <c r="J156" s="19"/>
     </row>
-    <row r="157" spans="1:10" ht="30">
+    <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="21" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D157" s="21"/>
       <c r="E157" s="21" t="s">
@@ -8485,15 +8500,15 @@
       <c r="I157" s="19"/>
       <c r="J157" s="19"/>
     </row>
-    <row r="158" spans="1:10" ht="30">
+    <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="21" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D158" s="21"/>
       <c r="E158" s="21" t="s">
@@ -8511,15 +8526,15 @@
       <c r="I158" s="19"/>
       <c r="J158" s="19"/>
     </row>
-    <row r="159" spans="1:10" ht="30">
+    <row r="159" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="21" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D159" s="21"/>
       <c r="E159" s="21" t="s">
@@ -8537,15 +8552,15 @@
       <c r="I159" s="19"/>
       <c r="J159" s="19"/>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="21" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D160" s="21"/>
       <c r="E160" s="21" t="s">
@@ -8563,15 +8578,15 @@
       <c r="I160" s="19"/>
       <c r="J160" s="19"/>
     </row>
-    <row r="161" spans="1:10" ht="30">
+    <row r="161" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="21" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D161" s="21"/>
       <c r="E161" s="21" t="s">
@@ -8589,15 +8604,15 @@
       <c r="I161" s="19"/>
       <c r="J161" s="19"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="21" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D162" s="21"/>
       <c r="E162" s="21" t="s">
@@ -8615,15 +8630,15 @@
       <c r="I162" s="19"/>
       <c r="J162" s="19"/>
     </row>
-    <row r="163" spans="1:10" ht="30">
+    <row r="163" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="21" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D163" s="21"/>
       <c r="E163" s="21" t="s">
@@ -8641,15 +8656,15 @@
       <c r="I163" s="19"/>
       <c r="J163" s="19"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="21" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D164" s="21"/>
       <c r="E164" s="21" t="s">
@@ -8667,15 +8682,15 @@
       <c r="I164" s="19"/>
       <c r="J164" s="19"/>
     </row>
-    <row r="165" spans="1:10" ht="30">
+    <row r="165" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="21" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D165" s="21"/>
       <c r="E165" s="21" t="s">
@@ -8693,15 +8708,15 @@
       <c r="I165" s="19"/>
       <c r="J165" s="19"/>
     </row>
-    <row r="166" spans="1:10" ht="30">
+    <row r="166" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="21" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D166" s="21"/>
       <c r="E166" s="21" t="s">
@@ -8719,15 +8734,15 @@
       <c r="I166" s="19"/>
       <c r="J166" s="19"/>
     </row>
-    <row r="167" spans="1:10" ht="30">
+    <row r="167" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="21" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D167" s="21"/>
       <c r="E167" s="21" t="s">
@@ -8745,15 +8760,15 @@
       <c r="I167" s="19"/>
       <c r="J167" s="19"/>
     </row>
-    <row r="168" spans="1:10" ht="30">
+    <row r="168" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="21" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D168" s="21"/>
       <c r="E168" s="21" t="s">
@@ -8771,15 +8786,15 @@
       <c r="I168" s="19"/>
       <c r="J168" s="19"/>
     </row>
-    <row r="169" spans="1:10" ht="120">
+    <row r="169" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A169" s="21" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B169" s="22" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D169" s="21"/>
       <c r="E169" s="21" t="s">
@@ -8797,15 +8812,15 @@
       <c r="I169" s="19"/>
       <c r="J169" s="19"/>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B170" s="22" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D170" s="21"/>
       <c r="E170" s="21" t="s">
@@ -8823,15 +8838,15 @@
       <c r="I170" s="19"/>
       <c r="J170" s="19"/>
     </row>
-    <row r="171" spans="1:10" ht="30">
+    <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="21" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B171" s="22" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D171" s="21"/>
       <c r="E171" s="21" t="s">
@@ -8849,15 +8864,15 @@
       <c r="I171" s="19"/>
       <c r="J171" s="19"/>
     </row>
-    <row r="172" spans="1:10" ht="30">
+    <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="21" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B172" s="22" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D172" s="21"/>
       <c r="E172" s="21" t="s">
@@ -8875,15 +8890,15 @@
       <c r="I172" s="19"/>
       <c r="J172" s="19"/>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="21" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B173" s="22" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D173" s="21"/>
       <c r="E173" s="21" t="s">
@@ -8901,15 +8916,15 @@
       <c r="I173" s="19"/>
       <c r="J173" s="19"/>
     </row>
-    <row r="174" spans="1:10" ht="210">
+    <row r="174" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A174" s="21" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B174" s="22" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="D174" s="21"/>
       <c r="E174" s="21" t="s">
@@ -8927,15 +8942,15 @@
       <c r="I174" s="19"/>
       <c r="J174" s="19"/>
     </row>
-    <row r="175" spans="1:10" ht="30">
+    <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="21" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B175" s="22" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D175" s="21"/>
       <c r="E175" s="21" t="s">
@@ -8953,15 +8968,15 @@
       <c r="I175" s="19"/>
       <c r="J175" s="19"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D176" s="21"/>
       <c r="E176" s="21" t="s">
@@ -8979,15 +8994,15 @@
       <c r="I176" s="19"/>
       <c r="J176" s="19"/>
     </row>
-    <row r="177" spans="1:10" ht="60">
+    <row r="177" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D177" s="21"/>
       <c r="E177" s="21" t="s">
@@ -9005,15 +9020,15 @@
       <c r="I177" s="19"/>
       <c r="J177" s="19"/>
     </row>
-    <row r="178" spans="1:10" ht="30">
+    <row r="178" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="21" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D178" s="21"/>
       <c r="E178" s="21" t="s">
@@ -9031,15 +9046,15 @@
       <c r="I178" s="19"/>
       <c r="J178" s="19"/>
     </row>
-    <row r="179" spans="1:10" ht="30">
+    <row r="179" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D179" s="21"/>
       <c r="E179" s="21" t="s">
@@ -9057,15 +9072,15 @@
       <c r="I179" s="19"/>
       <c r="J179" s="19"/>
     </row>
-    <row r="180" spans="1:10" ht="30">
+    <row r="180" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="21" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D180" s="21"/>
       <c r="E180" s="21" t="s">
@@ -9083,15 +9098,15 @@
       <c r="I180" s="19"/>
       <c r="J180" s="19"/>
     </row>
-    <row r="181" spans="1:10" ht="30">
+    <row r="181" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="21" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B181" s="22" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D181" s="21"/>
       <c r="E181" s="21" t="s">
@@ -9109,15 +9124,15 @@
       <c r="I181" s="19"/>
       <c r="J181" s="19"/>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="21" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D182" s="21"/>
       <c r="E182" s="21" t="s">
@@ -9135,15 +9150,15 @@
       <c r="I182" s="19"/>
       <c r="J182" s="19"/>
     </row>
-    <row r="183" spans="1:10" ht="30">
+    <row r="183" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="21" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B183" s="22" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D183" s="21"/>
       <c r="E183" s="21" t="s">
@@ -9161,15 +9176,15 @@
       <c r="I183" s="19"/>
       <c r="J183" s="19"/>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="21" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D184" s="21"/>
       <c r="E184" s="21" t="s">
@@ -9187,15 +9202,15 @@
       <c r="I184" s="19"/>
       <c r="J184" s="19"/>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D185" s="21"/>
       <c r="E185" s="21" t="s">
@@ -9213,15 +9228,15 @@
       <c r="I185" s="19"/>
       <c r="J185" s="19"/>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="21" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B186" s="22" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D186" s="21"/>
       <c r="E186" s="21" t="s">
@@ -9239,15 +9254,15 @@
       <c r="I186" s="19"/>
       <c r="J186" s="19"/>
     </row>
-    <row r="187" spans="1:10" ht="30">
+    <row r="187" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="21" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D187" s="21"/>
       <c r="E187" s="21" t="s">
@@ -9265,15 +9280,15 @@
       <c r="I187" s="19"/>
       <c r="J187" s="19"/>
     </row>
-    <row r="188" spans="1:10" ht="30">
+    <row r="188" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="21" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B188" s="22" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D188" s="21"/>
       <c r="E188" s="21" t="s">
@@ -9291,15 +9306,15 @@
       <c r="I188" s="19"/>
       <c r="J188" s="19"/>
     </row>
-    <row r="189" spans="1:10" ht="30">
+    <row r="189" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="21" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D189" s="21"/>
       <c r="E189" s="21" t="s">
@@ -9317,15 +9332,15 @@
       <c r="I189" s="19"/>
       <c r="J189" s="19"/>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="21" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D190" s="21"/>
       <c r="E190" s="21" t="s">
@@ -9343,15 +9358,15 @@
       <c r="I190" s="19"/>
       <c r="J190" s="19"/>
     </row>
-    <row r="191" spans="1:10" ht="105">
+    <row r="191" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B191" s="22" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D191" s="21"/>
       <c r="E191" s="21" t="s">
@@ -9369,15 +9384,15 @@
       <c r="I191" s="19"/>
       <c r="J191" s="19"/>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="21" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B192" s="22" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D192" s="21"/>
       <c r="E192" s="21" t="s">
@@ -9395,15 +9410,15 @@
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
     </row>
-    <row r="193" spans="1:10" ht="30">
+    <row r="193" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="21" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B193" s="22" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D193" s="21"/>
       <c r="E193" s="21" t="s">
@@ -9421,15 +9436,15 @@
       <c r="I193" s="19"/>
       <c r="J193" s="19"/>
     </row>
-    <row r="194" spans="1:10" ht="210">
+    <row r="194" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A194" s="21" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B194" s="22" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="D194" s="21"/>
       <c r="E194" s="21" t="s">
@@ -9447,15 +9462,15 @@
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
     </row>
-    <row r="195" spans="1:10" ht="30">
+    <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="21" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B195" s="22" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D195" s="21"/>
       <c r="E195" s="21" t="s">
@@ -9473,15 +9488,15 @@
       <c r="I195" s="19"/>
       <c r="J195" s="19"/>
     </row>
-    <row r="196" spans="1:10" ht="30">
+    <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="21" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D196" s="21"/>
       <c r="E196" s="21" t="s">
@@ -9499,15 +9514,15 @@
       <c r="I196" s="19"/>
       <c r="J196" s="19"/>
     </row>
-    <row r="197" spans="1:10" ht="30">
+    <row r="197" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="21" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B197" s="22" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D197" s="21"/>
       <c r="E197" s="21" t="s">
@@ -9525,15 +9540,15 @@
       <c r="I197" s="19"/>
       <c r="J197" s="19"/>
     </row>
-    <row r="198" spans="1:10" ht="75">
+    <row r="198" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A198" s="21" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B198" s="22" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D198" s="21"/>
       <c r="E198" s="21" t="s">
@@ -9551,15 +9566,15 @@
       <c r="I198" s="19"/>
       <c r="J198" s="19"/>
     </row>
-    <row r="199" spans="1:10" ht="30">
+    <row r="199" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="21" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B199" s="22" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D199" s="21"/>
       <c r="E199" s="21" t="s">
@@ -9577,15 +9592,15 @@
       <c r="I199" s="19"/>
       <c r="J199" s="19"/>
     </row>
-    <row r="200" spans="1:10" ht="30">
+    <row r="200" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="21" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D200" s="21"/>
       <c r="E200" s="21" t="s">
@@ -9603,15 +9618,15 @@
       <c r="I200" s="19"/>
       <c r="J200" s="19"/>
     </row>
-    <row r="201" spans="1:10" ht="30">
+    <row r="201" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D201" s="21"/>
       <c r="E201" s="21" t="s">
@@ -9629,15 +9644,15 @@
       <c r="I201" s="19"/>
       <c r="J201" s="19"/>
     </row>
-    <row r="202" spans="1:10" ht="45">
+    <row r="202" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B202" s="22" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D202" s="21"/>
       <c r="E202" s="21" t="s">
@@ -9655,15 +9670,15 @@
       <c r="I202" s="19"/>
       <c r="J202" s="19"/>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="21" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D203" s="21"/>
       <c r="E203" s="21" t="s">
@@ -9681,15 +9696,15 @@
       <c r="I203" s="19"/>
       <c r="J203" s="19"/>
     </row>
-    <row r="204" spans="1:10" ht="30">
+    <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="21" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D204" s="21"/>
       <c r="E204" s="21" t="s">
@@ -9707,15 +9722,15 @@
       <c r="I204" s="19"/>
       <c r="J204" s="19"/>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="21" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B205" s="22" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D205" s="21"/>
       <c r="E205" s="21" t="s">
@@ -9733,15 +9748,15 @@
       <c r="I205" s="19"/>
       <c r="J205" s="19"/>
     </row>
-    <row r="206" spans="1:10" ht="30">
+    <row r="206" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="21" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D206" s="21"/>
       <c r="E206" s="21" t="s">
@@ -9759,15 +9774,15 @@
       <c r="I206" s="19"/>
       <c r="J206" s="19"/>
     </row>
-    <row r="207" spans="1:10" ht="30">
+    <row r="207" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="21" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B207" s="22" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D207" s="21"/>
       <c r="E207" s="21" t="s">
@@ -9785,15 +9800,15 @@
       <c r="I207" s="19"/>
       <c r="J207" s="19"/>
     </row>
-    <row r="208" spans="1:10" ht="30">
+    <row r="208" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="21" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D208" s="21"/>
       <c r="E208" s="21" t="s">
@@ -9811,15 +9826,15 @@
       <c r="I208" s="19"/>
       <c r="J208" s="19"/>
     </row>
-    <row r="209" spans="1:10" ht="45">
+    <row r="209" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="21" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B209" s="22" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D209" s="21"/>
       <c r="E209" s="21" t="s">
@@ -9837,15 +9852,15 @@
       <c r="I209" s="19"/>
       <c r="J209" s="19"/>
     </row>
-    <row r="210" spans="1:10" ht="45">
+    <row r="210" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="21" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B210" s="22" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D210" s="21"/>
       <c r="E210" s="21" t="s">
@@ -9863,15 +9878,15 @@
       <c r="I210" s="19"/>
       <c r="J210" s="19"/>
     </row>
-    <row r="211" spans="1:10" ht="30">
+    <row r="211" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="21" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B211" s="22" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D211" s="21"/>
       <c r="E211" s="21" t="s">
@@ -9889,15 +9904,15 @@
       <c r="I211" s="19"/>
       <c r="J211" s="19"/>
     </row>
-    <row r="212" spans="1:10" ht="120">
+    <row r="212" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A212" s="21" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B212" s="22" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D212" s="21"/>
       <c r="E212" s="21" t="s">
@@ -9915,15 +9930,15 @@
       <c r="I212" s="19"/>
       <c r="J212" s="19"/>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="21" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B213" s="22" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D213" s="21"/>
       <c r="E213" s="21" t="s">
@@ -9941,15 +9956,15 @@
       <c r="I213" s="19"/>
       <c r="J213" s="19"/>
     </row>
-    <row r="214" spans="1:10" ht="30">
+    <row r="214" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B214" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D214" s="21"/>
       <c r="E214" s="21" t="s">
@@ -9967,15 +9982,15 @@
       <c r="I214" s="19"/>
       <c r="J214" s="19"/>
     </row>
-    <row r="215" spans="1:10" ht="409.5">
+    <row r="215" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A215" s="21" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B215" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="D215" s="21"/>
       <c r="E215" s="21" t="s">
@@ -9993,15 +10008,15 @@
       <c r="I215" s="19"/>
       <c r="J215" s="19"/>
     </row>
-    <row r="216" spans="1:10" ht="30">
+    <row r="216" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="21" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B216" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D216" s="21"/>
       <c r="E216" s="21" t="s">
@@ -10019,15 +10034,15 @@
       <c r="I216" s="19"/>
       <c r="J216" s="19"/>
     </row>
-    <row r="217" spans="1:10" ht="30">
+    <row r="217" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="21" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B217" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D217" s="21"/>
       <c r="E217" s="21" t="s">
@@ -10045,15 +10060,15 @@
       <c r="I217" s="19"/>
       <c r="J217" s="19"/>
     </row>
-    <row r="218" spans="1:10" ht="45">
+    <row r="218" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="21" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B218" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D218" s="21"/>
       <c r="E218" s="21" t="s">
@@ -10071,15 +10086,15 @@
       <c r="I218" s="19"/>
       <c r="J218" s="19"/>
     </row>
-    <row r="219" spans="1:10" ht="45">
+    <row r="219" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="21" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B219" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C219" s="19" t="s">
         <v>447</v>
-      </c>
-      <c r="C219" s="19" t="s">
-        <v>457</v>
       </c>
       <c r="D219" s="21"/>
       <c r="E219" s="21" t="s">
@@ -10097,15 +10112,15 @@
       <c r="I219" s="19"/>
       <c r="J219" s="19"/>
     </row>
-    <row r="220" spans="1:10" ht="45">
+    <row r="220" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="21" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D220" s="21"/>
       <c r="E220" s="21" t="s">
@@ -10123,15 +10138,15 @@
       <c r="I220" s="19"/>
       <c r="J220" s="19"/>
     </row>
-    <row r="221" spans="1:10" ht="45">
+    <row r="221" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="21" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B221" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D221" s="21"/>
       <c r="E221" s="21" t="s">
@@ -10149,15 +10164,15 @@
       <c r="I221" s="19"/>
       <c r="J221" s="19"/>
     </row>
-    <row r="222" spans="1:10" ht="45">
+    <row r="222" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="21" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B222" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D222" s="21"/>
       <c r="E222" s="21" t="s">
@@ -10175,15 +10190,15 @@
       <c r="I222" s="19"/>
       <c r="J222" s="19"/>
     </row>
-    <row r="223" spans="1:10" ht="60">
+    <row r="223" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="21" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B223" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D223" s="21"/>
       <c r="E223" s="21" t="s">
@@ -10201,15 +10216,15 @@
       <c r="I223" s="19"/>
       <c r="J223" s="19"/>
     </row>
-    <row r="224" spans="1:10" ht="30">
+    <row r="224" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="21" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B224" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D224" s="21"/>
       <c r="E224" s="21" t="s">
@@ -10227,15 +10242,15 @@
       <c r="I224" s="19"/>
       <c r="J224" s="19"/>
     </row>
-    <row r="225" spans="1:10" ht="30">
+    <row r="225" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="21" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B225" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D225" s="21"/>
       <c r="E225" s="21" t="s">
@@ -10253,15 +10268,15 @@
       <c r="I225" s="19"/>
       <c r="J225" s="19"/>
     </row>
-    <row r="226" spans="1:10" ht="30">
+    <row r="226" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="21" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B226" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D226" s="21"/>
       <c r="E226" s="21" t="s">
@@ -10279,15 +10294,15 @@
       <c r="I226" s="19"/>
       <c r="J226" s="19"/>
     </row>
-    <row r="227" spans="1:10" ht="30">
+    <row r="227" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="21" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B227" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D227" s="21"/>
       <c r="E227" s="21" t="s">
@@ -10305,15 +10320,15 @@
       <c r="I227" s="19"/>
       <c r="J227" s="19"/>
     </row>
-    <row r="228" spans="1:10" ht="45">
+    <row r="228" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="21" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B228" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D228" s="21"/>
       <c r="E228" s="21" t="s">
@@ -10331,15 +10346,15 @@
       <c r="I228" s="19"/>
       <c r="J228" s="19"/>
     </row>
-    <row r="229" spans="1:10" ht="30">
+    <row r="229" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="21" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B229" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D229" s="21"/>
       <c r="E229" s="21" t="s">
@@ -10357,15 +10372,15 @@
       <c r="I229" s="19"/>
       <c r="J229" s="19"/>
     </row>
-    <row r="230" spans="1:10" ht="45">
+    <row r="230" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="21" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B230" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D230" s="21"/>
       <c r="E230" s="21" t="s">
@@ -10383,15 +10398,15 @@
       <c r="I230" s="19"/>
       <c r="J230" s="19"/>
     </row>
-    <row r="231" spans="1:10" ht="30">
+    <row r="231" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="21" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B231" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D231" s="21"/>
       <c r="E231" s="21" t="s">
@@ -10409,15 +10424,15 @@
       <c r="I231" s="19"/>
       <c r="J231" s="19"/>
     </row>
-    <row r="232" spans="1:10" ht="45">
+    <row r="232" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="21" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B232" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D232" s="21"/>
       <c r="E232" s="21" t="s">
@@ -10435,15 +10450,15 @@
       <c r="I232" s="19"/>
       <c r="J232" s="19"/>
     </row>
-    <row r="233" spans="1:10" ht="45">
+    <row r="233" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="21" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B233" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D233" s="21"/>
       <c r="E233" s="21" t="s">
@@ -10461,15 +10476,15 @@
       <c r="I233" s="19"/>
       <c r="J233" s="19"/>
     </row>
-    <row r="234" spans="1:10" ht="45">
+    <row r="234" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="21" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B234" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D234" s="21"/>
       <c r="E234" s="21" t="s">
@@ -10487,15 +10502,15 @@
       <c r="I234" s="19"/>
       <c r="J234" s="19"/>
     </row>
-    <row r="235" spans="1:10" ht="45">
+    <row r="235" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B235" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D235" s="21"/>
       <c r="E235" s="21" t="s">
@@ -10513,15 +10528,15 @@
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
     </row>
-    <row r="236" spans="1:10" ht="45">
+    <row r="236" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="21" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B236" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D236" s="21"/>
       <c r="E236" s="21" t="s">
@@ -10539,15 +10554,15 @@
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
     </row>
-    <row r="237" spans="1:10" ht="45">
+    <row r="237" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="21" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B237" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C237" s="19" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D237" s="21"/>
       <c r="E237" s="21" t="s">
@@ -10565,15 +10580,15 @@
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
     </row>
-    <row r="238" spans="1:10" ht="45">
+    <row r="238" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="21" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B238" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C238" s="19" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D238" s="21"/>
       <c r="E238" s="21" t="s">
@@ -10591,15 +10606,15 @@
       <c r="I238" s="19"/>
       <c r="J238" s="19"/>
     </row>
-    <row r="239" spans="1:10" ht="30">
+    <row r="239" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="21" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B239" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D239" s="21"/>
       <c r="E239" s="21" t="s">
@@ -10617,15 +10632,15 @@
       <c r="I239" s="19"/>
       <c r="J239" s="19"/>
     </row>
-    <row r="240" spans="1:10" ht="45">
+    <row r="240" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="21" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B240" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D240" s="21"/>
       <c r="E240" s="21" t="s">
@@ -10643,15 +10658,15 @@
       <c r="I240" s="19"/>
       <c r="J240" s="19"/>
     </row>
-    <row r="241" spans="1:10" ht="45">
+    <row r="241" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="21" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B241" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D241" s="21"/>
       <c r="E241" s="21" t="s">
@@ -10669,15 +10684,15 @@
       <c r="I241" s="19"/>
       <c r="J241" s="19"/>
     </row>
-    <row r="242" spans="1:10" ht="45">
+    <row r="242" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="21" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B242" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C242" s="19" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D242" s="21"/>
       <c r="E242" s="21" t="s">
@@ -10695,15 +10710,15 @@
       <c r="I242" s="19"/>
       <c r="J242" s="19"/>
     </row>
-    <row r="243" spans="1:10" ht="30">
+    <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="21" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B243" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D243" s="21"/>
       <c r="E243" s="21" t="s">
@@ -10721,15 +10736,15 @@
       <c r="I243" s="19"/>
       <c r="J243" s="19"/>
     </row>
-    <row r="244" spans="1:10" ht="45">
+    <row r="244" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="21" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B244" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D244" s="21"/>
       <c r="E244" s="21" t="s">
@@ -10747,15 +10762,15 @@
       <c r="I244" s="19"/>
       <c r="J244" s="19"/>
     </row>
-    <row r="245" spans="1:10" ht="45">
+    <row r="245" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="21" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B245" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D245" s="21"/>
       <c r="E245" s="21" t="s">
@@ -10773,15 +10788,15 @@
       <c r="I245" s="19"/>
       <c r="J245" s="19"/>
     </row>
-    <row r="246" spans="1:10" ht="45">
+    <row r="246" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="21" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B246" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D246" s="21"/>
       <c r="E246" s="21" t="s">
@@ -10799,15 +10814,15 @@
       <c r="I246" s="19"/>
       <c r="J246" s="19"/>
     </row>
-    <row r="247" spans="1:10" ht="30">
+    <row r="247" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="21" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B247" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D247" s="21"/>
       <c r="E247" s="21" t="s">
@@ -10825,15 +10840,15 @@
       <c r="I247" s="19"/>
       <c r="J247" s="19"/>
     </row>
-    <row r="248" spans="1:10" ht="45">
+    <row r="248" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="21" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B248" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C248" s="19" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D248" s="21"/>
       <c r="E248" s="21" t="s">
@@ -10851,15 +10866,15 @@
       <c r="I248" s="19"/>
       <c r="J248" s="19"/>
     </row>
-    <row r="249" spans="1:10" ht="30">
+    <row r="249" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="21" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B249" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C249" s="19" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D249" s="21"/>
       <c r="E249" s="21" t="s">
@@ -10877,15 +10892,15 @@
       <c r="I249" s="19"/>
       <c r="J249" s="19"/>
     </row>
-    <row r="250" spans="1:10" ht="45">
+    <row r="250" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="21" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B250" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D250" s="21"/>
       <c r="E250" s="21" t="s">
@@ -10903,15 +10918,15 @@
       <c r="I250" s="19"/>
       <c r="J250" s="19"/>
     </row>
-    <row r="251" spans="1:10" ht="30">
+    <row r="251" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="21" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B251" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D251" s="21"/>
       <c r="E251" s="21" t="s">
@@ -10929,15 +10944,15 @@
       <c r="I251" s="19"/>
       <c r="J251" s="19"/>
     </row>
-    <row r="252" spans="1:10" ht="45">
+    <row r="252" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="21" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B252" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D252" s="21"/>
       <c r="E252" s="21" t="s">
@@ -10955,15 +10970,15 @@
       <c r="I252" s="19"/>
       <c r="J252" s="19"/>
     </row>
-    <row r="253" spans="1:10" ht="30">
+    <row r="253" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B253" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D253" s="21"/>
       <c r="E253" s="21" t="s">
@@ -10981,15 +10996,15 @@
       <c r="I253" s="19"/>
       <c r="J253" s="19"/>
     </row>
-    <row r="254" spans="1:10" ht="45">
+    <row r="254" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="21" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D254" s="21"/>
       <c r="E254" s="21" t="s">
@@ -11007,15 +11022,15 @@
       <c r="I254" s="19"/>
       <c r="J254" s="19"/>
     </row>
-    <row r="255" spans="1:10" ht="30">
+    <row r="255" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="21" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B255" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D255" s="21"/>
       <c r="E255" s="21" t="s">
@@ -11033,15 +11048,15 @@
       <c r="I255" s="19"/>
       <c r="J255" s="19"/>
     </row>
-    <row r="256" spans="1:10" ht="45">
+    <row r="256" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="21" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B256" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C256" s="19" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D256" s="21"/>
       <c r="E256" s="21" t="s">
@@ -11059,15 +11074,15 @@
       <c r="I256" s="19"/>
       <c r="J256" s="19"/>
     </row>
-    <row r="257" spans="1:10" ht="30">
+    <row r="257" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="21" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B257" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C257" s="19" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D257" s="21"/>
       <c r="E257" s="21" t="s">
@@ -11085,15 +11100,15 @@
       <c r="I257" s="19"/>
       <c r="J257" s="19"/>
     </row>
-    <row r="258" spans="1:10" ht="45">
+    <row r="258" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="21" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B258" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D258" s="21"/>
       <c r="E258" s="21" t="s">
@@ -11111,15 +11126,15 @@
       <c r="I258" s="19"/>
       <c r="J258" s="19"/>
     </row>
-    <row r="259" spans="1:10" ht="30">
+    <row r="259" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="21" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B259" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D259" s="21"/>
       <c r="E259" s="21" t="s">
@@ -11137,15 +11152,15 @@
       <c r="I259" s="19"/>
       <c r="J259" s="19"/>
     </row>
-    <row r="260" spans="1:10" ht="45">
+    <row r="260" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="21" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B260" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D260" s="21"/>
       <c r="E260" s="21" t="s">
@@ -11163,15 +11178,15 @@
       <c r="I260" s="19"/>
       <c r="J260" s="19"/>
     </row>
-    <row r="261" spans="1:10" ht="30">
+    <row r="261" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="21" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B261" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D261" s="21"/>
       <c r="E261" s="21" t="s">
@@ -11189,15 +11204,15 @@
       <c r="I261" s="19"/>
       <c r="J261" s="19"/>
     </row>
-    <row r="262" spans="1:10" ht="45">
+    <row r="262" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="21" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B262" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D262" s="21"/>
       <c r="E262" s="21" t="s">
@@ -11215,15 +11230,15 @@
       <c r="I262" s="19"/>
       <c r="J262" s="19"/>
     </row>
-    <row r="263" spans="1:10" ht="30">
+    <row r="263" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="21" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B263" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D263" s="21"/>
       <c r="E263" s="21" t="s">
@@ -11241,15 +11256,15 @@
       <c r="I263" s="19"/>
       <c r="J263" s="19"/>
     </row>
-    <row r="264" spans="1:10" ht="45">
+    <row r="264" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="21" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B264" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="D264" s="21"/>
       <c r="E264" s="21" t="s">
@@ -11267,15 +11282,15 @@
       <c r="I264" s="19"/>
       <c r="J264" s="19"/>
     </row>
-    <row r="265" spans="1:10" ht="45">
+    <row r="265" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="21" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B265" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D265" s="21"/>
       <c r="E265" s="21" t="s">
@@ -11293,15 +11308,15 @@
       <c r="I265" s="19"/>
       <c r="J265" s="19"/>
     </row>
-    <row r="266" spans="1:10" ht="45">
+    <row r="266" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A266" s="21" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B266" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="D266" s="21"/>
       <c r="E266" s="21" t="s">
@@ -11319,15 +11334,15 @@
       <c r="I266" s="19"/>
       <c r="J266" s="19"/>
     </row>
-    <row r="267" spans="1:10" ht="45">
+    <row r="267" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="21" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="D267" s="21"/>
       <c r="E267" s="21" t="s">
@@ -11345,15 +11360,15 @@
       <c r="I267" s="19"/>
       <c r="J267" s="19"/>
     </row>
-    <row r="268" spans="1:10" ht="45">
+    <row r="268" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="21" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B268" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="D268" s="21"/>
       <c r="E268" s="21" t="s">
@@ -11371,15 +11386,15 @@
       <c r="I268" s="19"/>
       <c r="J268" s="19"/>
     </row>
-    <row r="269" spans="1:10" ht="45">
+    <row r="269" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="21" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B269" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D269" s="21"/>
       <c r="E269" s="21" t="s">
@@ -11397,15 +11412,15 @@
       <c r="I269" s="19"/>
       <c r="J269" s="19"/>
     </row>
-    <row r="270" spans="1:10" ht="45">
+    <row r="270" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="21" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B270" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D270" s="21"/>
       <c r="E270" s="21" t="s">
@@ -11423,15 +11438,15 @@
       <c r="I270" s="19"/>
       <c r="J270" s="19"/>
     </row>
-    <row r="271" spans="1:10" ht="45">
+    <row r="271" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" s="21" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B271" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D271" s="21"/>
       <c r="E271" s="21" t="s">
@@ -11449,15 +11464,15 @@
       <c r="I271" s="19"/>
       <c r="J271" s="19"/>
     </row>
-    <row r="272" spans="1:10" ht="45">
+    <row r="272" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="21" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B272" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D272" s="21"/>
       <c r="E272" s="21" t="s">
@@ -11475,15 +11490,15 @@
       <c r="I272" s="19"/>
       <c r="J272" s="19"/>
     </row>
-    <row r="273" spans="1:10" ht="45">
+    <row r="273" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" s="21" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B273" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C273" s="19" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="D273" s="21"/>
       <c r="E273" s="21" t="s">
@@ -11501,15 +11516,15 @@
       <c r="I273" s="19"/>
       <c r="J273" s="19"/>
     </row>
-    <row r="274" spans="1:10" ht="45">
+    <row r="274" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="21" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D274" s="21"/>
       <c r="E274" s="21" t="s">
@@ -11527,15 +11542,15 @@
       <c r="I274" s="19"/>
       <c r="J274" s="19"/>
     </row>
-    <row r="275" spans="1:10" ht="45">
+    <row r="275" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" s="21" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B275" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C275" s="19" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D275" s="21"/>
       <c r="E275" s="21" t="s">
@@ -11553,15 +11568,15 @@
       <c r="I275" s="19"/>
       <c r="J275" s="19"/>
     </row>
-    <row r="276" spans="1:10" ht="45">
+    <row r="276" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="21" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B276" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D276" s="21"/>
       <c r="E276" s="21" t="s">
@@ -11579,15 +11594,15 @@
       <c r="I276" s="19"/>
       <c r="J276" s="19"/>
     </row>
-    <row r="277" spans="1:10" ht="45">
+    <row r="277" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A277" s="21" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B277" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="D277" s="21"/>
       <c r="E277" s="21" t="s">
@@ -11605,15 +11620,15 @@
       <c r="I277" s="19"/>
       <c r="J277" s="19"/>
     </row>
-    <row r="278" spans="1:10" ht="45">
+    <row r="278" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A278" s="21" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B278" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="D278" s="21"/>
       <c r="E278" s="21" t="s">
@@ -11629,19 +11644,19 @@
         <v>17</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="J278" s="19"/>
     </row>
-    <row r="279" spans="1:10" ht="45">
+    <row r="279" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" s="21" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="D279" s="21"/>
       <c r="E279" s="21" t="s">
@@ -11659,15 +11674,15 @@
       <c r="I279" s="19"/>
       <c r="J279" s="19"/>
     </row>
-    <row r="280" spans="1:10" ht="45">
+    <row r="280" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A280" s="21" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B280" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="D280" s="21"/>
       <c r="E280" s="21" t="s">
@@ -11683,19 +11698,19 @@
         <v>17</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="J280" s="19"/>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="21" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B281" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="D281" s="21"/>
       <c r="E281" s="21" t="s">
@@ -11713,15 +11728,15 @@
       <c r="I281" s="19"/>
       <c r="J281" s="19"/>
     </row>
-    <row r="282" spans="1:10" ht="45">
+    <row r="282" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" s="21" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="B282" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C282" s="39" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="D282" s="31"/>
       <c r="E282" s="21" t="s">
@@ -11739,15 +11754,15 @@
       <c r="I282" s="38"/>
       <c r="J282" s="19"/>
     </row>
-    <row r="283" spans="1:10" ht="45">
+    <row r="283" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A283" s="21" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B283" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D283" s="21"/>
       <c r="E283" s="21" t="s">
@@ -11765,15 +11780,15 @@
       <c r="I283" s="19"/>
       <c r="J283" s="19"/>
     </row>
-    <row r="284" spans="1:10" ht="45">
+    <row r="284" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="21" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="D284" s="21"/>
       <c r="E284" s="21" t="s">
@@ -11791,15 +11806,15 @@
       <c r="I284" s="19"/>
       <c r="J284" s="19"/>
     </row>
-    <row r="285" spans="1:10" ht="45">
+    <row r="285" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="21" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C285" s="19" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D285" s="21"/>
       <c r="E285" s="21" t="s">
@@ -11817,15 +11832,15 @@
       <c r="I285" s="19"/>
       <c r="J285" s="19"/>
     </row>
-    <row r="286" spans="1:10" ht="45">
+    <row r="286" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" s="21" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B286" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C286" s="19" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D286" s="21"/>
       <c r="E286" s="21" t="s">
@@ -11843,15 +11858,15 @@
       <c r="I286" s="19"/>
       <c r="J286" s="19"/>
     </row>
-    <row r="287" spans="1:10" ht="45">
+    <row r="287" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" s="21" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B287" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D287" s="21"/>
       <c r="E287" s="21" t="s">
@@ -11869,15 +11884,15 @@
       <c r="I287" s="19"/>
       <c r="J287" s="19"/>
     </row>
-    <row r="288" spans="1:10" ht="45">
+    <row r="288" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A288" s="21" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B288" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="D288" s="21"/>
       <c r="E288" s="21" t="s">
@@ -11895,15 +11910,15 @@
       <c r="I288" s="19"/>
       <c r="J288" s="19"/>
     </row>
-    <row r="289" spans="1:10" ht="45">
+    <row r="289" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="21" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B289" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D289" s="21"/>
       <c r="E289" s="21" t="s">
@@ -11921,15 +11936,15 @@
       <c r="I289" s="19"/>
       <c r="J289" s="19"/>
     </row>
-    <row r="290" spans="1:10" ht="45">
+    <row r="290" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="21" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="B290" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D290" s="21"/>
       <c r="E290" s="21" t="s">
@@ -11947,15 +11962,15 @@
       <c r="I290" s="19"/>
       <c r="J290" s="19"/>
     </row>
-    <row r="291" spans="1:10" ht="45">
+    <row r="291" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="21" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B291" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D291" s="21"/>
       <c r="E291" s="21" t="s">
@@ -11973,15 +11988,15 @@
       <c r="I291" s="19"/>
       <c r="J291" s="19"/>
     </row>
-    <row r="292" spans="1:10" s="33" customFormat="1" ht="45">
+    <row r="292" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A292" s="21" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="B292" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="D292" s="21"/>
       <c r="E292" s="21" t="s">
@@ -11999,15 +12014,15 @@
       <c r="I292" s="22"/>
       <c r="J292" s="19"/>
     </row>
-    <row r="293" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="293" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A293" s="21" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="B293" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="D293" s="21"/>
       <c r="E293" s="21" t="s">
@@ -12025,15 +12040,15 @@
       <c r="I293" s="22"/>
       <c r="J293" s="19"/>
     </row>
-    <row r="294" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="294" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A294" s="21" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="B294" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C294" s="19" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D294" s="21"/>
       <c r="E294" s="21" t="s">
@@ -12051,15 +12066,15 @@
       <c r="I294" s="22"/>
       <c r="J294" s="19"/>
     </row>
-    <row r="295" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="295" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A295" s="21" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="B295" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="D295" s="21"/>
       <c r="E295" s="21" t="s">
@@ -12077,15 +12092,15 @@
       <c r="I295" s="22"/>
       <c r="J295" s="19"/>
     </row>
-    <row r="296" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="296" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A296" s="21" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="B296" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="D296" s="21"/>
       <c r="E296" s="21" t="s">
@@ -12103,15 +12118,15 @@
       <c r="I296" s="22"/>
       <c r="J296" s="19"/>
     </row>
-    <row r="297" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="297" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A297" s="21" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="B297" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="D297" s="21"/>
       <c r="E297" s="21" t="s">
@@ -12129,15 +12144,15 @@
       <c r="I297" s="22"/>
       <c r="J297" s="19"/>
     </row>
-    <row r="298" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="298" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A298" s="21" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="B298" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="D298" s="21"/>
       <c r="E298" s="21" t="s">
@@ -12155,15 +12170,15 @@
       <c r="I298" s="22"/>
       <c r="J298" s="19"/>
     </row>
-    <row r="299" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="299" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A299" s="21" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="B299" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C299" s="19" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="D299" s="21"/>
       <c r="E299" s="21" t="s">
@@ -12181,15 +12196,15 @@
       <c r="I299" s="22"/>
       <c r="J299" s="19"/>
     </row>
-    <row r="300" spans="1:10" s="33" customFormat="1" ht="30">
+    <row r="300" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A300" s="21" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="B300" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="D300" s="21"/>
       <c r="E300" s="21" t="s">
@@ -12207,15 +12222,15 @@
       <c r="I300" s="22"/>
       <c r="J300" s="19"/>
     </row>
-    <row r="301" spans="1:10" s="33" customFormat="1" ht="45">
+    <row r="301" spans="1:10" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A301" s="21" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="B301" s="22" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="D301" s="21"/>
       <c r="E301" s="21" t="s">
@@ -12233,15 +12248,15 @@
       <c r="I301" s="22"/>
       <c r="J301" s="19"/>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="21" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="B302" s="22" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="D302" s="21"/>
       <c r="E302" s="21" t="s">
@@ -12259,15 +12274,15 @@
       <c r="I302" s="19"/>
       <c r="J302" s="19"/>
     </row>
-    <row r="303" spans="1:10" ht="75">
+    <row r="303" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A303" s="21" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="B303" s="22" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C303" s="19" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="D303" s="21"/>
       <c r="E303" s="21" t="s">
@@ -12285,15 +12300,15 @@
       <c r="I303" s="19"/>
       <c r="J303" s="19"/>
     </row>
-    <row r="304" spans="1:10" ht="30">
+    <row r="304" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="21" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B304" s="22" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="D304" s="21"/>
       <c r="E304" s="21" t="s">
@@ -12311,15 +12326,15 @@
       <c r="I304" s="19"/>
       <c r="J304" s="19"/>
     </row>
-    <row r="305" spans="1:10" ht="30">
+    <row r="305" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="21" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B305" s="22" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D305" s="21"/>
       <c r="E305" s="21" t="s">
@@ -12337,15 +12352,15 @@
       <c r="I305" s="19"/>
       <c r="J305" s="19"/>
     </row>
-    <row r="306" spans="1:10" ht="30">
+    <row r="306" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="21" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B306" s="22" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="D306" s="21"/>
       <c r="E306" s="21" t="s">
@@ -12363,15 +12378,15 @@
       <c r="I306" s="19"/>
       <c r="J306" s="19"/>
     </row>
-    <row r="307" spans="1:10" ht="30">
+    <row r="307" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="21" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B307" s="22" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="D307" s="21"/>
       <c r="E307" s="21" t="s">
@@ -12389,15 +12404,15 @@
       <c r="I307" s="19"/>
       <c r="J307" s="19"/>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="21" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B308" s="22" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="D308" s="21"/>
       <c r="E308" s="21" t="s">
@@ -12415,15 +12430,15 @@
       <c r="I308" s="19"/>
       <c r="J308" s="19"/>
     </row>
-    <row r="309" spans="1:10" ht="30">
+    <row r="309" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="21" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B309" s="22" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C309" s="19" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="D309" s="21"/>
       <c r="E309" s="21" t="s">
@@ -12441,15 +12456,15 @@
       <c r="I309" s="19"/>
       <c r="J309" s="19"/>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="21" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B310" s="22" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D310" s="21"/>
       <c r="E310" s="21" t="s">
@@ -12467,15 +12482,15 @@
       <c r="I310" s="19"/>
       <c r="J310" s="19"/>
     </row>
-    <row r="311" spans="1:10" ht="30">
+    <row r="311" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="21" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B311" s="22" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="D311" s="21"/>
       <c r="E311" s="21" t="s">
@@ -12493,15 +12508,15 @@
       <c r="I311" s="19"/>
       <c r="J311" s="19"/>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="21" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B312" s="22" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="C312" s="19" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D312" s="21"/>
       <c r="E312" s="21" t="s">
@@ -12519,15 +12534,15 @@
       <c r="I312" s="19"/>
       <c r="J312" s="19"/>
     </row>
-    <row r="313" spans="1:10" ht="30">
+    <row r="313" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="21" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B313" s="22" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D313" s="21"/>
       <c r="E313" s="21" t="s">
@@ -12545,15 +12560,15 @@
       <c r="I313" s="19"/>
       <c r="J313" s="19"/>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="21" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B314" s="22" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D314" s="21"/>
       <c r="E314" s="21" t="s">
@@ -12571,15 +12586,15 @@
       <c r="I314" s="19"/>
       <c r="J314" s="19"/>
     </row>
-    <row r="315" spans="1:10" ht="30">
+    <row r="315" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="21" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B315" s="22" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C315" s="19" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="D315" s="21"/>
       <c r="E315" s="21" t="s">
@@ -12597,15 +12612,15 @@
       <c r="I315" s="19"/>
       <c r="J315" s="19"/>
     </row>
-    <row r="316" spans="1:10" ht="30">
+    <row r="316" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="21" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B316" s="22" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C316" s="19" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="D316" s="21"/>
       <c r="E316" s="21" t="s">
@@ -12623,15 +12638,15 @@
       <c r="I316" s="19"/>
       <c r="J316" s="19"/>
     </row>
-    <row r="317" spans="1:10" ht="135">
+    <row r="317" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A317" s="21" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B317" s="22" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C317" s="19" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="D317" s="21"/>
       <c r="E317" s="21" t="s">
@@ -12649,15 +12664,15 @@
       <c r="I317" s="19"/>
       <c r="J317" s="19"/>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="21" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B318" s="22" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C318" s="19" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="D318" s="21"/>
       <c r="E318" s="21" t="s">
@@ -12675,15 +12690,15 @@
       <c r="I318" s="19"/>
       <c r="J318" s="19"/>
     </row>
-    <row r="319" spans="1:10" ht="30">
+    <row r="319" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="21" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B319" s="22" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C319" s="19" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="D319" s="21"/>
       <c r="E319" s="21" t="s">
@@ -12699,22 +12714,22 @@
         <v>17</v>
       </c>
       <c r="I319" s="19" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="J319" s="19"/>
     </row>
-    <row r="320" spans="1:10" ht="45">
+    <row r="320" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="21" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B320" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="C320" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="D320" s="21" t="s">
         <v>628</v>
-      </c>
-      <c r="C320" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="D320" s="21" t="s">
-        <v>638</v>
       </c>
       <c r="E320" s="21" t="s">
         <v>19</v>
@@ -12731,15 +12746,15 @@
       <c r="I320" s="19"/>
       <c r="J320" s="19"/>
     </row>
-    <row r="321" spans="1:10" ht="30">
+    <row r="321" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="21" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B321" s="22" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C321" s="19" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="D321" s="21"/>
       <c r="E321" s="21" t="s">
@@ -12757,15 +12772,15 @@
       <c r="I321" s="19"/>
       <c r="J321" s="19"/>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="21" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B322" s="22" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C322" s="19" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D322" s="21"/>
       <c r="E322" s="21" t="s">
@@ -12783,15 +12798,15 @@
       <c r="I322" s="19"/>
       <c r="J322" s="19"/>
     </row>
-    <row r="323" spans="1:10" ht="30">
+    <row r="323" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="21" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B323" s="22" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C323" s="19" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D323" s="21"/>
       <c r="E323" s="21" t="s">
@@ -12809,15 +12824,15 @@
       <c r="I323" s="19"/>
       <c r="J323" s="19"/>
     </row>
-    <row r="324" spans="1:10" ht="30">
+    <row r="324" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="21" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="B324" s="22" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C324" s="19" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="D324" s="21"/>
       <c r="E324" s="21" t="s">
@@ -12835,15 +12850,15 @@
       <c r="I324" s="19"/>
       <c r="J324" s="19"/>
     </row>
-    <row r="325" spans="1:10" ht="195">
+    <row r="325" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A325" s="21" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B325" s="22" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C325" s="19" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="D325" s="21"/>
       <c r="E325" s="21" t="s">
@@ -12861,15 +12876,15 @@
       <c r="I325" s="19"/>
       <c r="J325" s="19"/>
     </row>
-    <row r="326" spans="1:10" ht="45">
+    <row r="326" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A326" s="21" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B326" s="22" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C326" s="19" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D326" s="21"/>
       <c r="E326" s="21" t="s">
@@ -12887,15 +12902,15 @@
       <c r="I326" s="19"/>
       <c r="J326" s="19"/>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="21" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="B327" s="22" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C327" s="19" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="D327" s="21"/>
       <c r="E327" s="21" t="s">
@@ -12913,15 +12928,15 @@
       <c r="I327" s="19"/>
       <c r="J327" s="19"/>
     </row>
-    <row r="328" spans="1:10" ht="45">
+    <row r="328" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="21" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="B328" s="22" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C328" s="19" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="D328" s="21"/>
       <c r="E328" s="21" t="s">
@@ -12939,15 +12954,15 @@
       <c r="I328" s="19"/>
       <c r="J328" s="19"/>
     </row>
-    <row r="329" spans="1:10" ht="30">
+    <row r="329" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="21" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="B329" s="22" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="D329" s="21"/>
       <c r="E329" s="21" t="s">
@@ -12965,15 +12980,15 @@
       <c r="I329" s="19"/>
       <c r="J329" s="19"/>
     </row>
-    <row r="330" spans="1:10" ht="60">
+    <row r="330" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A330" s="21" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B330" s="22" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C330" s="19" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="D330" s="21"/>
       <c r="E330" s="21" t="s">
@@ -12991,15 +13006,15 @@
       <c r="I330" s="19"/>
       <c r="J330" s="19"/>
     </row>
-    <row r="331" spans="1:10" ht="30">
+    <row r="331" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="21" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="B331" s="22" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D331" s="21"/>
       <c r="E331" s="21" t="s">
@@ -13017,15 +13032,15 @@
       <c r="I331" s="19"/>
       <c r="J331" s="19"/>
     </row>
-    <row r="332" spans="1:10" ht="30">
+    <row r="332" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="21" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="B332" s="22" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C332" s="39" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="D332" s="31"/>
       <c r="E332" s="21" t="s">
@@ -13043,15 +13058,15 @@
       <c r="I332" s="38"/>
       <c r="J332" s="19"/>
     </row>
-    <row r="333" spans="1:10" ht="30">
+    <row r="333" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="21" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="B333" s="22" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="C333" s="19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D333" s="21"/>
       <c r="E333" s="21" t="s">
@@ -13069,15 +13084,15 @@
       <c r="I333" s="19"/>
       <c r="J333" s="19"/>
     </row>
-    <row r="334" spans="1:10" ht="30">
+    <row r="334" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="21" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B334" s="22" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="D334" s="21"/>
       <c r="E334" s="21" t="s">
@@ -13095,15 +13110,15 @@
       <c r="I334" s="19"/>
       <c r="J334" s="19"/>
     </row>
-    <row r="335" spans="1:10" ht="30">
+    <row r="335" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="21" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="B335" s="22" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="C335" s="19" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="D335" s="21"/>
       <c r="E335" s="21" t="s">
@@ -13121,15 +13136,15 @@
       <c r="I335" s="19"/>
       <c r="J335" s="19"/>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="21" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B336" s="22" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C336" s="19" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="D336" s="21"/>
       <c r="E336" s="21" t="s">
@@ -13147,15 +13162,15 @@
       <c r="I336" s="19"/>
       <c r="J336" s="19"/>
     </row>
-    <row r="337" spans="1:10" ht="30">
+    <row r="337" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="21" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B337" s="22" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C337" s="19" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="D337" s="21"/>
       <c r="E337" s="21" t="s">
@@ -13173,15 +13188,15 @@
       <c r="I337" s="19"/>
       <c r="J337" s="19"/>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="21" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B338" s="22" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="D338" s="21"/>
       <c r="E338" s="21" t="s">
@@ -13199,15 +13214,15 @@
       <c r="I338" s="19"/>
       <c r="J338" s="19"/>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="21" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="B339" s="22" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="C339" s="19" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="D339" s="21"/>
       <c r="E339" s="21" t="s">
@@ -13225,15 +13240,15 @@
       <c r="I339" s="19"/>
       <c r="J339" s="19"/>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="21" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B340" s="22" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="C340" s="19" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="D340" s="21"/>
       <c r="E340" s="21" t="s">
@@ -13251,15 +13266,15 @@
       <c r="I340" s="19"/>
       <c r="J340" s="19"/>
     </row>
-    <row r="341" spans="1:10" ht="30">
+    <row r="341" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="21" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="B341" s="22" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C341" s="19" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D341" s="21"/>
       <c r="E341" s="21" t="s">
@@ -13277,15 +13292,15 @@
       <c r="I341" s="19"/>
       <c r="J341" s="19"/>
     </row>
-    <row r="342" spans="1:10" ht="30">
+    <row r="342" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="21" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="B342" s="22" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C342" s="19" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="D342" s="21"/>
       <c r="E342" s="21" t="s">
@@ -13303,15 +13318,15 @@
       <c r="I342" s="19"/>
       <c r="J342" s="19"/>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="21" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="B343" s="22" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C343" s="19" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="D343" s="21"/>
       <c r="E343" s="21" t="s">
@@ -13329,15 +13344,15 @@
       <c r="I343" s="19"/>
       <c r="J343" s="19"/>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="21" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="B344" s="22" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C344" s="19" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="D344" s="21"/>
       <c r="E344" s="21" t="s">
@@ -13355,15 +13370,15 @@
       <c r="I344" s="19"/>
       <c r="J344" s="19"/>
     </row>
-    <row r="345" spans="1:10" ht="225">
+    <row r="345" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A345" s="21" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B345" s="22" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C345" s="19" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="D345" s="21"/>
       <c r="E345" s="21" t="s">
@@ -13381,15 +13396,15 @@
       <c r="I345" s="19"/>
       <c r="J345" s="19"/>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="21" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C346" s="19" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="D346" s="21"/>
       <c r="E346" s="21" t="s">
@@ -13407,15 +13422,15 @@
       <c r="I346" s="19"/>
       <c r="J346" s="19"/>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="21" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B347" s="22" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C347" s="19" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="D347" s="21"/>
       <c r="E347" s="21" t="s">
@@ -13433,15 +13448,15 @@
       <c r="I347" s="19"/>
       <c r="J347" s="19"/>
     </row>
-    <row r="348" spans="1:10" ht="30">
+    <row r="348" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="21" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="B348" s="22" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C348" s="19" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="D348" s="21"/>
       <c r="E348" s="21" t="s">
@@ -13459,15 +13474,15 @@
       <c r="I348" s="19"/>
       <c r="J348" s="19"/>
     </row>
-    <row r="349" spans="1:10" ht="30">
+    <row r="349" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="21" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="B349" s="22" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C349" s="19" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="D349" s="21"/>
       <c r="E349" s="21" t="s">
@@ -13485,15 +13500,15 @@
       <c r="I349" s="19"/>
       <c r="J349" s="19"/>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="21" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B350" s="22" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C350" s="19" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="D350" s="21"/>
       <c r="E350" s="21" t="s">
@@ -13511,15 +13526,15 @@
       <c r="I350" s="19"/>
       <c r="J350" s="19"/>
     </row>
-    <row r="351" spans="1:10" ht="30">
+    <row r="351" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="21" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="B351" s="22" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C351" s="19" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="D351" s="21"/>
       <c r="E351" s="21" t="s">
@@ -13537,15 +13552,15 @@
       <c r="I351" s="19"/>
       <c r="J351" s="19"/>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="21" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="B352" s="22" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C352" s="39" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="D352" s="31"/>
       <c r="E352" s="31" t="s">
@@ -13563,15 +13578,15 @@
       <c r="I352" s="38"/>
       <c r="J352" s="19"/>
     </row>
-    <row r="353" spans="1:10" ht="30">
+    <row r="353" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="21" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B353" s="22" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C353" s="19" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="D353" s="21"/>
       <c r="E353" s="21" t="s">
@@ -13589,15 +13604,15 @@
       <c r="I353" s="19"/>
       <c r="J353" s="19"/>
     </row>
-    <row r="354" spans="1:10" ht="120">
+    <row r="354" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A354" s="21" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="B354" s="22" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C354" s="19" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="D354" s="21"/>
       <c r="E354" s="21" t="s">
@@ -13615,15 +13630,15 @@
       <c r="I354" s="19"/>
       <c r="J354" s="19"/>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="21" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="B355" s="22" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C355" s="19" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="D355" s="21"/>
       <c r="E355" s="21" t="s">
@@ -13641,15 +13656,15 @@
       <c r="I355" s="19"/>
       <c r="J355" s="19"/>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="21" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="B356" s="22" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C356" s="19" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D356" s="21"/>
       <c r="E356" s="21" t="s">
@@ -13667,7 +13682,7 @@
       <c r="I356" s="19"/>
       <c r="J356" s="19"/>
     </row>
-    <row r="357" spans="1:10" s="33" customFormat="1" ht="45">
+    <row r="357" spans="1:10" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A357" s="21" t="s">
         <v>46</v>
       </c>
@@ -13675,7 +13690,7 @@
         <v>7</v>
       </c>
       <c r="C357" s="19" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="D357" s="21" t="s">
         <v>47</v>
@@ -13693,22 +13708,22 @@
         <v>21</v>
       </c>
       <c r="I357" s="19" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="J357" s="22"/>
     </row>
-    <row r="358" spans="1:10" ht="45">
+    <row r="358" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A358" s="21" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B358" s="35">
         <v>7</v>
       </c>
       <c r="C358" s="19" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="D358" s="21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E358" s="21" t="s">
         <v>22</v>
@@ -13723,19 +13738,19 @@
         <v>21</v>
       </c>
       <c r="I358" s="19" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="J358" s="19"/>
     </row>
-    <row r="359" spans="1:10" ht="45">
+    <row r="359" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A359" s="21" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="B359" s="35">
         <v>7</v>
       </c>
       <c r="C359" s="19" t="s">
-        <v>709</v>
+        <v>830</v>
       </c>
       <c r="D359" s="21"/>
       <c r="E359" s="21" t="s">
@@ -13753,15 +13768,15 @@
       <c r="I359" s="19"/>
       <c r="J359" s="19"/>
     </row>
-    <row r="360" spans="1:10" ht="30">
+    <row r="360" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="21" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="B360" s="35">
         <v>7</v>
       </c>
       <c r="C360" s="19" t="s">
-        <v>711</v>
+        <v>831</v>
       </c>
       <c r="D360" s="21"/>
       <c r="E360" s="21" t="s">
@@ -13779,15 +13794,15 @@
       <c r="I360" s="19"/>
       <c r="J360" s="19"/>
     </row>
-    <row r="361" spans="1:10" ht="45">
+    <row r="361" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="21" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="B361" s="35">
         <v>7</v>
       </c>
       <c r="C361" s="19" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="D361" s="21"/>
       <c r="E361" s="21" t="s">
@@ -13805,15 +13820,15 @@
       <c r="I361" s="19"/>
       <c r="J361" s="19"/>
     </row>
-    <row r="362" spans="1:10" ht="45">
+    <row r="362" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A362" s="21" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B362" s="35">
         <v>7</v>
       </c>
       <c r="C362" s="19" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="D362" s="21"/>
       <c r="E362" s="21" t="s">
@@ -13831,15 +13846,15 @@
       <c r="I362" s="19"/>
       <c r="J362" s="19"/>
     </row>
-    <row r="363" spans="1:10" ht="60">
+    <row r="363" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A363" s="21" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B363" s="35">
         <v>7</v>
       </c>
       <c r="C363" s="19" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="D363" s="21"/>
       <c r="E363" s="21" t="s">
@@ -13857,15 +13872,15 @@
       <c r="I363" s="19"/>
       <c r="J363" s="19"/>
     </row>
-    <row r="364" spans="1:10" ht="45">
+    <row r="364" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A364" s="21" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="B364" s="35">
         <v>7</v>
       </c>
       <c r="C364" s="19" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="D364" s="21"/>
       <c r="E364" s="21" t="s">
@@ -13883,15 +13898,15 @@
       <c r="I364" s="19"/>
       <c r="J364" s="19"/>
     </row>
-    <row r="365" spans="1:10" ht="45">
+    <row r="365" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A365" s="21" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="B365" s="35">
         <v>7</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="D365" s="21"/>
       <c r="E365" s="21" t="s">
@@ -13909,15 +13924,15 @@
       <c r="I365" s="19"/>
       <c r="J365" s="19"/>
     </row>
-    <row r="366" spans="1:10" ht="45">
+    <row r="366" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A366" s="21" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B366" s="35">
         <v>7</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="D366" s="21"/>
       <c r="E366" s="21" t="s">
@@ -13935,15 +13950,15 @@
       <c r="I366" s="19"/>
       <c r="J366" s="19"/>
     </row>
-    <row r="367" spans="1:10" ht="45">
+    <row r="367" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A367" s="21" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="B367" s="35">
         <v>7</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="D367" s="21"/>
       <c r="E367" s="21" t="s">
@@ -13961,18 +13976,18 @@
       <c r="I367" s="19"/>
       <c r="J367" s="19"/>
     </row>
-    <row r="368" spans="1:10" ht="45">
+    <row r="368" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A368" s="21" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="B368" s="35">
         <v>7</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="D368" s="21" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="E368" s="21" t="s">
         <v>22</v>
@@ -13989,18 +14004,18 @@
       <c r="I368" s="19"/>
       <c r="J368" s="19"/>
     </row>
-    <row r="369" spans="1:11" ht="45">
+    <row r="369" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" s="21" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="B369" s="35">
         <v>7</v>
       </c>
       <c r="C369" s="19" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="D369" s="21" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="E369" s="21" t="s">
         <v>22</v>
@@ -14015,22 +14030,22 @@
         <v>21</v>
       </c>
       <c r="I369" s="19" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="J369" s="19"/>
     </row>
-    <row r="370" spans="1:11" ht="45">
+    <row r="370" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" s="21" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="B370" s="35">
         <v>7</v>
       </c>
       <c r="C370" s="19" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="D370" s="21" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="E370" s="21" t="s">
         <v>22</v>
@@ -14045,22 +14060,22 @@
         <v>21</v>
       </c>
       <c r="I370" s="19" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="J370" s="19"/>
     </row>
-    <row r="371" spans="1:11" ht="45">
+    <row r="371" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A371" s="21" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="B371" s="35">
         <v>7</v>
       </c>
       <c r="C371" s="19" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="D371" s="21" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="E371" s="21" t="s">
         <v>22</v>
@@ -14075,22 +14090,22 @@
         <v>21</v>
       </c>
       <c r="I371" s="19" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="J371" s="19"/>
     </row>
-    <row r="372" spans="1:11" ht="45">
+    <row r="372" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A372" s="21" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="B372" s="35">
         <v>7</v>
       </c>
       <c r="C372" s="19" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="D372" s="21" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="E372" s="21" t="s">
         <v>22</v>
@@ -14105,22 +14120,22 @@
         <v>21</v>
       </c>
       <c r="I372" s="19" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="J372" s="19"/>
     </row>
-    <row r="373" spans="1:11" ht="45">
+    <row r="373" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="21" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="B373" s="35">
         <v>7</v>
       </c>
       <c r="C373" s="19" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="D373" s="21" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="E373" s="21" t="s">
         <v>22</v>
@@ -14135,19 +14150,19 @@
         <v>21</v>
       </c>
       <c r="I373" s="19" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="J373" s="19"/>
     </row>
-    <row r="374" spans="1:11" customFormat="1" ht="30">
+    <row r="374" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A374" s="27" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="B374" s="34">
         <v>2.4</v>
       </c>
       <c r="C374" s="29" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="D374" s="28"/>
       <c r="E374" s="27" t="s">
@@ -14166,15 +14181,15 @@
       <c r="J374" s="37"/>
       <c r="K374" s="37"/>
     </row>
-    <row r="375" spans="1:11" customFormat="1" ht="285">
+    <row r="375" spans="1:11" customFormat="1" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A375" s="27" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="B375" s="34">
         <v>2.4</v>
       </c>
       <c r="C375" s="29" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="D375" s="28"/>
       <c r="E375" s="27" t="s">
@@ -14193,15 +14208,15 @@
       <c r="J375" s="37"/>
       <c r="K375" s="37"/>
     </row>
-    <row r="376" spans="1:11" customFormat="1">
+    <row r="376" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A376" s="27" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="B376" s="34">
         <v>2.4</v>
       </c>
       <c r="C376" s="29" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="D376" s="28"/>
       <c r="E376" s="27" t="s">
@@ -14220,15 +14235,15 @@
       <c r="J376" s="37"/>
       <c r="K376" s="37"/>
     </row>
-    <row r="377" spans="1:11" customFormat="1" ht="30">
+    <row r="377" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A377" s="27" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="B377" s="34">
         <v>2.4</v>
       </c>
       <c r="C377" s="29" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="D377" s="28"/>
       <c r="E377" s="27" t="s">
@@ -14247,15 +14262,15 @@
       <c r="J377" s="37"/>
       <c r="K377" s="37"/>
     </row>
-    <row r="378" spans="1:11" customFormat="1">
+    <row r="378" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A378" s="27" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="B378" s="34">
         <v>2.4</v>
       </c>
       <c r="C378" s="29" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="D378" s="28"/>
       <c r="E378" s="27" t="s">
@@ -14274,15 +14289,15 @@
       <c r="J378" s="37"/>
       <c r="K378" s="37"/>
     </row>
-    <row r="379" spans="1:11" customFormat="1" ht="30">
+    <row r="379" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A379" s="27" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="B379" s="34">
         <v>2.4</v>
       </c>
       <c r="C379" s="29" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="D379" s="28"/>
       <c r="E379" s="27" t="s">
@@ -14301,15 +14316,15 @@
       <c r="J379" s="37"/>
       <c r="K379" s="37"/>
     </row>
-    <row r="380" spans="1:11" customFormat="1">
+    <row r="380" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A380" s="27" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="B380" s="34">
         <v>2.4</v>
       </c>
       <c r="C380" s="29" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="D380" s="28"/>
       <c r="E380" s="27" t="s">
@@ -14328,15 +14343,15 @@
       <c r="J380" s="37"/>
       <c r="K380" s="37"/>
     </row>
-    <row r="381" spans="1:11" customFormat="1">
+    <row r="381" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A381" s="27" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="B381" s="34">
         <v>2.4</v>
       </c>
       <c r="C381" s="29" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="D381" s="28"/>
       <c r="E381" s="27" t="s">
@@ -14355,15 +14370,15 @@
       <c r="J381" s="37"/>
       <c r="K381" s="37"/>
     </row>
-    <row r="382" spans="1:11" customFormat="1">
+    <row r="382" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A382" s="27" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="B382" s="34">
         <v>2.4</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="D382" s="28"/>
       <c r="E382" s="27" t="s">
@@ -14382,15 +14397,15 @@
       <c r="J382" s="37"/>
       <c r="K382" s="37"/>
     </row>
-    <row r="383" spans="1:11" s="31" customFormat="1" ht="30">
+    <row r="383" spans="1:11" s="31" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A383" s="27" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="B383" s="34">
         <v>2.4</v>
       </c>
       <c r="C383" s="29" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="D383" s="28"/>
       <c r="E383" s="27" t="s">
@@ -14407,16 +14422,21 @@
       </c>
       <c r="I383" s="30"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="9"/>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -14424,11 +14444,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A383:I383 A374:K382 A20:J60 I302:I356 I64:I291 J61:J357 A61:H357 A358:J373">
@@ -14618,23 +14633,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F291 F302:F373">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F291 F302:F373" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E383">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E383" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G383">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G383" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F292:F301 F374:F383">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F292:F301 F374:F383" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>$A$14:$A$16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H383">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H383" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14654,6 +14669,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -14702,12 +14723,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14718,6 +14733,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14732,20 +14761,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/SharePoint/Docs/MS-WWSP/MS-WWSP_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-WWSP/MS-WWSP_RequirementSpecification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanff\source\repos\MAPITEST-Interop-TestSuites\SharePoint\Docs\MS-WWSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98E75B5-487C-4A69-B4A9-4405F07ABECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C543DD-6DF7-464C-9AEE-BAEAAB5E11B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2868,9 +2868,6 @@
     <t>MS-WWSP_R418001</t>
   </si>
   <si>
-    <t>MS-WWSP_R418002</t>
-  </si>
-  <si>
     <t>[In Messages] ClaimReleaseTaskSoapIn specifies the request to claim or release a claim on a workflow task.</t>
   </si>
   <si>
@@ -3139,6 +3136,10 @@
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Unless otherwise specified, the term "MAY" implies that the product does not follow the prescription.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-WWSP_R418002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3420,6 +3421,21 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3443,21 +3459,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4594,10 +4595,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="20" style="10" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
@@ -4641,120 +4642,120 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
@@ -4766,12 +4767,12 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
@@ -4783,12 +4784,12 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
@@ -4800,12 +4801,12 @@
       <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -4817,57 +4818,57 @@
       <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:10" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -4960,7 +4961,7 @@
         <v>2.1</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21" t="s">
@@ -4986,7 +4987,7 @@
         <v>2.1</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21" t="s">
@@ -5012,7 +5013,7 @@
         <v>2.1</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21" t="s">
@@ -5064,7 +5065,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21" t="s">
@@ -5246,7 +5247,7 @@
         <v>55</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
@@ -5298,7 +5299,7 @@
         <v>55</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21" t="s">
@@ -5324,7 +5325,7 @@
         <v>55</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
@@ -6706,7 +6707,7 @@
         <v>32</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="21" t="s">
@@ -7170,7 +7171,7 @@
     </row>
     <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B107" s="22" t="s">
         <v>210</v>
@@ -7328,13 +7329,13 @@
     </row>
     <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>788</v>
+        <v>831</v>
       </c>
       <c r="B113" s="22" t="s">
         <v>210</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D113" s="31"/>
       <c r="E113" s="21" t="s">
@@ -7347,7 +7348,7 @@
         <v>15</v>
       </c>
       <c r="H113" s="31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I113" s="38"/>
       <c r="J113" s="19"/>
@@ -7360,7 +7361,7 @@
         <v>229</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D114" s="21"/>
       <c r="E114" s="21" t="s">
@@ -7542,7 +7543,7 @@
         <v>33</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D121" s="21"/>
       <c r="E121" s="21" t="s">
@@ -7646,7 +7647,7 @@
         <v>247</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D125" s="21"/>
       <c r="E125" s="21" t="s">
@@ -7672,7 +7673,7 @@
         <v>247</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D126" s="21"/>
       <c r="E126" s="21" t="s">
@@ -7854,7 +7855,7 @@
         <v>263</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D133" s="21"/>
       <c r="E133" s="21" t="s">
@@ -7880,7 +7881,7 @@
         <v>263</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D134" s="21"/>
       <c r="E134" s="21" t="s">
@@ -7932,7 +7933,7 @@
         <v>267</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D136" s="21"/>
       <c r="E136" s="21" t="s">
@@ -8326,7 +8327,7 @@
         <v>289</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D151" s="21"/>
       <c r="E151" s="21" t="s">
@@ -8924,7 +8925,7 @@
         <v>347</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D174" s="21"/>
       <c r="E174" s="21" t="s">
@@ -9444,7 +9445,7 @@
         <v>391</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D194" s="21"/>
       <c r="E194" s="21" t="s">
@@ -9990,7 +9991,7 @@
         <v>437</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D215" s="21"/>
       <c r="E215" s="21" t="s">
@@ -11628,7 +11629,7 @@
         <v>437</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D278" s="21"/>
       <c r="E278" s="21" t="s">
@@ -11682,7 +11683,7 @@
         <v>437</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D280" s="21"/>
       <c r="E280" s="21" t="s">
@@ -11730,13 +11731,13 @@
     </row>
     <row r="282" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B282" s="22" t="s">
         <v>437</v>
       </c>
       <c r="C282" s="39" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D282" s="31"/>
       <c r="E282" s="21" t="s">
@@ -12754,7 +12755,7 @@
         <v>618</v>
       </c>
       <c r="C321" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D321" s="21"/>
       <c r="E321" s="21" t="s">
@@ -12858,7 +12859,7 @@
         <v>635</v>
       </c>
       <c r="C325" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D325" s="21"/>
       <c r="E325" s="21" t="s">
@@ -13034,13 +13035,13 @@
     </row>
     <row r="332" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B332" s="22" t="s">
         <v>645</v>
       </c>
       <c r="C332" s="39" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D332" s="31"/>
       <c r="E332" s="21" t="s">
@@ -13534,7 +13535,7 @@
         <v>674</v>
       </c>
       <c r="C351" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D351" s="21"/>
       <c r="E351" s="21" t="s">
@@ -13554,13 +13555,13 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B352" s="22" t="s">
         <v>674</v>
       </c>
       <c r="C352" s="39" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D352" s="31"/>
       <c r="E352" s="31" t="s">
@@ -13750,7 +13751,7 @@
         <v>7</v>
       </c>
       <c r="C359" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D359" s="21"/>
       <c r="E359" s="21" t="s">
@@ -13776,7 +13777,7 @@
         <v>7</v>
       </c>
       <c r="C360" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D360" s="21"/>
       <c r="E360" s="21" t="s">
@@ -13802,7 +13803,7 @@
         <v>7</v>
       </c>
       <c r="C361" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D361" s="21"/>
       <c r="E361" s="21" t="s">
@@ -13828,7 +13829,7 @@
         <v>7</v>
       </c>
       <c r="C362" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D362" s="21"/>
       <c r="E362" s="21" t="s">
@@ -13854,7 +13855,7 @@
         <v>7</v>
       </c>
       <c r="C363" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D363" s="21"/>
       <c r="E363" s="21" t="s">
@@ -13880,7 +13881,7 @@
         <v>7</v>
       </c>
       <c r="C364" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D364" s="21"/>
       <c r="E364" s="21" t="s">
@@ -13906,7 +13907,7 @@
         <v>7</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D365" s="21"/>
       <c r="E365" s="21" t="s">
@@ -13958,7 +13959,7 @@
         <v>7</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D367" s="21"/>
       <c r="E367" s="21" t="s">
@@ -13984,7 +13985,7 @@
         <v>7</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D368" s="21" t="s">
         <v>767</v>
@@ -14042,7 +14043,7 @@
         <v>7</v>
       </c>
       <c r="C370" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D370" s="21" t="s">
         <v>768</v>
@@ -14102,7 +14103,7 @@
         <v>7</v>
       </c>
       <c r="C372" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D372" s="21" t="s">
         <v>769</v>
@@ -14432,11 +14433,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -14444,6 +14440,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A383:I383 A374:K382 A20:J60 I302:I356 I64:I291 J61:J357 A61:H357 A358:J373">
@@ -14669,9 +14670,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14724,24 +14728,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14762,9 +14757,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-WWSP/MS-WWSP_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-WWSP/MS-WWSP_RequirementSpecification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanff\source\repos\MAPITEST-Interop-TestSuites\SharePoint\Docs\MS-WWSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestSuit\code\Interop-TestSuites211116\SharePoint\Docs\MS-WWSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C543DD-6DF7-464C-9AEE-BAEAAB5E11B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B231E601-8C97-41FB-BF77-85B0077C2614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -747,15 +747,6 @@
     <t>MS-WWSP_R56</t>
   </si>
   <si>
-    <t>[In ToDoData][The ToDoData schema is:]  &lt;s:element name="ToDoData" &gt;
-  &lt;s:complexType&gt;
-    &lt;s:sequence&gt;
-      &lt;s:element name="xml" type="rs:data" minOccurs="0" maxOccurs="1" /&gt;
-    &lt;/s:sequence&gt;
-  &lt;/s:complexType&gt;
-&lt;/s:element&gt;</t>
-  </si>
-  <si>
     <t>MS-WWSP_R406</t>
   </si>
   <si>
@@ -1264,30 +1255,6 @@
     <t>MS-WWSP_R141</t>
   </si>
   <si>
-    <t>[In ClaimReleaseTaskResponse][The schema of the ClaimReleaseTaskResponse is:] &lt;s:element name="ClaimReleaseTaskResponse"&gt;
-  &lt;s:complexType&gt;
-    &lt;s:sequence&gt;
-      &lt;s:element name="ClaimReleaseTaskResult" minOccurs="1"&gt;
-        &lt;s:complexType mixed="true"&gt;
-          &lt;s:sequence&gt;
-            &lt;s:element name="TaskData" minOccurs="1" maxOccurs="1"&gt;
-              &lt;s:complexType&gt;
-                &lt;s:sequence&gt;
-                  &lt;s:attribute name="AssignedTo" type="s:string" use="required"&gt;
-                  &lt;s:attribute name="TaskGroup" type="s:string" use="required"&gt;
-                  &lt;s:attribute name="ItemId" type="s:int" use="required"&gt;
-                  &lt;s:attribute name="ListId" type="s1:guid" use="required"&gt;
-                &lt;/s:sequence&gt;
-              &lt;/s:complexType&gt;
-            &lt;/s:element&gt;
-          &lt;/s:sequence&gt;
-        &lt;/s:complexType&gt;
-      &lt;/s:element&gt;
-    &lt;/s:sequence&gt;
-  &lt;/s:complexType&gt;
-&lt;/s:element&gt;</t>
-  </si>
-  <si>
     <t>MS-WWSP_R142</t>
   </si>
   <si>
@@ -1383,9 +1350,6 @@
   </si>
   <si>
     <t>3.1.4.3.1.2</t>
-  </si>
-  <si>
-    <t>[In GetTemplatesForItemSoapOut] This message is the response to the GetTemplatesFromItem SOAP operation.</t>
   </si>
   <si>
     <t>MS-WWSP_R159</t>
@@ -2899,13 +2863,181 @@
     <t>[In ClaimReleaseTaskResponse] ClaimReleaseTaskResult.TaskData.TaskGroup: The group to whom this workflow task is now assigned.</t>
   </si>
   <si>
+    <t>[In GetWorkflowDataForItemResponse] GetWorkflowDataForItemResult.WorkflowData.ActiveWorkflowsData.Workflows.Workflow.ActivityDetails: &lt;3&gt;.</t>
+  </si>
+  <si>
+    <t>[In GetWorkflowDataForItemResponse] GetWorkflowDataForItemResult.WorkflowData.ActiveWorkflowsData.Workflows.Workflow.CorrelationId: &lt;4&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In GetWorkflowDataForItemResponse] GetWorkflowDataForItemResult.WorkflowData.ActiveWorkflowsData.Workflows.Workflow.InstanceData: The value is an empty string or GUID format if it is present. </t>
+  </si>
+  <si>
+    <t>MS-WWSP_R420001</t>
+  </si>
+  <si>
+    <t>[In GetWorkflowTaskData] If the site (2) of the SOAP request URL does not contain a list with the specified listId, item MUST be the site URL of the specified listId.</t>
+  </si>
+  <si>
+    <t>[In GetWorkflowTaskDataResponse][The schema of the GetWorkflowTaskDataResponse is:]  &lt;s:element name="GetWorkflowTaskDataResponse"&gt;
+   &lt;s:complexType&gt;
+     &lt;s:sequence&gt;
+       &lt;s:element name="GetWorkflowTaskDataResult" &gt;
+        &lt;s:complexType&gt;
+         &lt;s:sequence&gt;
+           &lt;s:any minOccurs="0" maxOccurs="unbounded" /&gt;
+         &lt;/s:sequence&gt;
+        &lt;/s:complexType&gt;      &lt;/s:element&gt;
+     &lt;/s:sequence&gt;
+   &lt;/s:complexType&gt;
+ &lt;/s:element&gt;</t>
+  </si>
+  <si>
+    <t>[In StartWorkflow] The protocol server MUST NOT start multiple workflow instances of the same item and same workflow association using this operation.</t>
+  </si>
+  <si>
+    <t>MS-WWSP_R327001</t>
+  </si>
+  <si>
+    <t>MS-WWSP_R348001</t>
+  </si>
+  <si>
+    <t>[In StartWorkflow] workflowParameters SHOULD NOT be null.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;1&gt; Section 2.2.3.1: The client looks for specific values in this element[WorkflowTemplates.WorkflowTemplate.Metadata.InitiationCategories] to determine whether to enable creation of a new workflow instance.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] If this element[InitiationCategories] contains "General", "Word.Application", "Word.Application.12" or "SigClientRequired", then Microsoft Word 2010 enables creation of a new workflow instance.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] If this element[WorkflowTemplates.WorkflowTemplate.Metadata.InitiationCategories] contains "General", "Excel.Application", "Excel.Application.12" or "SigClientRequired", then Microsoft Excel 2010 enables creation of a new workflow instance.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] If this element[InitiationCategories] contains "General", "InfoPath.Application", "InfoPath.Application.12" or "SigClientRequired", then Microsoft InfoPath 2010 enables creation of a new workflow instance.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] If this element[InitiationCategories] does not contain "SigClientRequired" and contains "General", "PowerPoint.Application", or "PowerPoint.Application.12", then Microsoft PowerPoint 2010 enables creation of a new workflow instance.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] If this element[InitiationCategories] does not contain "SigClientRequired" and contains "General", "Access.Application", or "Access.Application.12", then Microsoft Access 2010 enables creation of a new workflow instance.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not  support this[Instantiation_FormURI] element. [In Appendix B: Product Behavior] &lt;2&gt; Section 2.2.3.1:  Office SharePoint Server 2007 does not support this[Instantiation_FormURI] element.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not include this attribute[ActivityDetails]. [In Appendix B: Product Behavior] &lt;3&gt; Section 3.1.4.5.2.2:  Office SharePoint Server 2007 does not include this attribute[ActivityDetails].</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not include this attribute[CorrelationId]. [In Appendix B: Product Behavior] &lt;4&gt; Section 3.1.4.5.2.2:  Office SharePoint Server 2007 and SharePoint Server 2010 do not include this attribute[CorrelationId].</t>
+  </si>
+  <si>
+    <t>[In StartWorkflow] This element[workflowParameters] is considered vendor-extensible and is described in section 4.3.2.</t>
+  </si>
+  <si>
+    <t>[In Transport] Protocol messages MUST be formatted as specified in [SOAP1.1] section 4[, or [SOAP1.2-1/2007] section 5].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Transport] Protocol messages MUST be formatted as specified in [[SOAP1.1] section 4, or] [SOAP1.2-1/2007] section 5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Transport] Protocol server faults MUST be returned either using HTTP Status Codes as specified in [RFC2616] section 10 or using SOAP faults as specified in [SOAP1.1] section 4.4, or [SOAP1.2-1/2007] section 5.4, SOAP Fault.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Common Message Syntax] The syntax of the definitions uses XML schema, as specified in [XMLSCHEMA1/2] and [XMLSCHEMA2/2], and WSDL, as specified in [WSDL].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Namespaces] Perfix "soap12" is used for namespace URI: http://schemas.xmlsoap.org/wsdl/soap12/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Namespaces] Perfix "wsdl" is used for namespace URI:
+http://schemas.xmlsoap.org/wsdl/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Namespaces] Perfix "xsi" is used for namespace URI: http://www.w3.org/2001/XMLSchema-instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In AlterToDo] taskData: If taskData is not present, then the server will return a SOAP fault with error string "Value cannot be null. \nParameter name: taskData".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In AlterToDoResponse] This element is sent with AlterToDoSoapOut and specifies whether the AlterToDo operation was successful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In AlterToDo] This operation is used to modify the values of Fields on a workflow task.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-WWSP_R97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms "SHOULD" or "SHOULD NOT" implies product behavior in accordance with the "SHOULD" or "SHOULD NOT" prescription.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Unless otherwise specified, the term "MAY" implies that the product does not follow the prescription.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-WWSP_R418002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In ToDoData][The ToDoData schema is:]  &lt;s:element name="ToDoData" &gt;
+  &lt;s:complexType&gt;
+    &lt;s:sequence&gt;
+      &lt;s:element name="xml" minOccurs="0" maxOccurs="1"&gt;
+        &lt;s:complexType&gt;
+          &lt;s:sequence&gt;
+            &lt;s:element ref="rs:data" maxOccurs="1" /&gt;
+          &lt;/s:sequence&gt;
+        &lt;/s:complexType&gt;
+      &lt;/s:element&gt;
+    &lt;/s:sequence&gt;
+  &lt;/s:complexType&gt;
+&lt;/s:element&gt;</t>
+  </si>
+  <si>
+    <t>[In ClaimReleaseTaskResponse][The schema of the ClaimReleaseTaskResponse is:] &lt;s:element name="ClaimReleaseTaskResponse"&gt;
+  &lt;s:complexType&gt;
+    &lt;s:sequence&gt;
+      &lt;s:element name="ClaimReleaseTaskResult" minOccurs="1"&gt;
+        &lt;s:complexType mixed="true"&gt;
+          &lt;s:sequence&gt;
+            &lt;s:element name="TaskData" minOccurs="1" maxOccurs="1"&gt;
+              &lt;s:complexType&gt;
+                  &lt;s:attribute name="AssignedTo" type="s:string" use="required"&gt;
+                  &lt;s:attribute name="TaskGroup" type="s:string" use="required"&gt;
+                  &lt;s:attribute name="ItemId" type="s:int" use="required"&gt;
+                  &lt;s:attribute name="ListId" type="s1:guid" use="required"&gt;
+              &lt;/s:complexType&gt;
+            &lt;/s:element&gt;
+          &lt;/s:sequence&gt;
+        &lt;/s:complexType&gt;
+      &lt;/s:element&gt;
+    &lt;/s:sequence&gt;
+  &lt;/s:complexType&gt;
+&lt;/s:element&gt;</t>
+  </si>
+  <si>
+    <t>[In GetTemplatesForItemSoapOut] This message is the response to the GetTemplatesForItem SOAP operation.</t>
+  </si>
+  <si>
     <t>[In GetTemplatesForItemResponse][The schema of the GetTemplatesForItemResponse is :] &lt;s:element name="GetTemplatesForItemResponse"&gt;
   &lt;s:complexType&gt;
     &lt;s:sequence&gt;
       &lt;s:element name="GetTemplatesForItemResult" minOccurs="0"&gt;
         &lt;s:complexType mixed="true"&gt;
           &lt;s:sequence&gt;
-            &lt;s:element name="TemplateData" ref="tns:TemplateData" minOccurs="1" maxOccurs="1"/&gt;
+            &lt;s:element  ref="tns:TemplateData" minOccurs="1" maxOccurs="1"/&gt;
           &lt;/s:sequence&gt;
         &lt;/s:complexType&gt;
       &lt;/s:element&gt;
@@ -2920,7 +3052,7 @@
       &lt;s:element name="GetToDosForItemResult" minOccurs="0"&gt;
         &lt;s:complexType mixed="true"&gt;
           &lt;s:sequence&gt;
-            &lt;s:element name="ToDoData" ref="s1:ToDoData" minOccurs="1" maxOccurs="1"/&gt;
+            &lt;s:element  ref="tns:ToDoData" minOccurs="1" maxOccurs="1"/&gt;
           &lt;/s:sequence&gt;
         &lt;/s:complexType&gt;
       &lt;/s:element&gt;
@@ -2938,8 +3070,8 @@
              &lt;s:element name="WorkflowData" minOccurs="1" maxOccurs="1"&gt;
                &lt;s:complexType&gt;
                  &lt;s:sequence&gt;
-                   &lt;s:element name="ToDoData" ref="s1:ToDoData" minOccurs="1" maxOccurs="1" /&gt;
-                   &lt;s:element name="TemplateData" ref="tns:TemplateData" minOccurs="1" maxOccurs="1" /&gt;
+                   &lt;s:element  ref="tns:ToDoData" minOccurs="1" maxOccurs="1" /&gt;
+                   &lt;s:element  ref="tns:TemplateData" minOccurs="1" maxOccurs="1" /&gt;
                    &lt;s:element name="ActiveWorkflowsData" minOccurs="1" maxOccurs="1" &gt;
                      &lt;s:complexType&gt;
                        &lt;s:sequence&gt;
@@ -3014,148 +3146,20 @@
    &lt;/s:complexType&gt;
  &lt;/s:element&gt;</t>
   </si>
-  <si>
-    <t>[In GetWorkflowDataForItemResponse] GetWorkflowDataForItemResult.WorkflowData.ActiveWorkflowsData.Workflows.Workflow.ActivityDetails: &lt;3&gt;.</t>
-  </si>
-  <si>
-    <t>[In GetWorkflowDataForItemResponse] GetWorkflowDataForItemResult.WorkflowData.ActiveWorkflowsData.Workflows.Workflow.CorrelationId: &lt;4&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In GetWorkflowDataForItemResponse] GetWorkflowDataForItemResult.WorkflowData.ActiveWorkflowsData.Workflows.Workflow.InstanceData: The value is an empty string or GUID format if it is present. </t>
-  </si>
-  <si>
-    <t>MS-WWSP_R420001</t>
-  </si>
-  <si>
-    <t>[In GetWorkflowTaskData] If the site (2) of the SOAP request URL does not contain a list with the specified listId, item MUST be the site URL of the specified listId.</t>
-  </si>
-  <si>
-    <t>[In GetWorkflowTaskDataResponse][The schema of the GetWorkflowTaskDataResponse is:]  &lt;s:element name="GetWorkflowTaskDataResponse"&gt;
-   &lt;s:complexType&gt;
-     &lt;s:sequence&gt;
-       &lt;s:element name="GetWorkflowTaskDataResult" &gt;
-        &lt;s:complexType&gt;
-         &lt;s:sequence&gt;
-           &lt;s:any minOccurs="0" maxOccurs="unbounded" /&gt;
-         &lt;/s:sequence&gt;
-        &lt;/s:complexType&gt;      &lt;/s:element&gt;
-     &lt;/s:sequence&gt;
-   &lt;/s:complexType&gt;
- &lt;/s:element&gt;</t>
-  </si>
-  <si>
-    <t>[In StartWorkflow] The protocol server MUST NOT start multiple workflow instances of the same item and same workflow association using this operation.</t>
-  </si>
-  <si>
-    <t>MS-WWSP_R327001</t>
-  </si>
-  <si>
-    <t>MS-WWSP_R348001</t>
-  </si>
-  <si>
-    <t>[In StartWorkflow] workflowParameters SHOULD NOT be null.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;1&gt; Section 2.2.3.1: The client looks for specific values in this element[WorkflowTemplates.WorkflowTemplate.Metadata.InitiationCategories] to determine whether to enable creation of a new workflow instance.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] If this element[InitiationCategories] contains "General", "Word.Application", "Word.Application.12" or "SigClientRequired", then Microsoft Word 2010 enables creation of a new workflow instance.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] If this element[WorkflowTemplates.WorkflowTemplate.Metadata.InitiationCategories] contains "General", "Excel.Application", "Excel.Application.12" or "SigClientRequired", then Microsoft Excel 2010 enables creation of a new workflow instance.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] If this element[InitiationCategories] contains "General", "InfoPath.Application", "InfoPath.Application.12" or "SigClientRequired", then Microsoft InfoPath 2010 enables creation of a new workflow instance.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] If this element[InitiationCategories] does not contain "SigClientRequired" and contains "General", "PowerPoint.Application", or "PowerPoint.Application.12", then Microsoft PowerPoint 2010 enables creation of a new workflow instance.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] If this element[InitiationCategories] does not contain "SigClientRequired" and contains "General", "Access.Application", or "Access.Application.12", then Microsoft Access 2010 enables creation of a new workflow instance.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not  support this[Instantiation_FormURI] element. [In Appendix B: Product Behavior] &lt;2&gt; Section 2.2.3.1:  Office SharePoint Server 2007 does not support this[Instantiation_FormURI] element.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not include this attribute[ActivityDetails]. [In Appendix B: Product Behavior] &lt;3&gt; Section 3.1.4.5.2.2:  Office SharePoint Server 2007 does not include this attribute[ActivityDetails].</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not include this attribute[CorrelationId]. [In Appendix B: Product Behavior] &lt;4&gt; Section 3.1.4.5.2.2:  Office SharePoint Server 2007 and SharePoint Server 2010 do not include this attribute[CorrelationId].</t>
-  </si>
-  <si>
-    <t>[In StartWorkflow] This element[workflowParameters] is considered vendor-extensible and is described in section 4.3.2.</t>
-  </si>
-  <si>
-    <t>[In Transport] Protocol messages MUST be formatted as specified in [SOAP1.1] section 4[, or [SOAP1.2-1/2007] section 5].</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Transport] Protocol messages MUST be formatted as specified in [[SOAP1.1] section 4, or] [SOAP1.2-1/2007] section 5.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Transport] Protocol server faults MUST be returned either using HTTP Status Codes as specified in [RFC2616] section 10 or using SOAP faults as specified in [SOAP1.1] section 4.4, or [SOAP1.2-1/2007] section 5.4, SOAP Fault.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Common Message Syntax] The syntax of the definitions uses XML schema, as specified in [XMLSCHEMA1/2] and [XMLSCHEMA2/2], and WSDL, as specified in [WSDL].</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Namespaces] Perfix "soap12" is used for namespace URI: http://schemas.xmlsoap.org/wsdl/soap12/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Namespaces] Perfix "wsdl" is used for namespace URI:
-http://schemas.xmlsoap.org/wsdl/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Namespaces] Perfix "xsi" is used for namespace URI: http://www.w3.org/2001/XMLSchema-instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In AlterToDo] taskData: If taskData is not present, then the server will return a SOAP fault with error string "Value cannot be null. \nParameter name: taskData".</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In AlterToDoResponse] This element is sent with AlterToDoSoapOut and specifies whether the AlterToDo operation was successful.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In AlterToDo] This operation is used to modify the values of Fields on a workflow task.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-WWSP_R97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms "SHOULD" or "SHOULD NOT" implies product behavior in accordance with the "SHOULD" or "SHOULD NOT" prescription.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Unless otherwise specified, the term "MAY" implies that the product does not follow the prescription.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-WWSP_R418002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3342,13 +3346,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3378,7 +3382,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3462,7 +3466,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="69">
     <dxf>
@@ -4268,7 +4272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4591,35 +4595,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C215" sqref="C215"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" style="10" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4627,7 +4633,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
@@ -4635,13 +4641,13 @@
         <v>3.2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F3" s="11">
         <v>43634</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="21">
       <c r="A4" s="40" t="s">
         <v>24</v>
       </c>
@@ -4652,7 +4658,7 @@
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
@@ -4667,7 +4673,7 @@
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
@@ -4682,7 +4688,7 @@
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
@@ -4697,7 +4703,7 @@
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
@@ -4712,7 +4718,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
     </row>
-    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="78.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
@@ -4727,7 +4733,7 @@
       <c r="H9" s="50"/>
       <c r="I9" s="50"/>
     </row>
-    <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
@@ -4742,7 +4748,7 @@
       <c r="H10" s="50"/>
       <c r="I10" s="50"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -4757,7 +4763,7 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
@@ -4774,7 +4780,7 @@
       <c r="H12" s="46"/>
       <c r="I12" s="46"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="25" t="s">
         <v>6</v>
       </c>
@@ -4791,7 +4797,7 @@
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="25" t="s">
         <v>7</v>
       </c>
@@ -4808,7 +4814,7 @@
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="26" t="s">
         <v>3</v>
       </c>
@@ -4825,7 +4831,7 @@
       <c r="H15" s="48"/>
       <c r="I15" s="48"/>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
@@ -4840,7 +4846,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="64.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
@@ -4855,7 +4861,7 @@
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
@@ -4870,7 +4876,7 @@
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:10" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="32" customFormat="1" ht="30">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -4899,7 +4905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" s="33" customFormat="1">
       <c r="A20" s="21" t="s">
         <v>43</v>
       </c>
@@ -4925,7 +4931,7 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A21" s="21" t="s">
         <v>45</v>
       </c>
@@ -4949,11 +4955,11 @@
         <v>17</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="J21" s="22"/>
     </row>
-    <row r="22" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A22" s="21" t="s">
         <v>48</v>
       </c>
@@ -4961,7 +4967,7 @@
         <v>2.1</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21" t="s">
@@ -4979,7 +4985,7 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A23" s="21" t="s">
         <v>49</v>
       </c>
@@ -4987,7 +4993,7 @@
         <v>2.1</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21" t="s">
@@ -5005,7 +5011,7 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" s="33" customFormat="1" ht="45">
       <c r="A24" s="21" t="s">
         <v>50</v>
       </c>
@@ -5013,7 +5019,7 @@
         <v>2.1</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21" t="s">
@@ -5031,7 +5037,7 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A25" s="21" t="s">
         <v>51</v>
       </c>
@@ -5057,7 +5063,7 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
     </row>
-    <row r="26" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A26" s="21" t="s">
         <v>53</v>
       </c>
@@ -5065,7 +5071,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21" t="s">
@@ -5083,7 +5089,7 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A27" s="21" t="s">
         <v>54</v>
       </c>
@@ -5109,7 +5115,7 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" s="33" customFormat="1" ht="45">
       <c r="A28" s="21" t="s">
         <v>57</v>
       </c>
@@ -5135,7 +5141,7 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A29" s="21" t="s">
         <v>59</v>
       </c>
@@ -5161,7 +5167,7 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
     </row>
-    <row r="30" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A30" s="21" t="s">
         <v>61</v>
       </c>
@@ -5187,7 +5193,7 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
     </row>
-    <row r="31" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A31" s="21" t="s">
         <v>63</v>
       </c>
@@ -5213,7 +5219,7 @@
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
     </row>
-    <row r="32" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A32" s="21" t="s">
         <v>65</v>
       </c>
@@ -5239,7 +5245,7 @@
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="30">
       <c r="A33" s="21" t="s">
         <v>67</v>
       </c>
@@ -5247,7 +5253,7 @@
         <v>55</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
@@ -5265,7 +5271,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="30">
       <c r="A34" s="21" t="s">
         <v>68</v>
       </c>
@@ -5291,7 +5297,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="30">
       <c r="A35" s="21" t="s">
         <v>70</v>
       </c>
@@ -5299,7 +5305,7 @@
         <v>55</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21" t="s">
@@ -5317,7 +5323,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="30">
       <c r="A36" s="21" t="s">
         <v>71</v>
       </c>
@@ -5325,7 +5331,7 @@
         <v>55</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
@@ -5343,7 +5349,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="30">
       <c r="A37" s="21" t="s">
         <v>72</v>
       </c>
@@ -5369,7 +5375,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="30">
       <c r="A38" s="21" t="s">
         <v>74</v>
       </c>
@@ -5395,7 +5401,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="30">
       <c r="A39" s="21" t="s">
         <v>76</v>
       </c>
@@ -5421,7 +5427,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="30">
       <c r="A40" s="21" t="s">
         <v>78</v>
       </c>
@@ -5447,7 +5453,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="21" t="s">
         <v>80</v>
       </c>
@@ -5473,7 +5479,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="30">
       <c r="A42" s="21" t="s">
         <v>83</v>
       </c>
@@ -5499,7 +5505,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="30">
       <c r="A43" s="21" t="s">
         <v>86</v>
       </c>
@@ -5525,7 +5531,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="21" t="s">
         <v>88</v>
       </c>
@@ -5551,7 +5557,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="21" t="s">
         <v>90</v>
       </c>
@@ -5577,7 +5583,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="30">
       <c r="A46" s="21" t="s">
         <v>92</v>
       </c>
@@ -5603,7 +5609,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="409.5">
       <c r="A47" s="21" t="s">
         <v>95</v>
       </c>
@@ -5629,7 +5635,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="21" t="s">
         <v>97</v>
       </c>
@@ -5637,7 +5643,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21" t="s">
@@ -5655,7 +5661,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="21" t="s">
         <v>98</v>
       </c>
@@ -5681,7 +5687,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="21" t="s">
         <v>100</v>
       </c>
@@ -5707,7 +5713,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="21" t="s">
         <v>102</v>
       </c>
@@ -5733,7 +5739,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="21" t="s">
         <v>104</v>
       </c>
@@ -5759,7 +5765,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
     </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="45">
       <c r="A53" s="21" t="s">
         <v>106</v>
       </c>
@@ -5785,7 +5791,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
     </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="30">
       <c r="A54" s="21" t="s">
         <v>108</v>
       </c>
@@ -5811,7 +5817,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="30">
       <c r="A55" s="21" t="s">
         <v>110</v>
       </c>
@@ -5837,7 +5843,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
     </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="30">
       <c r="A56" s="21" t="s">
         <v>112</v>
       </c>
@@ -5863,7 +5869,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="30">
       <c r="A57" s="21" t="s">
         <v>114</v>
       </c>
@@ -5889,7 +5895,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="30">
       <c r="A58" s="21" t="s">
         <v>116</v>
       </c>
@@ -5915,7 +5921,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="30">
       <c r="A59" s="21" t="s">
         <v>118</v>
       </c>
@@ -5941,7 +5947,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="45">
       <c r="A60" s="21" t="s">
         <v>120</v>
       </c>
@@ -5949,7 +5955,7 @@
         <v>93</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21" t="s">
@@ -5965,11 +5971,11 @@
         <v>17</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="J60" s="19"/>
     </row>
-    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="30">
       <c r="A61" s="21" t="s">
         <v>123</v>
       </c>
@@ -5977,7 +5983,7 @@
         <v>93</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="21" t="s">
@@ -5995,7 +6001,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
     </row>
-    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="45">
       <c r="A62" s="21" t="s">
         <v>124</v>
       </c>
@@ -6021,7 +6027,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="45">
       <c r="A63" s="21" t="s">
         <v>126</v>
       </c>
@@ -6047,7 +6053,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="60">
       <c r="A64" s="21" t="s">
         <v>128</v>
       </c>
@@ -6055,7 +6061,7 @@
         <v>93</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="21" t="s">
@@ -6071,11 +6077,11 @@
         <v>17</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="60">
       <c r="A65" s="21" t="s">
         <v>129</v>
       </c>
@@ -6101,7 +6107,7 @@
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
     </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="45">
       <c r="A66" s="21" t="s">
         <v>131</v>
       </c>
@@ -6127,7 +6133,7 @@
       <c r="I66" s="19"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="30">
       <c r="A67" s="21" t="s">
         <v>133</v>
       </c>
@@ -6153,7 +6159,7 @@
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="195">
       <c r="A68" s="21" t="s">
         <v>136</v>
       </c>
@@ -6161,7 +6167,7 @@
         <v>134</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>137</v>
+        <v>826</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="21" t="s">
@@ -6179,15 +6185,15 @@
       <c r="I68" s="19"/>
       <c r="J68" s="19"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B69" s="22" t="s">
         <v>134</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D69" s="21"/>
       <c r="E69" s="21" t="s">
@@ -6205,15 +6211,15 @@
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B70" s="35">
         <v>3</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="21" t="s">
@@ -6231,15 +6237,15 @@
       <c r="I70" s="19"/>
       <c r="J70" s="19"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="30">
       <c r="A71" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B71" s="35">
         <v>3</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="21" t="s">
@@ -6257,15 +6263,15 @@
       <c r="I71" s="19"/>
       <c r="J71" s="19"/>
     </row>
-    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="45">
       <c r="A72" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" s="35">
         <v>3</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="21" t="s">
@@ -6283,15 +6289,15 @@
       <c r="I72" s="19"/>
       <c r="J72" s="19"/>
     </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="30">
       <c r="A73" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B73" s="35">
         <v>3.1</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="21" t="s">
@@ -6309,15 +6315,15 @@
       <c r="I73" s="19"/>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="45">
       <c r="A74" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74" s="35">
         <v>3.1</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D74" s="21"/>
       <c r="E74" s="21" t="s">
@@ -6335,15 +6341,15 @@
       <c r="I74" s="19"/>
       <c r="J74" s="19"/>
     </row>
-    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="30">
       <c r="A75" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" s="35">
         <v>3.1</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="21" t="s">
@@ -6361,15 +6367,15 @@
       <c r="I75" s="19"/>
       <c r="J75" s="19"/>
     </row>
-    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="30">
       <c r="A76" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="35">
         <v>3.1</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21" t="s">
@@ -6387,15 +6393,15 @@
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
     </row>
-    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="45">
       <c r="A77" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B77" s="35">
         <v>3.1</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D77" s="21"/>
       <c r="E77" s="21" t="s">
@@ -6413,15 +6419,15 @@
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="30">
       <c r="A78" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="C78" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="21" t="s">
@@ -6439,15 +6445,15 @@
       <c r="I78" s="19"/>
       <c r="J78" s="19"/>
     </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="30">
       <c r="A79" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="21" t="s">
@@ -6465,15 +6471,15 @@
       <c r="I79" s="19"/>
       <c r="J79" s="19"/>
     </row>
-    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="45">
       <c r="A80" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>162</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="21" t="s">
@@ -6491,15 +6497,15 @@
       <c r="I80" s="19"/>
       <c r="J80" s="19"/>
     </row>
-    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="30">
       <c r="A81" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="C81" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>165</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="21" t="s">
@@ -6517,15 +6523,15 @@
       <c r="I81" s="19"/>
       <c r="J81" s="19"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="30">
       <c r="A82" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21" t="s">
@@ -6543,15 +6549,15 @@
       <c r="I82" s="19"/>
       <c r="J82" s="19"/>
     </row>
-    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="30">
       <c r="A83" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21" t="s">
@@ -6569,15 +6575,15 @@
       <c r="I83" s="19"/>
       <c r="J83" s="19"/>
     </row>
-    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="45">
       <c r="A84" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>169</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21" t="s">
@@ -6595,15 +6601,15 @@
       <c r="I84" s="19"/>
       <c r="J84" s="19"/>
     </row>
-    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="30">
       <c r="A85" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>171</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21" t="s">
@@ -6621,15 +6627,15 @@
       <c r="I85" s="19"/>
       <c r="J85" s="19"/>
     </row>
-    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="45">
       <c r="A86" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="19" t="s">
         <v>172</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>173</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="21" t="s">
@@ -6647,15 +6653,15 @@
       <c r="I86" s="19"/>
       <c r="J86" s="19"/>
     </row>
-    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="30">
       <c r="A87" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>175</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="21" t="s">
@@ -6673,15 +6679,15 @@
       <c r="I87" s="19"/>
       <c r="J87" s="19"/>
     </row>
-    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="30">
       <c r="A88" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="19" t="s">
         <v>176</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>177</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21" t="s">
@@ -6699,15 +6705,15 @@
       <c r="I88" s="19"/>
       <c r="J88" s="19"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B89" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="21" t="s">
@@ -6725,15 +6731,15 @@
       <c r="I89" s="19"/>
       <c r="J89" s="19"/>
     </row>
-    <row r="90" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="60">
       <c r="A90" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B90" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="21" t="s">
@@ -6751,15 +6757,15 @@
       <c r="I90" s="19"/>
       <c r="J90" s="19"/>
     </row>
-    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="30">
       <c r="A91" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B91" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D91" s="21"/>
       <c r="E91" s="21" t="s">
@@ -6777,15 +6783,15 @@
       <c r="I91" s="19"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="30">
       <c r="A92" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="C92" s="19" t="s">
         <v>184</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>185</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="21" t="s">
@@ -6803,15 +6809,15 @@
       <c r="I92" s="19"/>
       <c r="J92" s="19"/>
     </row>
-    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="30">
       <c r="A93" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="B93" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>187</v>
       </c>
       <c r="D93" s="21"/>
       <c r="E93" s="21" t="s">
@@ -6829,15 +6835,15 @@
       <c r="I93" s="19"/>
       <c r="J93" s="19"/>
     </row>
-    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="30">
       <c r="A94" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="19" t="s">
         <v>188</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>189</v>
       </c>
       <c r="D94" s="21"/>
       <c r="E94" s="21" t="s">
@@ -6855,15 +6861,15 @@
       <c r="I94" s="19"/>
       <c r="J94" s="19"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="30">
       <c r="A95" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="C95" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>192</v>
       </c>
       <c r="D95" s="21"/>
       <c r="E95" s="21" t="s">
@@ -6881,15 +6887,15 @@
       <c r="I95" s="19"/>
       <c r="J95" s="19"/>
     </row>
-    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="30">
       <c r="A96" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="B96" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>194</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="21" t="s">
@@ -6907,15 +6913,15 @@
       <c r="I96" s="19"/>
       <c r="J96" s="19"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="B97" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="21" t="s">
@@ -6933,15 +6939,15 @@
       <c r="I97" s="19"/>
       <c r="J97" s="19"/>
     </row>
-    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="30">
       <c r="A98" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="C98" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>199</v>
       </c>
       <c r="D98" s="21"/>
       <c r="E98" s="21" t="s">
@@ -6959,15 +6965,15 @@
       <c r="I98" s="19"/>
       <c r="J98" s="19"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="19" t="s">
         <v>200</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>201</v>
       </c>
       <c r="D99" s="21"/>
       <c r="E99" s="21" t="s">
@@ -6985,15 +6991,15 @@
       <c r="I99" s="19"/>
       <c r="J99" s="19"/>
     </row>
-    <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="30">
       <c r="A100" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="C100" s="19" t="s">
         <v>203</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>204</v>
       </c>
       <c r="D100" s="21"/>
       <c r="E100" s="21" t="s">
@@ -7011,15 +7017,15 @@
       <c r="I100" s="19"/>
       <c r="J100" s="19"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="30">
       <c r="A101" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>206</v>
       </c>
       <c r="D101" s="21"/>
       <c r="E101" s="21" t="s">
@@ -7037,15 +7043,15 @@
       <c r="I101" s="19"/>
       <c r="J101" s="19"/>
     </row>
-    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="30">
       <c r="A102" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>208</v>
       </c>
       <c r="D102" s="21"/>
       <c r="E102" s="21" t="s">
@@ -7063,15 +7069,15 @@
       <c r="I102" s="19"/>
       <c r="J102" s="19"/>
     </row>
-    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="30">
       <c r="A103" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="C103" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="D103" s="21"/>
       <c r="E103" s="21" t="s">
@@ -7089,15 +7095,15 @@
       <c r="I103" s="19"/>
       <c r="J103" s="19"/>
     </row>
-    <row r="104" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="240">
       <c r="A104" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="B104" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>213</v>
       </c>
       <c r="D104" s="21"/>
       <c r="E104" s="21" t="s">
@@ -7115,15 +7121,15 @@
       <c r="I104" s="19"/>
       <c r="J104" s="19"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="19" t="s">
         <v>214</v>
-      </c>
-      <c r="B105" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>215</v>
       </c>
       <c r="D105" s="21"/>
       <c r="E105" s="21" t="s">
@@ -7141,15 +7147,15 @@
       <c r="I105" s="19"/>
       <c r="J105" s="19"/>
     </row>
-    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="30">
       <c r="A106" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="B106" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>217</v>
       </c>
       <c r="D106" s="21"/>
       <c r="E106" s="21" t="s">
@@ -7165,22 +7171,22 @@
         <v>17</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="J106" s="19"/>
     </row>
-    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="30">
       <c r="A107" s="21" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C107" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="D107" s="21" t="s">
-        <v>219</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>19</v>
@@ -7197,15 +7203,15 @@
       <c r="I107" s="19"/>
       <c r="J107" s="19"/>
     </row>
-    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="30">
       <c r="A108" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="19" t="s">
         <v>220</v>
-      </c>
-      <c r="B108" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>221</v>
       </c>
       <c r="D108" s="21"/>
       <c r="E108" s="21" t="s">
@@ -7223,15 +7229,15 @@
       <c r="I108" s="19"/>
       <c r="J108" s="19"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109" s="19" t="s">
         <v>222</v>
-      </c>
-      <c r="B109" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>223</v>
       </c>
       <c r="D109" s="21"/>
       <c r="E109" s="21" t="s">
@@ -7249,15 +7255,15 @@
       <c r="I109" s="19"/>
       <c r="J109" s="19"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C110" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>225</v>
       </c>
       <c r="D110" s="21"/>
       <c r="E110" s="21" t="s">
@@ -7275,15 +7281,15 @@
       <c r="I110" s="19"/>
       <c r="J110" s="19"/>
     </row>
-    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="30">
       <c r="A111" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C111" s="19" t="s">
         <v>226</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>227</v>
       </c>
       <c r="D111" s="21"/>
       <c r="E111" s="21" t="s">
@@ -7301,15 +7307,15 @@
       <c r="I111" s="19"/>
       <c r="J111" s="19"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="21" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D112" s="31"/>
       <c r="E112" s="21" t="s">
@@ -7327,15 +7333,15 @@
       <c r="I112" s="38"/>
       <c r="J112" s="19"/>
     </row>
-    <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="30">
       <c r="A113" s="21" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D113" s="31"/>
       <c r="E113" s="21" t="s">
@@ -7353,15 +7359,15 @@
       <c r="I113" s="38"/>
       <c r="J113" s="19"/>
     </row>
-    <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="30">
       <c r="A114" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B114" s="22" t="s">
-        <v>229</v>
-      </c>
       <c r="C114" s="19" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="D114" s="21"/>
       <c r="E114" s="21" t="s">
@@ -7379,15 +7385,15 @@
       <c r="I114" s="19"/>
       <c r="J114" s="19"/>
     </row>
-    <row r="115" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="210">
       <c r="A115" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="B115" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>231</v>
       </c>
       <c r="D115" s="21"/>
       <c r="E115" s="21" t="s">
@@ -7405,15 +7411,15 @@
       <c r="I115" s="19"/>
       <c r="J115" s="19"/>
     </row>
-    <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="30">
       <c r="A116" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C116" s="19" t="s">
         <v>232</v>
-      </c>
-      <c r="B116" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>233</v>
       </c>
       <c r="D116" s="21"/>
       <c r="E116" s="21" t="s">
@@ -7431,15 +7437,15 @@
       <c r="I116" s="19"/>
       <c r="J116" s="19"/>
     </row>
-    <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="30">
       <c r="A117" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C117" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>235</v>
       </c>
       <c r="D117" s="21"/>
       <c r="E117" s="21" t="s">
@@ -7457,15 +7463,15 @@
       <c r="I117" s="19"/>
       <c r="J117" s="19"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C118" s="19" t="s">
         <v>236</v>
-      </c>
-      <c r="B118" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>237</v>
       </c>
       <c r="D118" s="21"/>
       <c r="E118" s="21" t="s">
@@ -7483,15 +7489,15 @@
       <c r="I118" s="19"/>
       <c r="J118" s="19"/>
     </row>
-    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="30">
       <c r="A119" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D119" s="21"/>
       <c r="E119" s="21" t="s">
@@ -7509,15 +7515,15 @@
       <c r="I119" s="19"/>
       <c r="J119" s="19"/>
     </row>
-    <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="30">
       <c r="A120" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C120" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="B120" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>240</v>
       </c>
       <c r="D120" s="21"/>
       <c r="E120" s="21" t="s">
@@ -7535,15 +7541,15 @@
       <c r="I120" s="19"/>
       <c r="J120" s="19"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="30">
       <c r="A121" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B121" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D121" s="21"/>
       <c r="E121" s="21" t="s">
@@ -7561,15 +7567,15 @@
       <c r="I121" s="19"/>
       <c r="J121" s="19"/>
     </row>
-    <row r="122" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="75">
       <c r="A122" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B122" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D122" s="21"/>
       <c r="E122" s="21" t="s">
@@ -7587,15 +7593,15 @@
       <c r="I122" s="19"/>
       <c r="J122" s="19"/>
     </row>
-    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="45">
       <c r="A123" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B123" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D123" s="21"/>
       <c r="E123" s="21" t="s">
@@ -7613,15 +7619,15 @@
       <c r="I123" s="19"/>
       <c r="J123" s="19"/>
     </row>
-    <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="30">
       <c r="A124" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="22" t="s">
-        <v>247</v>
-      </c>
       <c r="C124" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D124" s="21"/>
       <c r="E124" s="21" t="s">
@@ -7639,15 +7645,15 @@
       <c r="I124" s="19"/>
       <c r="J124" s="19"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="30">
       <c r="A125" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D125" s="21"/>
       <c r="E125" s="21" t="s">
@@ -7665,15 +7671,15 @@
       <c r="I125" s="19"/>
       <c r="J125" s="19"/>
     </row>
-    <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="30">
       <c r="A126" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D126" s="21"/>
       <c r="E126" s="21" t="s">
@@ -7691,15 +7697,15 @@
       <c r="I126" s="19"/>
       <c r="J126" s="19"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="C127" s="19" t="s">
         <v>251</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>252</v>
       </c>
       <c r="D127" s="21"/>
       <c r="E127" s="21" t="s">
@@ -7717,15 +7723,15 @@
       <c r="I127" s="19"/>
       <c r="J127" s="19"/>
     </row>
-    <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="30">
       <c r="A128" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>253</v>
-      </c>
-      <c r="B128" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>254</v>
       </c>
       <c r="D128" s="21"/>
       <c r="E128" s="21" t="s">
@@ -7743,15 +7749,15 @@
       <c r="I128" s="19"/>
       <c r="J128" s="19"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C129" s="19" t="s">
         <v>255</v>
-      </c>
-      <c r="B129" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>256</v>
       </c>
       <c r="D129" s="21"/>
       <c r="E129" s="21" t="s">
@@ -7769,15 +7775,15 @@
       <c r="I129" s="19"/>
       <c r="J129" s="19"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="30">
       <c r="A130" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="C130" s="19" t="s">
         <v>258</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>259</v>
       </c>
       <c r="D130" s="21"/>
       <c r="E130" s="21" t="s">
@@ -7795,15 +7801,15 @@
       <c r="I130" s="19"/>
       <c r="J130" s="19"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="30">
       <c r="A131" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C131" s="19" t="s">
         <v>260</v>
-      </c>
-      <c r="B131" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>261</v>
       </c>
       <c r="D131" s="21"/>
       <c r="E131" s="21" t="s">
@@ -7821,15 +7827,15 @@
       <c r="I131" s="19"/>
       <c r="J131" s="19"/>
     </row>
-    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="30">
       <c r="A132" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="22" t="s">
-        <v>263</v>
-      </c>
       <c r="C132" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D132" s="21"/>
       <c r="E132" s="21" t="s">
@@ -7847,15 +7853,15 @@
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="30">
       <c r="A133" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D133" s="21"/>
       <c r="E133" s="21" t="s">
@@ -7873,15 +7879,15 @@
       <c r="I133" s="19"/>
       <c r="J133" s="19"/>
     </row>
-    <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="30">
       <c r="A134" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D134" s="21"/>
       <c r="E134" s="21" t="s">
@@ -7899,15 +7905,15 @@
       <c r="I134" s="19"/>
       <c r="J134" s="19"/>
     </row>
-    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="45">
       <c r="A135" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="C135" s="19" t="s">
         <v>267</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>268</v>
       </c>
       <c r="D135" s="21"/>
       <c r="E135" s="21" t="s">
@@ -7925,15 +7931,15 @@
       <c r="I135" s="19"/>
       <c r="J135" s="19"/>
     </row>
-    <row r="136" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="165">
       <c r="A136" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B136" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D136" s="21"/>
       <c r="E136" s="21" t="s">
@@ -7951,15 +7957,15 @@
       <c r="I136" s="19"/>
       <c r="J136" s="19"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C137" s="19" t="s">
         <v>270</v>
-      </c>
-      <c r="B137" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>271</v>
       </c>
       <c r="D137" s="21"/>
       <c r="E137" s="21" t="s">
@@ -7977,15 +7983,15 @@
       <c r="I137" s="19"/>
       <c r="J137" s="19"/>
     </row>
-    <row r="138" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="45">
       <c r="A138" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C138" s="19" t="s">
         <v>272</v>
-      </c>
-      <c r="B138" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>273</v>
       </c>
       <c r="D138" s="21"/>
       <c r="E138" s="21" t="s">
@@ -8001,22 +8007,22 @@
         <v>17</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="J138" s="19"/>
     </row>
-    <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="30">
       <c r="A139" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C139" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B139" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C139" s="19" t="s">
+      <c r="D139" s="21" t="s">
         <v>275</v>
-      </c>
-      <c r="D139" s="21" t="s">
-        <v>276</v>
       </c>
       <c r="E139" s="21" t="s">
         <v>19</v>
@@ -8033,15 +8039,15 @@
       <c r="I139" s="19"/>
       <c r="J139" s="19"/>
     </row>
-    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="30">
       <c r="A140" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C140" s="19" t="s">
         <v>277</v>
-      </c>
-      <c r="B140" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>278</v>
       </c>
       <c r="D140" s="21"/>
       <c r="E140" s="21" t="s">
@@ -8059,15 +8065,15 @@
       <c r="I140" s="19"/>
       <c r="J140" s="19"/>
     </row>
-    <row r="141" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="30">
       <c r="A141" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C141" s="19" t="s">
         <v>279</v>
-      </c>
-      <c r="B141" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>280</v>
       </c>
       <c r="D141" s="21"/>
       <c r="E141" s="21" t="s">
@@ -8085,15 +8091,15 @@
       <c r="I141" s="19"/>
       <c r="J141" s="19"/>
     </row>
-    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="30">
       <c r="A142" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C142" s="19" t="s">
         <v>281</v>
-      </c>
-      <c r="B142" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C142" s="19" t="s">
-        <v>282</v>
       </c>
       <c r="D142" s="21"/>
       <c r="E142" s="21" t="s">
@@ -8111,15 +8117,15 @@
       <c r="I142" s="19"/>
       <c r="J142" s="19"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="30">
       <c r="A143" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C143" s="19" t="s">
         <v>283</v>
-      </c>
-      <c r="B143" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>284</v>
       </c>
       <c r="D143" s="21"/>
       <c r="E143" s="21" t="s">
@@ -8137,15 +8143,15 @@
       <c r="I143" s="19"/>
       <c r="J143" s="19"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C144" s="19" t="s">
         <v>285</v>
-      </c>
-      <c r="B144" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C144" s="19" t="s">
-        <v>286</v>
       </c>
       <c r="D144" s="21"/>
       <c r="E144" s="21" t="s">
@@ -8163,15 +8169,15 @@
       <c r="I144" s="19"/>
       <c r="J144" s="19"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D145" s="21"/>
       <c r="E145" s="21" t="s">
@@ -8189,15 +8195,15 @@
       <c r="I145" s="19"/>
       <c r="J145" s="19"/>
     </row>
-    <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="30">
       <c r="A146" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="B146" s="22" t="s">
+      <c r="C146" s="19" t="s">
         <v>289</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>290</v>
       </c>
       <c r="D146" s="21"/>
       <c r="E146" s="21" t="s">
@@ -8215,15 +8221,15 @@
       <c r="I146" s="19"/>
       <c r="J146" s="19"/>
     </row>
-    <row r="147" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="30">
       <c r="A147" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C147" s="19" t="s">
         <v>291</v>
-      </c>
-      <c r="B147" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>292</v>
       </c>
       <c r="D147" s="21"/>
       <c r="E147" s="21" t="s">
@@ -8241,15 +8247,15 @@
       <c r="I147" s="19"/>
       <c r="J147" s="19"/>
     </row>
-    <row r="148" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="315">
       <c r="A148" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>294</v>
+        <v>827</v>
       </c>
       <c r="D148" s="21"/>
       <c r="E148" s="21" t="s">
@@ -8267,15 +8273,15 @@
       <c r="I148" s="19"/>
       <c r="J148" s="19"/>
     </row>
-    <row r="149" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="30">
       <c r="A149" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D149" s="21"/>
       <c r="E149" s="21" t="s">
@@ -8293,15 +8299,15 @@
       <c r="I149" s="19"/>
       <c r="J149" s="19"/>
     </row>
-    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="45">
       <c r="A150" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D150" s="21"/>
       <c r="E150" s="21" t="s">
@@ -8319,15 +8325,15 @@
       <c r="I150" s="19"/>
       <c r="J150" s="19"/>
     </row>
-    <row r="151" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="30">
       <c r="A151" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D151" s="21"/>
       <c r="E151" s="21" t="s">
@@ -8345,15 +8351,15 @@
       <c r="I151" s="19"/>
       <c r="J151" s="19"/>
     </row>
-    <row r="152" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="30">
       <c r="A152" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B152" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D152" s="21"/>
       <c r="E152" s="21" t="s">
@@ -8371,15 +8377,15 @@
       <c r="I152" s="19"/>
       <c r="J152" s="19"/>
     </row>
-    <row r="153" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="30">
       <c r="A153" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B153" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D153" s="21"/>
       <c r="E153" s="21" t="s">
@@ -8397,15 +8403,15 @@
       <c r="I153" s="19"/>
       <c r="J153" s="19"/>
     </row>
-    <row r="154" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="30">
       <c r="A154" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="C154" s="19" t="s">
         <v>304</v>
-      </c>
-      <c r="B154" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>306</v>
       </c>
       <c r="D154" s="21"/>
       <c r="E154" s="21" t="s">
@@ -8423,15 +8429,15 @@
       <c r="I154" s="19"/>
       <c r="J154" s="19"/>
     </row>
-    <row r="155" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="75">
       <c r="A155" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B155" s="22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D155" s="21"/>
       <c r="E155" s="21" t="s">
@@ -8449,15 +8455,15 @@
       <c r="I155" s="19"/>
       <c r="J155" s="19"/>
     </row>
-    <row r="156" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="45">
       <c r="A156" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D156" s="21"/>
       <c r="E156" s="21" t="s">
@@ -8475,15 +8481,15 @@
       <c r="I156" s="19"/>
       <c r="J156" s="19"/>
     </row>
-    <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="30">
       <c r="A157" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D157" s="21"/>
       <c r="E157" s="21" t="s">
@@ -8501,15 +8507,15 @@
       <c r="I157" s="19"/>
       <c r="J157" s="19"/>
     </row>
-    <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="30">
       <c r="A158" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B158" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C158" s="19" t="s">
         <v>312</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>314</v>
       </c>
       <c r="D158" s="21"/>
       <c r="E158" s="21" t="s">
@@ -8527,15 +8533,15 @@
       <c r="I158" s="19"/>
       <c r="J158" s="19"/>
     </row>
-    <row r="159" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="30">
       <c r="A159" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D159" s="21"/>
       <c r="E159" s="21" t="s">
@@ -8553,15 +8559,15 @@
       <c r="I159" s="19"/>
       <c r="J159" s="19"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="30">
       <c r="A160" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C160" s="19" t="s">
         <v>317</v>
-      </c>
-      <c r="B160" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>319</v>
       </c>
       <c r="D160" s="21"/>
       <c r="E160" s="21" t="s">
@@ -8579,15 +8585,15 @@
       <c r="I160" s="19"/>
       <c r="J160" s="19"/>
     </row>
-    <row r="161" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="45">
       <c r="A161" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D161" s="21"/>
       <c r="E161" s="21" t="s">
@@ -8605,15 +8611,15 @@
       <c r="I161" s="19"/>
       <c r="J161" s="19"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10">
       <c r="A162" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D162" s="21"/>
       <c r="E162" s="21" t="s">
@@ -8631,15 +8637,15 @@
       <c r="I162" s="19"/>
       <c r="J162" s="19"/>
     </row>
-    <row r="163" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="30">
       <c r="A163" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>326</v>
+        <v>828</v>
       </c>
       <c r="D163" s="21"/>
       <c r="E163" s="21" t="s">
@@ -8657,15 +8663,15 @@
       <c r="I163" s="19"/>
       <c r="J163" s="19"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="30">
       <c r="A164" s="21" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B164" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="C164" s="19" t="s">
         <v>325</v>
-      </c>
-      <c r="C164" s="19" t="s">
-        <v>328</v>
       </c>
       <c r="D164" s="21"/>
       <c r="E164" s="21" t="s">
@@ -8683,15 +8689,15 @@
       <c r="I164" s="19"/>
       <c r="J164" s="19"/>
     </row>
-    <row r="165" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="30">
       <c r="A165" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D165" s="21"/>
       <c r="E165" s="21" t="s">
@@ -8709,15 +8715,15 @@
       <c r="I165" s="19"/>
       <c r="J165" s="19"/>
     </row>
-    <row r="166" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="30">
       <c r="A166" s="21" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D166" s="21"/>
       <c r="E166" s="21" t="s">
@@ -8735,15 +8741,15 @@
       <c r="I166" s="19"/>
       <c r="J166" s="19"/>
     </row>
-    <row r="167" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="45">
       <c r="A167" s="21" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B167" s="22" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D167" s="21"/>
       <c r="E167" s="21" t="s">
@@ -8761,15 +8767,15 @@
       <c r="I167" s="19"/>
       <c r="J167" s="19"/>
     </row>
-    <row r="168" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="30">
       <c r="A168" s="21" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D168" s="21"/>
       <c r="E168" s="21" t="s">
@@ -8787,15 +8793,15 @@
       <c r="I168" s="19"/>
       <c r="J168" s="19"/>
     </row>
-    <row r="169" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="120">
       <c r="A169" s="21" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B169" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C169" s="19" t="s">
         <v>336</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>339</v>
       </c>
       <c r="D169" s="21"/>
       <c r="E169" s="21" t="s">
@@ -8813,15 +8819,15 @@
       <c r="I169" s="19"/>
       <c r="J169" s="19"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10">
       <c r="A170" s="21" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B170" s="22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D170" s="21"/>
       <c r="E170" s="21" t="s">
@@ -8839,15 +8845,15 @@
       <c r="I170" s="19"/>
       <c r="J170" s="19"/>
     </row>
-    <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="30">
       <c r="A171" s="21" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B171" s="22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D171" s="21"/>
       <c r="E171" s="21" t="s">
@@ -8865,15 +8871,15 @@
       <c r="I171" s="19"/>
       <c r="J171" s="19"/>
     </row>
-    <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="30">
       <c r="A172" s="21" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B172" s="22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D172" s="21"/>
       <c r="E172" s="21" t="s">
@@ -8891,15 +8897,15 @@
       <c r="I172" s="19"/>
       <c r="J172" s="19"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="30">
       <c r="A173" s="21" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B173" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D173" s="21"/>
       <c r="E173" s="21" t="s">
@@ -8917,15 +8923,15 @@
       <c r="I173" s="19"/>
       <c r="J173" s="19"/>
     </row>
-    <row r="174" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="210">
       <c r="A174" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B174" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>795</v>
+        <v>829</v>
       </c>
       <c r="D174" s="21"/>
       <c r="E174" s="21" t="s">
@@ -8943,15 +8949,15 @@
       <c r="I174" s="19"/>
       <c r="J174" s="19"/>
     </row>
-    <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="30">
       <c r="A175" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B175" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D175" s="21"/>
       <c r="E175" s="21" t="s">
@@ -8969,15 +8975,15 @@
       <c r="I175" s="19"/>
       <c r="J175" s="19"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10">
       <c r="A176" s="21" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D176" s="21"/>
       <c r="E176" s="21" t="s">
@@ -8995,15 +9001,15 @@
       <c r="I176" s="19"/>
       <c r="J176" s="19"/>
     </row>
-    <row r="177" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="75">
       <c r="A177" s="21" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B177" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" s="19" t="s">
         <v>353</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>356</v>
       </c>
       <c r="D177" s="21"/>
       <c r="E177" s="21" t="s">
@@ -9021,15 +9027,15 @@
       <c r="I177" s="19"/>
       <c r="J177" s="19"/>
     </row>
-    <row r="178" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="30">
       <c r="A178" s="21" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D178" s="21"/>
       <c r="E178" s="21" t="s">
@@ -9047,15 +9053,15 @@
       <c r="I178" s="19"/>
       <c r="J178" s="19"/>
     </row>
-    <row r="179" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="30">
       <c r="A179" s="21" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D179" s="21"/>
       <c r="E179" s="21" t="s">
@@ -9073,15 +9079,15 @@
       <c r="I179" s="19"/>
       <c r="J179" s="19"/>
     </row>
-    <row r="180" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="30">
       <c r="A180" s="21" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D180" s="21"/>
       <c r="E180" s="21" t="s">
@@ -9099,15 +9105,15 @@
       <c r="I180" s="19"/>
       <c r="J180" s="19"/>
     </row>
-    <row r="181" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="30">
       <c r="A181" s="21" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B181" s="22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D181" s="21"/>
       <c r="E181" s="21" t="s">
@@ -9125,15 +9131,15 @@
       <c r="I181" s="19"/>
       <c r="J181" s="19"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10">
       <c r="A182" s="21" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D182" s="21"/>
       <c r="E182" s="21" t="s">
@@ -9151,15 +9157,15 @@
       <c r="I182" s="19"/>
       <c r="J182" s="19"/>
     </row>
-    <row r="183" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="30">
       <c r="A183" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B183" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C183" s="19" t="s">
         <v>366</v>
-      </c>
-      <c r="C183" s="19" t="s">
-        <v>369</v>
       </c>
       <c r="D183" s="21"/>
       <c r="E183" s="21" t="s">
@@ -9177,15 +9183,15 @@
       <c r="I183" s="19"/>
       <c r="J183" s="19"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10">
       <c r="A184" s="21" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D184" s="21"/>
       <c r="E184" s="21" t="s">
@@ -9203,15 +9209,15 @@
       <c r="I184" s="19"/>
       <c r="J184" s="19"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="30">
       <c r="A185" s="21" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D185" s="21"/>
       <c r="E185" s="21" t="s">
@@ -9229,15 +9235,15 @@
       <c r="I185" s="19"/>
       <c r="J185" s="19"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="30">
       <c r="A186" s="21" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B186" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C186" s="19" t="s">
         <v>373</v>
-      </c>
-      <c r="C186" s="19" t="s">
-        <v>376</v>
       </c>
       <c r="D186" s="21"/>
       <c r="E186" s="21" t="s">
@@ -9255,15 +9261,15 @@
       <c r="I186" s="19"/>
       <c r="J186" s="19"/>
     </row>
-    <row r="187" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="30">
       <c r="A187" s="21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D187" s="21"/>
       <c r="E187" s="21" t="s">
@@ -9281,15 +9287,15 @@
       <c r="I187" s="19"/>
       <c r="J187" s="19"/>
     </row>
-    <row r="188" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="30">
       <c r="A188" s="21" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B188" s="22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D188" s="21"/>
       <c r="E188" s="21" t="s">
@@ -9307,15 +9313,15 @@
       <c r="I188" s="19"/>
       <c r="J188" s="19"/>
     </row>
-    <row r="189" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="30">
       <c r="A189" s="21" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D189" s="21"/>
       <c r="E189" s="21" t="s">
@@ -9333,15 +9339,15 @@
       <c r="I189" s="19"/>
       <c r="J189" s="19"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="30">
       <c r="A190" s="21" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D190" s="21"/>
       <c r="E190" s="21" t="s">
@@ -9359,15 +9365,15 @@
       <c r="I190" s="19"/>
       <c r="J190" s="19"/>
     </row>
-    <row r="191" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="120">
       <c r="A191" s="21" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B191" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C191" s="19" t="s">
         <v>384</v>
-      </c>
-      <c r="C191" s="19" t="s">
-        <v>387</v>
       </c>
       <c r="D191" s="21"/>
       <c r="E191" s="21" t="s">
@@ -9385,15 +9391,15 @@
       <c r="I191" s="19"/>
       <c r="J191" s="19"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10">
       <c r="A192" s="21" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B192" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D192" s="21"/>
       <c r="E192" s="21" t="s">
@@ -9411,15 +9417,15 @@
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
     </row>
-    <row r="193" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="30">
       <c r="A193" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B193" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D193" s="21"/>
       <c r="E193" s="21" t="s">
@@ -9437,15 +9443,15 @@
       <c r="I193" s="19"/>
       <c r="J193" s="19"/>
     </row>
-    <row r="194" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="210">
       <c r="A194" s="21" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B194" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>796</v>
+        <v>830</v>
       </c>
       <c r="D194" s="21"/>
       <c r="E194" s="21" t="s">
@@ -9463,15 +9469,15 @@
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
     </row>
-    <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="30">
       <c r="A195" s="21" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B195" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D195" s="21"/>
       <c r="E195" s="21" t="s">
@@ -9489,15 +9495,15 @@
       <c r="I195" s="19"/>
       <c r="J195" s="19"/>
     </row>
-    <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="30">
       <c r="A196" s="21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D196" s="21"/>
       <c r="E196" s="21" t="s">
@@ -9515,15 +9521,15 @@
       <c r="I196" s="19"/>
       <c r="J196" s="19"/>
     </row>
-    <row r="197" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="45">
       <c r="A197" s="21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B197" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="C197" s="19" t="s">
         <v>397</v>
-      </c>
-      <c r="C197" s="19" t="s">
-        <v>400</v>
       </c>
       <c r="D197" s="21"/>
       <c r="E197" s="21" t="s">
@@ -9541,15 +9547,15 @@
       <c r="I197" s="19"/>
       <c r="J197" s="19"/>
     </row>
-    <row r="198" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="75">
       <c r="A198" s="21" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B198" s="22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D198" s="21"/>
       <c r="E198" s="21" t="s">
@@ -9567,15 +9573,15 @@
       <c r="I198" s="19"/>
       <c r="J198" s="19"/>
     </row>
-    <row r="199" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="45">
       <c r="A199" s="21" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B199" s="22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D199" s="21"/>
       <c r="E199" s="21" t="s">
@@ -9593,15 +9599,15 @@
       <c r="I199" s="19"/>
       <c r="J199" s="19"/>
     </row>
-    <row r="200" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="30">
       <c r="A200" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D200" s="21"/>
       <c r="E200" s="21" t="s">
@@ -9619,15 +9625,15 @@
       <c r="I200" s="19"/>
       <c r="J200" s="19"/>
     </row>
-    <row r="201" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="30">
       <c r="A201" s="21" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B201" s="22" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D201" s="21"/>
       <c r="E201" s="21" t="s">
@@ -9645,15 +9651,15 @@
       <c r="I201" s="19"/>
       <c r="J201" s="19"/>
     </row>
-    <row r="202" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="45">
       <c r="A202" s="21" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B202" s="22" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D202" s="21"/>
       <c r="E202" s="21" t="s">
@@ -9671,15 +9677,15 @@
       <c r="I202" s="19"/>
       <c r="J202" s="19"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="30">
       <c r="A203" s="21" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D203" s="21"/>
       <c r="E203" s="21" t="s">
@@ -9697,15 +9703,15 @@
       <c r="I203" s="19"/>
       <c r="J203" s="19"/>
     </row>
-    <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="45">
       <c r="A204" s="21" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B204" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="C204" s="19" t="s">
         <v>412</v>
-      </c>
-      <c r="C204" s="19" t="s">
-        <v>415</v>
       </c>
       <c r="D204" s="21"/>
       <c r="E204" s="21" t="s">
@@ -9723,15 +9729,15 @@
       <c r="I204" s="19"/>
       <c r="J204" s="19"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="30">
       <c r="A205" s="21" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B205" s="22" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D205" s="21"/>
       <c r="E205" s="21" t="s">
@@ -9749,15 +9755,15 @@
       <c r="I205" s="19"/>
       <c r="J205" s="19"/>
     </row>
-    <row r="206" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="30">
       <c r="A206" s="21" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B206" s="22" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D206" s="21"/>
       <c r="E206" s="21" t="s">
@@ -9775,15 +9781,15 @@
       <c r="I206" s="19"/>
       <c r="J206" s="19"/>
     </row>
-    <row r="207" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="30">
       <c r="A207" s="21" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B207" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C207" s="19" t="s">
         <v>419</v>
-      </c>
-      <c r="C207" s="19" t="s">
-        <v>422</v>
       </c>
       <c r="D207" s="21"/>
       <c r="E207" s="21" t="s">
@@ -9801,15 +9807,15 @@
       <c r="I207" s="19"/>
       <c r="J207" s="19"/>
     </row>
-    <row r="208" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="30">
       <c r="A208" s="21" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D208" s="21"/>
       <c r="E208" s="21" t="s">
@@ -9827,15 +9833,15 @@
       <c r="I208" s="19"/>
       <c r="J208" s="19"/>
     </row>
-    <row r="209" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="45">
       <c r="A209" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B209" s="22" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D209" s="21"/>
       <c r="E209" s="21" t="s">
@@ -9853,15 +9859,15 @@
       <c r="I209" s="19"/>
       <c r="J209" s="19"/>
     </row>
-    <row r="210" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="45">
       <c r="A210" s="21" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B210" s="22" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D210" s="21"/>
       <c r="E210" s="21" t="s">
@@ -9879,15 +9885,15 @@
       <c r="I210" s="19"/>
       <c r="J210" s="19"/>
     </row>
-    <row r="211" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="30">
       <c r="A211" s="21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B211" s="22" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D211" s="21"/>
       <c r="E211" s="21" t="s">
@@ -9905,15 +9911,15 @@
       <c r="I211" s="19"/>
       <c r="J211" s="19"/>
     </row>
-    <row r="212" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="120">
       <c r="A212" s="21" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B212" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C212" s="19" t="s">
         <v>430</v>
-      </c>
-      <c r="C212" s="19" t="s">
-        <v>433</v>
       </c>
       <c r="D212" s="21"/>
       <c r="E212" s="21" t="s">
@@ -9931,15 +9937,15 @@
       <c r="I212" s="19"/>
       <c r="J212" s="19"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10">
       <c r="A213" s="21" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B213" s="22" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D213" s="21"/>
       <c r="E213" s="21" t="s">
@@ -9957,15 +9963,15 @@
       <c r="I213" s="19"/>
       <c r="J213" s="19"/>
     </row>
-    <row r="214" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="30">
       <c r="A214" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B214" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D214" s="21"/>
       <c r="E214" s="21" t="s">
@@ -9983,15 +9989,15 @@
       <c r="I214" s="19"/>
       <c r="J214" s="19"/>
     </row>
-    <row r="215" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="409.5">
       <c r="A215" s="21" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B215" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>797</v>
+        <v>831</v>
       </c>
       <c r="D215" s="21"/>
       <c r="E215" s="21" t="s">
@@ -10009,15 +10015,15 @@
       <c r="I215" s="19"/>
       <c r="J215" s="19"/>
     </row>
-    <row r="216" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="45">
       <c r="A216" s="21" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B216" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D216" s="21"/>
       <c r="E216" s="21" t="s">
@@ -10035,15 +10041,15 @@
       <c r="I216" s="19"/>
       <c r="J216" s="19"/>
     </row>
-    <row r="217" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="45">
       <c r="A217" s="21" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B217" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D217" s="21"/>
       <c r="E217" s="21" t="s">
@@ -10061,15 +10067,15 @@
       <c r="I217" s="19"/>
       <c r="J217" s="19"/>
     </row>
-    <row r="218" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="45">
       <c r="A218" s="21" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B218" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D218" s="21"/>
       <c r="E218" s="21" t="s">
@@ -10087,15 +10093,15 @@
       <c r="I218" s="19"/>
       <c r="J218" s="19"/>
     </row>
-    <row r="219" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="45">
       <c r="A219" s="21" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B219" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D219" s="21"/>
       <c r="E219" s="21" t="s">
@@ -10113,15 +10119,15 @@
       <c r="I219" s="19"/>
       <c r="J219" s="19"/>
     </row>
-    <row r="220" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="45">
       <c r="A220" s="21" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D220" s="21"/>
       <c r="E220" s="21" t="s">
@@ -10139,15 +10145,15 @@
       <c r="I220" s="19"/>
       <c r="J220" s="19"/>
     </row>
-    <row r="221" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="45">
       <c r="A221" s="21" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B221" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D221" s="21"/>
       <c r="E221" s="21" t="s">
@@ -10165,15 +10171,15 @@
       <c r="I221" s="19"/>
       <c r="J221" s="19"/>
     </row>
-    <row r="222" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="60">
       <c r="A222" s="21" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B222" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D222" s="21"/>
       <c r="E222" s="21" t="s">
@@ -10191,15 +10197,15 @@
       <c r="I222" s="19"/>
       <c r="J222" s="19"/>
     </row>
-    <row r="223" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="60">
       <c r="A223" s="21" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B223" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D223" s="21"/>
       <c r="E223" s="21" t="s">
@@ -10217,15 +10223,15 @@
       <c r="I223" s="19"/>
       <c r="J223" s="19"/>
     </row>
-    <row r="224" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="45">
       <c r="A224" s="21" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B224" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D224" s="21"/>
       <c r="E224" s="21" t="s">
@@ -10243,15 +10249,15 @@
       <c r="I224" s="19"/>
       <c r="J224" s="19"/>
     </row>
-    <row r="225" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="45">
       <c r="A225" s="21" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B225" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D225" s="21"/>
       <c r="E225" s="21" t="s">
@@ -10269,15 +10275,15 @@
       <c r="I225" s="19"/>
       <c r="J225" s="19"/>
     </row>
-    <row r="226" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="45">
       <c r="A226" s="21" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B226" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D226" s="21"/>
       <c r="E226" s="21" t="s">
@@ -10295,15 +10301,15 @@
       <c r="I226" s="19"/>
       <c r="J226" s="19"/>
     </row>
-    <row r="227" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="45">
       <c r="A227" s="21" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B227" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D227" s="21"/>
       <c r="E227" s="21" t="s">
@@ -10321,15 +10327,15 @@
       <c r="I227" s="19"/>
       <c r="J227" s="19"/>
     </row>
-    <row r="228" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="45">
       <c r="A228" s="21" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B228" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D228" s="21"/>
       <c r="E228" s="21" t="s">
@@ -10347,15 +10353,15 @@
       <c r="I228" s="19"/>
       <c r="J228" s="19"/>
     </row>
-    <row r="229" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="45">
       <c r="A229" s="21" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B229" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D229" s="21"/>
       <c r="E229" s="21" t="s">
@@ -10373,15 +10379,15 @@
       <c r="I229" s="19"/>
       <c r="J229" s="19"/>
     </row>
-    <row r="230" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="45">
       <c r="A230" s="21" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B230" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D230" s="21"/>
       <c r="E230" s="21" t="s">
@@ -10399,15 +10405,15 @@
       <c r="I230" s="19"/>
       <c r="J230" s="19"/>
     </row>
-    <row r="231" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="45">
       <c r="A231" s="21" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B231" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D231" s="21"/>
       <c r="E231" s="21" t="s">
@@ -10425,15 +10431,15 @@
       <c r="I231" s="19"/>
       <c r="J231" s="19"/>
     </row>
-    <row r="232" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="45">
       <c r="A232" s="21" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B232" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D232" s="21"/>
       <c r="E232" s="21" t="s">
@@ -10451,15 +10457,15 @@
       <c r="I232" s="19"/>
       <c r="J232" s="19"/>
     </row>
-    <row r="233" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="45">
       <c r="A233" s="21" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B233" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D233" s="21"/>
       <c r="E233" s="21" t="s">
@@ -10477,15 +10483,15 @@
       <c r="I233" s="19"/>
       <c r="J233" s="19"/>
     </row>
-    <row r="234" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="45">
       <c r="A234" s="21" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B234" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D234" s="21"/>
       <c r="E234" s="21" t="s">
@@ -10503,15 +10509,15 @@
       <c r="I234" s="19"/>
       <c r="J234" s="19"/>
     </row>
-    <row r="235" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="45">
       <c r="A235" s="21" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B235" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D235" s="21"/>
       <c r="E235" s="21" t="s">
@@ -10529,15 +10535,15 @@
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
     </row>
-    <row r="236" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="45">
       <c r="A236" s="21" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B236" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D236" s="21"/>
       <c r="E236" s="21" t="s">
@@ -10555,15 +10561,15 @@
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
     </row>
-    <row r="237" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="45">
       <c r="A237" s="21" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B237" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C237" s="19" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D237" s="21"/>
       <c r="E237" s="21" t="s">
@@ -10581,15 +10587,15 @@
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
     </row>
-    <row r="238" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="45">
       <c r="A238" s="21" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B238" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C238" s="19" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D238" s="21"/>
       <c r="E238" s="21" t="s">
@@ -10607,15 +10613,15 @@
       <c r="I238" s="19"/>
       <c r="J238" s="19"/>
     </row>
-    <row r="239" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="45">
       <c r="A239" s="21" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B239" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D239" s="21"/>
       <c r="E239" s="21" t="s">
@@ -10633,15 +10639,15 @@
       <c r="I239" s="19"/>
       <c r="J239" s="19"/>
     </row>
-    <row r="240" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="45">
       <c r="A240" s="21" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B240" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D240" s="21"/>
       <c r="E240" s="21" t="s">
@@ -10659,15 +10665,15 @@
       <c r="I240" s="19"/>
       <c r="J240" s="19"/>
     </row>
-    <row r="241" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="45">
       <c r="A241" s="21" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B241" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D241" s="21"/>
       <c r="E241" s="21" t="s">
@@ -10685,15 +10691,15 @@
       <c r="I241" s="19"/>
       <c r="J241" s="19"/>
     </row>
-    <row r="242" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="45">
       <c r="A242" s="21" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B242" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C242" s="19" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D242" s="21"/>
       <c r="E242" s="21" t="s">
@@ -10711,15 +10717,15 @@
       <c r="I242" s="19"/>
       <c r="J242" s="19"/>
     </row>
-    <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="45">
       <c r="A243" s="21" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B243" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D243" s="21"/>
       <c r="E243" s="21" t="s">
@@ -10737,15 +10743,15 @@
       <c r="I243" s="19"/>
       <c r="J243" s="19"/>
     </row>
-    <row r="244" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="45">
       <c r="A244" s="21" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B244" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D244" s="21"/>
       <c r="E244" s="21" t="s">
@@ -10763,15 +10769,15 @@
       <c r="I244" s="19"/>
       <c r="J244" s="19"/>
     </row>
-    <row r="245" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="45">
       <c r="A245" s="21" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B245" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D245" s="21"/>
       <c r="E245" s="21" t="s">
@@ -10789,15 +10795,15 @@
       <c r="I245" s="19"/>
       <c r="J245" s="19"/>
     </row>
-    <row r="246" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="45">
       <c r="A246" s="21" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B246" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D246" s="21"/>
       <c r="E246" s="21" t="s">
@@ -10815,15 +10821,15 @@
       <c r="I246" s="19"/>
       <c r="J246" s="19"/>
     </row>
-    <row r="247" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="45">
       <c r="A247" s="21" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B247" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D247" s="21"/>
       <c r="E247" s="21" t="s">
@@ -10841,15 +10847,15 @@
       <c r="I247" s="19"/>
       <c r="J247" s="19"/>
     </row>
-    <row r="248" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="45">
       <c r="A248" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B248" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C248" s="19" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D248" s="21"/>
       <c r="E248" s="21" t="s">
@@ -10867,15 +10873,15 @@
       <c r="I248" s="19"/>
       <c r="J248" s="19"/>
     </row>
-    <row r="249" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="45">
       <c r="A249" s="21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B249" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C249" s="19" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D249" s="21"/>
       <c r="E249" s="21" t="s">
@@ -10893,15 +10899,15 @@
       <c r="I249" s="19"/>
       <c r="J249" s="19"/>
     </row>
-    <row r="250" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="45">
       <c r="A250" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B250" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D250" s="21"/>
       <c r="E250" s="21" t="s">
@@ -10919,15 +10925,15 @@
       <c r="I250" s="19"/>
       <c r="J250" s="19"/>
     </row>
-    <row r="251" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="45">
       <c r="A251" s="21" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B251" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D251" s="21"/>
       <c r="E251" s="21" t="s">
@@ -10945,15 +10951,15 @@
       <c r="I251" s="19"/>
       <c r="J251" s="19"/>
     </row>
-    <row r="252" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="45">
       <c r="A252" s="21" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B252" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D252" s="21"/>
       <c r="E252" s="21" t="s">
@@ -10971,15 +10977,15 @@
       <c r="I252" s="19"/>
       <c r="J252" s="19"/>
     </row>
-    <row r="253" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="45">
       <c r="A253" s="21" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B253" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D253" s="21"/>
       <c r="E253" s="21" t="s">
@@ -10997,15 +11003,15 @@
       <c r="I253" s="19"/>
       <c r="J253" s="19"/>
     </row>
-    <row r="254" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="45">
       <c r="A254" s="21" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D254" s="21"/>
       <c r="E254" s="21" t="s">
@@ -11023,15 +11029,15 @@
       <c r="I254" s="19"/>
       <c r="J254" s="19"/>
     </row>
-    <row r="255" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="45">
       <c r="A255" s="21" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B255" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D255" s="21"/>
       <c r="E255" s="21" t="s">
@@ -11049,15 +11055,15 @@
       <c r="I255" s="19"/>
       <c r="J255" s="19"/>
     </row>
-    <row r="256" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="45">
       <c r="A256" s="21" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B256" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C256" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D256" s="21"/>
       <c r="E256" s="21" t="s">
@@ -11075,15 +11081,15 @@
       <c r="I256" s="19"/>
       <c r="J256" s="19"/>
     </row>
-    <row r="257" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="45">
       <c r="A257" s="21" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B257" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C257" s="19" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D257" s="21"/>
       <c r="E257" s="21" t="s">
@@ -11101,15 +11107,15 @@
       <c r="I257" s="19"/>
       <c r="J257" s="19"/>
     </row>
-    <row r="258" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="45">
       <c r="A258" s="21" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B258" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D258" s="21"/>
       <c r="E258" s="21" t="s">
@@ -11127,15 +11133,15 @@
       <c r="I258" s="19"/>
       <c r="J258" s="19"/>
     </row>
-    <row r="259" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="45">
       <c r="A259" s="21" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B259" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D259" s="21"/>
       <c r="E259" s="21" t="s">
@@ -11153,15 +11159,15 @@
       <c r="I259" s="19"/>
       <c r="J259" s="19"/>
     </row>
-    <row r="260" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="45">
       <c r="A260" s="21" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B260" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D260" s="21"/>
       <c r="E260" s="21" t="s">
@@ -11179,15 +11185,15 @@
       <c r="I260" s="19"/>
       <c r="J260" s="19"/>
     </row>
-    <row r="261" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="45">
       <c r="A261" s="21" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B261" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D261" s="21"/>
       <c r="E261" s="21" t="s">
@@ -11205,15 +11211,15 @@
       <c r="I261" s="19"/>
       <c r="J261" s="19"/>
     </row>
-    <row r="262" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="45">
       <c r="A262" s="21" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B262" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D262" s="21"/>
       <c r="E262" s="21" t="s">
@@ -11231,15 +11237,15 @@
       <c r="I262" s="19"/>
       <c r="J262" s="19"/>
     </row>
-    <row r="263" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="45">
       <c r="A263" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B263" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D263" s="21"/>
       <c r="E263" s="21" t="s">
@@ -11257,15 +11263,15 @@
       <c r="I263" s="19"/>
       <c r="J263" s="19"/>
     </row>
-    <row r="264" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="45">
       <c r="A264" s="21" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B264" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D264" s="21"/>
       <c r="E264" s="21" t="s">
@@ -11283,15 +11289,15 @@
       <c r="I264" s="19"/>
       <c r="J264" s="19"/>
     </row>
-    <row r="265" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="45">
       <c r="A265" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B265" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D265" s="21"/>
       <c r="E265" s="21" t="s">
@@ -11309,15 +11315,15 @@
       <c r="I265" s="19"/>
       <c r="J265" s="19"/>
     </row>
-    <row r="266" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="45">
       <c r="A266" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B266" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D266" s="21"/>
       <c r="E266" s="21" t="s">
@@ -11335,15 +11341,15 @@
       <c r="I266" s="19"/>
       <c r="J266" s="19"/>
     </row>
-    <row r="267" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="45">
       <c r="A267" s="21" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D267" s="21"/>
       <c r="E267" s="21" t="s">
@@ -11361,15 +11367,15 @@
       <c r="I267" s="19"/>
       <c r="J267" s="19"/>
     </row>
-    <row r="268" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="45">
       <c r="A268" s="21" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B268" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D268" s="21"/>
       <c r="E268" s="21" t="s">
@@ -11387,15 +11393,15 @@
       <c r="I268" s="19"/>
       <c r="J268" s="19"/>
     </row>
-    <row r="269" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="45">
       <c r="A269" s="21" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B269" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D269" s="21"/>
       <c r="E269" s="21" t="s">
@@ -11413,15 +11419,15 @@
       <c r="I269" s="19"/>
       <c r="J269" s="19"/>
     </row>
-    <row r="270" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="45">
       <c r="A270" s="21" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B270" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D270" s="21"/>
       <c r="E270" s="21" t="s">
@@ -11439,15 +11445,15 @@
       <c r="I270" s="19"/>
       <c r="J270" s="19"/>
     </row>
-    <row r="271" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="45">
       <c r="A271" s="21" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B271" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D271" s="21"/>
       <c r="E271" s="21" t="s">
@@ -11465,15 +11471,15 @@
       <c r="I271" s="19"/>
       <c r="J271" s="19"/>
     </row>
-    <row r="272" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="45">
       <c r="A272" s="21" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B272" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D272" s="21"/>
       <c r="E272" s="21" t="s">
@@ -11491,15 +11497,15 @@
       <c r="I272" s="19"/>
       <c r="J272" s="19"/>
     </row>
-    <row r="273" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="45">
       <c r="A273" s="21" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B273" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C273" s="19" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D273" s="21"/>
       <c r="E273" s="21" t="s">
@@ -11517,15 +11523,15 @@
       <c r="I273" s="19"/>
       <c r="J273" s="19"/>
     </row>
-    <row r="274" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="45">
       <c r="A274" s="21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D274" s="21"/>
       <c r="E274" s="21" t="s">
@@ -11543,15 +11549,15 @@
       <c r="I274" s="19"/>
       <c r="J274" s="19"/>
     </row>
-    <row r="275" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="45">
       <c r="A275" s="21" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B275" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C275" s="19" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D275" s="21"/>
       <c r="E275" s="21" t="s">
@@ -11569,15 +11575,15 @@
       <c r="I275" s="19"/>
       <c r="J275" s="19"/>
     </row>
-    <row r="276" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="45">
       <c r="A276" s="21" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B276" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D276" s="21"/>
       <c r="E276" s="21" t="s">
@@ -11595,15 +11601,15 @@
       <c r="I276" s="19"/>
       <c r="J276" s="19"/>
     </row>
-    <row r="277" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="45">
       <c r="A277" s="21" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B277" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D277" s="21"/>
       <c r="E277" s="21" t="s">
@@ -11621,15 +11627,15 @@
       <c r="I277" s="19"/>
       <c r="J277" s="19"/>
     </row>
-    <row r="278" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="45">
       <c r="A278" s="21" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B278" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D278" s="21"/>
       <c r="E278" s="21" t="s">
@@ -11645,19 +11651,19 @@
         <v>17</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="J278" s="19"/>
     </row>
-    <row r="279" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="45">
       <c r="A279" s="21" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D279" s="21"/>
       <c r="E279" s="21" t="s">
@@ -11675,15 +11681,15 @@
       <c r="I279" s="19"/>
       <c r="J279" s="19"/>
     </row>
-    <row r="280" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="45">
       <c r="A280" s="21" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B280" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D280" s="21"/>
       <c r="E280" s="21" t="s">
@@ -11699,19 +11705,19 @@
         <v>17</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="J280" s="19"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10">
       <c r="A281" s="21" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B281" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D281" s="21"/>
       <c r="E281" s="21" t="s">
@@ -11729,15 +11735,15 @@
       <c r="I281" s="19"/>
       <c r="J281" s="19"/>
     </row>
-    <row r="282" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="45">
       <c r="A282" s="21" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B282" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C282" s="39" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D282" s="31"/>
       <c r="E282" s="21" t="s">
@@ -11755,15 +11761,15 @@
       <c r="I282" s="38"/>
       <c r="J282" s="19"/>
     </row>
-    <row r="283" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="45">
       <c r="A283" s="21" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B283" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D283" s="21"/>
       <c r="E283" s="21" t="s">
@@ -11781,15 +11787,15 @@
       <c r="I283" s="19"/>
       <c r="J283" s="19"/>
     </row>
-    <row r="284" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="45">
       <c r="A284" s="21" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D284" s="21"/>
       <c r="E284" s="21" t="s">
@@ -11807,15 +11813,15 @@
       <c r="I284" s="19"/>
       <c r="J284" s="19"/>
     </row>
-    <row r="285" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="45">
       <c r="A285" s="21" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C285" s="19" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D285" s="21"/>
       <c r="E285" s="21" t="s">
@@ -11833,15 +11839,15 @@
       <c r="I285" s="19"/>
       <c r="J285" s="19"/>
     </row>
-    <row r="286" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="45">
       <c r="A286" s="21" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B286" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C286" s="19" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D286" s="21"/>
       <c r="E286" s="21" t="s">
@@ -11859,15 +11865,15 @@
       <c r="I286" s="19"/>
       <c r="J286" s="19"/>
     </row>
-    <row r="287" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="45">
       <c r="A287" s="21" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B287" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D287" s="21"/>
       <c r="E287" s="21" t="s">
@@ -11885,15 +11891,15 @@
       <c r="I287" s="19"/>
       <c r="J287" s="19"/>
     </row>
-    <row r="288" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="45">
       <c r="A288" s="21" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B288" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D288" s="21"/>
       <c r="E288" s="21" t="s">
@@ -11911,15 +11917,15 @@
       <c r="I288" s="19"/>
       <c r="J288" s="19"/>
     </row>
-    <row r="289" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="60">
       <c r="A289" s="21" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B289" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D289" s="21"/>
       <c r="E289" s="21" t="s">
@@ -11937,15 +11943,15 @@
       <c r="I289" s="19"/>
       <c r="J289" s="19"/>
     </row>
-    <row r="290" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="45">
       <c r="A290" s="21" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B290" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D290" s="21"/>
       <c r="E290" s="21" t="s">
@@ -11963,15 +11969,15 @@
       <c r="I290" s="19"/>
       <c r="J290" s="19"/>
     </row>
-    <row r="291" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="45">
       <c r="A291" s="21" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B291" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D291" s="21"/>
       <c r="E291" s="21" t="s">
@@ -11989,15 +11995,15 @@
       <c r="I291" s="19"/>
       <c r="J291" s="19"/>
     </row>
-    <row r="292" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:10" s="33" customFormat="1" ht="45">
       <c r="A292" s="21" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B292" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D292" s="21"/>
       <c r="E292" s="21" t="s">
@@ -12015,15 +12021,15 @@
       <c r="I292" s="22"/>
       <c r="J292" s="19"/>
     </row>
-    <row r="293" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A293" s="21" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B293" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D293" s="21"/>
       <c r="E293" s="21" t="s">
@@ -12041,15 +12047,15 @@
       <c r="I293" s="22"/>
       <c r="J293" s="19"/>
     </row>
-    <row r="294" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A294" s="21" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B294" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C294" s="19" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D294" s="21"/>
       <c r="E294" s="21" t="s">
@@ -12067,15 +12073,15 @@
       <c r="I294" s="22"/>
       <c r="J294" s="19"/>
     </row>
-    <row r="295" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A295" s="21" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B295" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D295" s="21"/>
       <c r="E295" s="21" t="s">
@@ -12093,15 +12099,15 @@
       <c r="I295" s="22"/>
       <c r="J295" s="19"/>
     </row>
-    <row r="296" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A296" s="21" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B296" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D296" s="21"/>
       <c r="E296" s="21" t="s">
@@ -12119,15 +12125,15 @@
       <c r="I296" s="22"/>
       <c r="J296" s="19"/>
     </row>
-    <row r="297" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:10" s="33" customFormat="1" ht="45">
       <c r="A297" s="21" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B297" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D297" s="21"/>
       <c r="E297" s="21" t="s">
@@ -12145,15 +12151,15 @@
       <c r="I297" s="22"/>
       <c r="J297" s="19"/>
     </row>
-    <row r="298" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A298" s="21" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B298" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D298" s="21"/>
       <c r="E298" s="21" t="s">
@@ -12171,15 +12177,15 @@
       <c r="I298" s="22"/>
       <c r="J298" s="19"/>
     </row>
-    <row r="299" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A299" s="21" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B299" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C299" s="19" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D299" s="21"/>
       <c r="E299" s="21" t="s">
@@ -12197,15 +12203,15 @@
       <c r="I299" s="22"/>
       <c r="J299" s="19"/>
     </row>
-    <row r="300" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:10" s="33" customFormat="1" ht="30">
       <c r="A300" s="21" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B300" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D300" s="21"/>
       <c r="E300" s="21" t="s">
@@ -12223,15 +12229,15 @@
       <c r="I300" s="22"/>
       <c r="J300" s="19"/>
     </row>
-    <row r="301" spans="1:10" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:10" s="33" customFormat="1" ht="45">
       <c r="A301" s="21" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B301" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D301" s="21"/>
       <c r="E301" s="21" t="s">
@@ -12249,15 +12255,15 @@
       <c r="I301" s="22"/>
       <c r="J301" s="19"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10">
       <c r="A302" s="21" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B302" s="22" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D302" s="21"/>
       <c r="E302" s="21" t="s">
@@ -12275,15 +12281,15 @@
       <c r="I302" s="19"/>
       <c r="J302" s="19"/>
     </row>
-    <row r="303" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="75">
       <c r="A303" s="21" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B303" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="C303" s="19" t="s">
         <v>587</v>
-      </c>
-      <c r="C303" s="19" t="s">
-        <v>590</v>
       </c>
       <c r="D303" s="21"/>
       <c r="E303" s="21" t="s">
@@ -12301,15 +12307,15 @@
       <c r="I303" s="19"/>
       <c r="J303" s="19"/>
     </row>
-    <row r="304" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="45">
       <c r="A304" s="21" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B304" s="22" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D304" s="21"/>
       <c r="E304" s="21" t="s">
@@ -12327,15 +12333,15 @@
       <c r="I304" s="19"/>
       <c r="J304" s="19"/>
     </row>
-    <row r="305" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="30">
       <c r="A305" s="21" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B305" s="22" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D305" s="21"/>
       <c r="E305" s="21" t="s">
@@ -12353,15 +12359,15 @@
       <c r="I305" s="19"/>
       <c r="J305" s="19"/>
     </row>
-    <row r="306" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="30">
       <c r="A306" s="21" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B306" s="22" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D306" s="21"/>
       <c r="E306" s="21" t="s">
@@ -12379,15 +12385,15 @@
       <c r="I306" s="19"/>
       <c r="J306" s="19"/>
     </row>
-    <row r="307" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="30">
       <c r="A307" s="21" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B307" s="22" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D307" s="21"/>
       <c r="E307" s="21" t="s">
@@ -12405,15 +12411,15 @@
       <c r="I307" s="19"/>
       <c r="J307" s="19"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="30">
       <c r="A308" s="21" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B308" s="22" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D308" s="21"/>
       <c r="E308" s="21" t="s">
@@ -12431,15 +12437,15 @@
       <c r="I308" s="19"/>
       <c r="J308" s="19"/>
     </row>
-    <row r="309" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="45">
       <c r="A309" s="21" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B309" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="C309" s="19" t="s">
         <v>600</v>
-      </c>
-      <c r="C309" s="19" t="s">
-        <v>603</v>
       </c>
       <c r="D309" s="21"/>
       <c r="E309" s="21" t="s">
@@ -12457,15 +12463,15 @@
       <c r="I309" s="19"/>
       <c r="J309" s="19"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10">
       <c r="A310" s="21" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B310" s="22" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D310" s="21"/>
       <c r="E310" s="21" t="s">
@@ -12483,15 +12489,15 @@
       <c r="I310" s="19"/>
       <c r="J310" s="19"/>
     </row>
-    <row r="311" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="30">
       <c r="A311" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B311" s="22" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D311" s="21"/>
       <c r="E311" s="21" t="s">
@@ -12509,15 +12515,15 @@
       <c r="I311" s="19"/>
       <c r="J311" s="19"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="30">
       <c r="A312" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B312" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="C312" s="19" t="s">
         <v>607</v>
-      </c>
-      <c r="C312" s="19" t="s">
-        <v>610</v>
       </c>
       <c r="D312" s="21"/>
       <c r="E312" s="21" t="s">
@@ -12535,15 +12541,15 @@
       <c r="I312" s="19"/>
       <c r="J312" s="19"/>
     </row>
-    <row r="313" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="30">
       <c r="A313" s="21" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B313" s="22" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D313" s="21"/>
       <c r="E313" s="21" t="s">
@@ -12561,15 +12567,15 @@
       <c r="I313" s="19"/>
       <c r="J313" s="19"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="30">
       <c r="A314" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B314" s="22" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D314" s="21"/>
       <c r="E314" s="21" t="s">
@@ -12587,15 +12593,15 @@
       <c r="I314" s="19"/>
       <c r="J314" s="19"/>
     </row>
-    <row r="315" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="30">
       <c r="A315" s="21" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B315" s="22" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C315" s="19" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D315" s="21"/>
       <c r="E315" s="21" t="s">
@@ -12613,15 +12619,15 @@
       <c r="I315" s="19"/>
       <c r="J315" s="19"/>
     </row>
-    <row r="316" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="30">
       <c r="A316" s="21" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B316" s="22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C316" s="19" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D316" s="21"/>
       <c r="E316" s="21" t="s">
@@ -12639,15 +12645,15 @@
       <c r="I316" s="19"/>
       <c r="J316" s="19"/>
     </row>
-    <row r="317" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="135">
       <c r="A317" s="21" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B317" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="C317" s="19" t="s">
         <v>618</v>
-      </c>
-      <c r="C317" s="19" t="s">
-        <v>621</v>
       </c>
       <c r="D317" s="21"/>
       <c r="E317" s="21" t="s">
@@ -12665,15 +12671,15 @@
       <c r="I317" s="19"/>
       <c r="J317" s="19"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10">
       <c r="A318" s="21" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B318" s="22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C318" s="19" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D318" s="21"/>
       <c r="E318" s="21" t="s">
@@ -12691,15 +12697,15 @@
       <c r="I318" s="19"/>
       <c r="J318" s="19"/>
     </row>
-    <row r="319" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="30">
       <c r="A319" s="21" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B319" s="22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C319" s="19" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D319" s="21"/>
       <c r="E319" s="21" t="s">
@@ -12715,22 +12721,22 @@
         <v>17</v>
       </c>
       <c r="I319" s="19" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="J319" s="19"/>
     </row>
-    <row r="320" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="45">
       <c r="A320" s="21" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B320" s="22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C320" s="19" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E320" s="21" t="s">
         <v>19</v>
@@ -12747,15 +12753,15 @@
       <c r="I320" s="19"/>
       <c r="J320" s="19"/>
     </row>
-    <row r="321" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="30">
       <c r="A321" s="21" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B321" s="22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C321" s="19" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D321" s="21"/>
       <c r="E321" s="21" t="s">
@@ -12773,15 +12779,15 @@
       <c r="I321" s="19"/>
       <c r="J321" s="19"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10">
       <c r="A322" s="21" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B322" s="22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C322" s="19" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D322" s="21"/>
       <c r="E322" s="21" t="s">
@@ -12799,15 +12805,15 @@
       <c r="I322" s="19"/>
       <c r="J322" s="19"/>
     </row>
-    <row r="323" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="30">
       <c r="A323" s="21" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B323" s="22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C323" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D323" s="21"/>
       <c r="E323" s="21" t="s">
@@ -12825,15 +12831,15 @@
       <c r="I323" s="19"/>
       <c r="J323" s="19"/>
     </row>
-    <row r="324" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="30">
       <c r="A324" s="21" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B324" s="22" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C324" s="19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D324" s="21"/>
       <c r="E324" s="21" t="s">
@@ -12851,15 +12857,15 @@
       <c r="I324" s="19"/>
       <c r="J324" s="19"/>
     </row>
-    <row r="325" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="195">
       <c r="A325" s="21" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B325" s="22" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C325" s="19" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D325" s="21"/>
       <c r="E325" s="21" t="s">
@@ -12877,15 +12883,15 @@
       <c r="I325" s="19"/>
       <c r="J325" s="19"/>
     </row>
-    <row r="326" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="60">
       <c r="A326" s="21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B326" s="22" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C326" s="19" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D326" s="21"/>
       <c r="E326" s="21" t="s">
@@ -12903,15 +12909,15 @@
       <c r="I326" s="19"/>
       <c r="J326" s="19"/>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10">
       <c r="A327" s="21" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B327" s="22" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C327" s="19" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D327" s="21"/>
       <c r="E327" s="21" t="s">
@@ -12929,15 +12935,15 @@
       <c r="I327" s="19"/>
       <c r="J327" s="19"/>
     </row>
-    <row r="328" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="45">
       <c r="A328" s="21" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B328" s="22" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C328" s="19" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D328" s="21"/>
       <c r="E328" s="21" t="s">
@@ -12955,15 +12961,15 @@
       <c r="I328" s="19"/>
       <c r="J328" s="19"/>
     </row>
-    <row r="329" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="30">
       <c r="A329" s="21" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B329" s="22" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D329" s="21"/>
       <c r="E329" s="21" t="s">
@@ -12981,15 +12987,15 @@
       <c r="I329" s="19"/>
       <c r="J329" s="19"/>
     </row>
-    <row r="330" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="75">
       <c r="A330" s="21" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B330" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="C330" s="19" t="s">
         <v>645</v>
-      </c>
-      <c r="C330" s="19" t="s">
-        <v>648</v>
       </c>
       <c r="D330" s="21"/>
       <c r="E330" s="21" t="s">
@@ -13007,15 +13013,15 @@
       <c r="I330" s="19"/>
       <c r="J330" s="19"/>
     </row>
-    <row r="331" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="30">
       <c r="A331" s="21" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B331" s="22" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D331" s="21"/>
       <c r="E331" s="21" t="s">
@@ -13033,15 +13039,15 @@
       <c r="I331" s="19"/>
       <c r="J331" s="19"/>
     </row>
-    <row r="332" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="30">
       <c r="A332" s="21" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B332" s="22" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C332" s="39" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D332" s="31"/>
       <c r="E332" s="21" t="s">
@@ -13059,15 +13065,15 @@
       <c r="I332" s="38"/>
       <c r="J332" s="19"/>
     </row>
-    <row r="333" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="30">
       <c r="A333" s="21" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B333" s="22" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C333" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D333" s="21"/>
       <c r="E333" s="21" t="s">
@@ -13085,15 +13091,15 @@
       <c r="I333" s="19"/>
       <c r="J333" s="19"/>
     </row>
-    <row r="334" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="30">
       <c r="A334" s="21" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B334" s="22" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D334" s="21"/>
       <c r="E334" s="21" t="s">
@@ -13111,15 +13117,15 @@
       <c r="I334" s="19"/>
       <c r="J334" s="19"/>
     </row>
-    <row r="335" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="30">
       <c r="A335" s="21" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B335" s="22" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C335" s="19" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D335" s="21"/>
       <c r="E335" s="21" t="s">
@@ -13137,15 +13143,15 @@
       <c r="I335" s="19"/>
       <c r="J335" s="19"/>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10">
       <c r="A336" s="21" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B336" s="22" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C336" s="19" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D336" s="21"/>
       <c r="E336" s="21" t="s">
@@ -13163,15 +13169,15 @@
       <c r="I336" s="19"/>
       <c r="J336" s="19"/>
     </row>
-    <row r="337" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="30">
       <c r="A337" s="21" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B337" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="C337" s="19" t="s">
         <v>658</v>
-      </c>
-      <c r="C337" s="19" t="s">
-        <v>661</v>
       </c>
       <c r="D337" s="21"/>
       <c r="E337" s="21" t="s">
@@ -13189,15 +13195,15 @@
       <c r="I337" s="19"/>
       <c r="J337" s="19"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10">
       <c r="A338" s="21" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B338" s="22" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D338" s="21"/>
       <c r="E338" s="21" t="s">
@@ -13215,15 +13221,15 @@
       <c r="I338" s="19"/>
       <c r="J338" s="19"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="30">
       <c r="A339" s="21" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B339" s="22" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C339" s="19" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D339" s="21"/>
       <c r="E339" s="21" t="s">
@@ -13241,15 +13247,15 @@
       <c r="I339" s="19"/>
       <c r="J339" s="19"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10">
       <c r="A340" s="21" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B340" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="C340" s="19" t="s">
         <v>665</v>
-      </c>
-      <c r="C340" s="19" t="s">
-        <v>668</v>
       </c>
       <c r="D340" s="21"/>
       <c r="E340" s="21" t="s">
@@ -13267,15 +13273,15 @@
       <c r="I340" s="19"/>
       <c r="J340" s="19"/>
     </row>
-    <row r="341" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" ht="30">
       <c r="A341" s="21" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B341" s="22" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C341" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D341" s="21"/>
       <c r="E341" s="21" t="s">
@@ -13293,15 +13299,15 @@
       <c r="I341" s="19"/>
       <c r="J341" s="19"/>
     </row>
-    <row r="342" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" ht="30">
       <c r="A342" s="21" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B342" s="22" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C342" s="19" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D342" s="21"/>
       <c r="E342" s="21" t="s">
@@ -13319,15 +13325,15 @@
       <c r="I342" s="19"/>
       <c r="J342" s="19"/>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" ht="30">
       <c r="A343" s="21" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B343" s="22" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C343" s="19" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D343" s="21"/>
       <c r="E343" s="21" t="s">
@@ -13345,15 +13351,15 @@
       <c r="I343" s="19"/>
       <c r="J343" s="19"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10">
       <c r="A344" s="21" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B344" s="22" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C344" s="19" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D344" s="21"/>
       <c r="E344" s="21" t="s">
@@ -13371,15 +13377,15 @@
       <c r="I344" s="19"/>
       <c r="J344" s="19"/>
     </row>
-    <row r="345" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" ht="240">
       <c r="A345" s="21" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B345" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="C345" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="C345" s="19" t="s">
-        <v>677</v>
       </c>
       <c r="D345" s="21"/>
       <c r="E345" s="21" t="s">
@@ -13397,15 +13403,15 @@
       <c r="I345" s="19"/>
       <c r="J345" s="19"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10">
       <c r="A346" s="21" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C346" s="19" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D346" s="21"/>
       <c r="E346" s="21" t="s">
@@ -13423,15 +13429,15 @@
       <c r="I346" s="19"/>
       <c r="J346" s="19"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10">
       <c r="A347" s="21" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B347" s="22" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C347" s="19" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D347" s="21"/>
       <c r="E347" s="21" t="s">
@@ -13449,15 +13455,15 @@
       <c r="I347" s="19"/>
       <c r="J347" s="19"/>
     </row>
-    <row r="348" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" ht="30">
       <c r="A348" s="21" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B348" s="22" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C348" s="19" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D348" s="21"/>
       <c r="E348" s="21" t="s">
@@ -13475,15 +13481,15 @@
       <c r="I348" s="19"/>
       <c r="J348" s="19"/>
     </row>
-    <row r="349" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" ht="30">
       <c r="A349" s="21" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B349" s="22" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C349" s="19" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D349" s="21"/>
       <c r="E349" s="21" t="s">
@@ -13501,15 +13507,15 @@
       <c r="I349" s="19"/>
       <c r="J349" s="19"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10">
       <c r="A350" s="21" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B350" s="22" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C350" s="19" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D350" s="21"/>
       <c r="E350" s="21" t="s">
@@ -13527,15 +13533,15 @@
       <c r="I350" s="19"/>
       <c r="J350" s="19"/>
     </row>
-    <row r="351" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" ht="30">
       <c r="A351" s="21" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B351" s="22" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C351" s="19" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D351" s="21"/>
       <c r="E351" s="21" t="s">
@@ -13553,15 +13559,15 @@
       <c r="I351" s="19"/>
       <c r="J351" s="19"/>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10">
       <c r="A352" s="21" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B352" s="22" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C352" s="39" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D352" s="31"/>
       <c r="E352" s="31" t="s">
@@ -13579,15 +13585,15 @@
       <c r="I352" s="38"/>
       <c r="J352" s="19"/>
     </row>
-    <row r="353" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" ht="30">
       <c r="A353" s="21" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B353" s="22" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C353" s="19" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D353" s="21"/>
       <c r="E353" s="21" t="s">
@@ -13605,15 +13611,15 @@
       <c r="I353" s="19"/>
       <c r="J353" s="19"/>
     </row>
-    <row r="354" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" ht="120">
       <c r="A354" s="21" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B354" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="C354" s="19" t="s">
         <v>690</v>
-      </c>
-      <c r="C354" s="19" t="s">
-        <v>693</v>
       </c>
       <c r="D354" s="21"/>
       <c r="E354" s="21" t="s">
@@ -13631,15 +13637,15 @@
       <c r="I354" s="19"/>
       <c r="J354" s="19"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10">
       <c r="A355" s="21" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B355" s="22" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C355" s="19" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D355" s="21"/>
       <c r="E355" s="21" t="s">
@@ -13657,15 +13663,15 @@
       <c r="I355" s="19"/>
       <c r="J355" s="19"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10">
       <c r="A356" s="21" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B356" s="22" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C356" s="19" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D356" s="21"/>
       <c r="E356" s="21" t="s">
@@ -13683,7 +13689,7 @@
       <c r="I356" s="19"/>
       <c r="J356" s="19"/>
     </row>
-    <row r="357" spans="1:10" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:10" s="33" customFormat="1" ht="45">
       <c r="A357" s="21" t="s">
         <v>46</v>
       </c>
@@ -13691,7 +13697,7 @@
         <v>7</v>
       </c>
       <c r="C357" s="19" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D357" s="21" t="s">
         <v>47</v>
@@ -13709,11 +13715,11 @@
         <v>21</v>
       </c>
       <c r="I357" s="19" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J357" s="22"/>
     </row>
-    <row r="358" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" ht="45">
       <c r="A358" s="21" t="s">
         <v>121</v>
       </c>
@@ -13721,7 +13727,7 @@
         <v>7</v>
       </c>
       <c r="C358" s="19" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D358" s="21" t="s">
         <v>122</v>
@@ -13739,19 +13745,19 @@
         <v>21</v>
       </c>
       <c r="I358" s="19" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J358" s="19"/>
     </row>
-    <row r="359" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" ht="45">
       <c r="A359" s="21" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B359" s="35">
         <v>7</v>
       </c>
       <c r="C359" s="19" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="D359" s="21"/>
       <c r="E359" s="21" t="s">
@@ -13769,15 +13775,15 @@
       <c r="I359" s="19"/>
       <c r="J359" s="19"/>
     </row>
-    <row r="360" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" ht="30">
       <c r="A360" s="21" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B360" s="35">
         <v>7</v>
       </c>
       <c r="C360" s="19" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="D360" s="21"/>
       <c r="E360" s="21" t="s">
@@ -13795,15 +13801,15 @@
       <c r="I360" s="19"/>
       <c r="J360" s="19"/>
     </row>
-    <row r="361" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" ht="45">
       <c r="A361" s="21" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B361" s="35">
         <v>7</v>
       </c>
       <c r="C361" s="19" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D361" s="21"/>
       <c r="E361" s="21" t="s">
@@ -13821,15 +13827,15 @@
       <c r="I361" s="19"/>
       <c r="J361" s="19"/>
     </row>
-    <row r="362" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" ht="45">
       <c r="A362" s="21" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B362" s="35">
         <v>7</v>
       </c>
       <c r="C362" s="19" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D362" s="21"/>
       <c r="E362" s="21" t="s">
@@ -13847,15 +13853,15 @@
       <c r="I362" s="19"/>
       <c r="J362" s="19"/>
     </row>
-    <row r="363" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" ht="60">
       <c r="A363" s="21" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B363" s="35">
         <v>7</v>
       </c>
       <c r="C363" s="19" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D363" s="21"/>
       <c r="E363" s="21" t="s">
@@ -13873,15 +13879,15 @@
       <c r="I363" s="19"/>
       <c r="J363" s="19"/>
     </row>
-    <row r="364" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" ht="45">
       <c r="A364" s="21" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B364" s="35">
         <v>7</v>
       </c>
       <c r="C364" s="19" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D364" s="21"/>
       <c r="E364" s="21" t="s">
@@ -13899,15 +13905,15 @@
       <c r="I364" s="19"/>
       <c r="J364" s="19"/>
     </row>
-    <row r="365" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" ht="60">
       <c r="A365" s="21" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B365" s="35">
         <v>7</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D365" s="21"/>
       <c r="E365" s="21" t="s">
@@ -13925,15 +13931,15 @@
       <c r="I365" s="19"/>
       <c r="J365" s="19"/>
     </row>
-    <row r="366" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" ht="45">
       <c r="A366" s="21" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B366" s="35">
         <v>7</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D366" s="21"/>
       <c r="E366" s="21" t="s">
@@ -13951,15 +13957,15 @@
       <c r="I366" s="19"/>
       <c r="J366" s="19"/>
     </row>
-    <row r="367" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" ht="60">
       <c r="A367" s="21" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B367" s="35">
         <v>7</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D367" s="21"/>
       <c r="E367" s="21" t="s">
@@ -13977,18 +13983,18 @@
       <c r="I367" s="19"/>
       <c r="J367" s="19"/>
     </row>
-    <row r="368" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" ht="45">
       <c r="A368" s="21" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B368" s="35">
         <v>7</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="D368" s="21" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E368" s="21" t="s">
         <v>22</v>
@@ -14005,18 +14011,18 @@
       <c r="I368" s="19"/>
       <c r="J368" s="19"/>
     </row>
-    <row r="369" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" ht="45">
       <c r="A369" s="21" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B369" s="35">
         <v>7</v>
       </c>
       <c r="C369" s="19" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D369" s="21" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E369" s="21" t="s">
         <v>22</v>
@@ -14031,22 +14037,22 @@
         <v>21</v>
       </c>
       <c r="I369" s="19" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J369" s="19"/>
     </row>
-    <row r="370" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" ht="45">
       <c r="A370" s="21" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B370" s="35">
         <v>7</v>
       </c>
       <c r="C370" s="19" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D370" s="21" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E370" s="21" t="s">
         <v>22</v>
@@ -14061,22 +14067,22 @@
         <v>21</v>
       </c>
       <c r="I370" s="19" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J370" s="19"/>
     </row>
-    <row r="371" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="45">
       <c r="A371" s="21" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B371" s="35">
         <v>7</v>
       </c>
       <c r="C371" s="19" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D371" s="21" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E371" s="21" t="s">
         <v>22</v>
@@ -14091,22 +14097,22 @@
         <v>21</v>
       </c>
       <c r="I371" s="19" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J371" s="19"/>
     </row>
-    <row r="372" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" ht="60">
       <c r="A372" s="21" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B372" s="35">
         <v>7</v>
       </c>
       <c r="C372" s="19" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D372" s="21" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E372" s="21" t="s">
         <v>22</v>
@@ -14121,22 +14127,22 @@
         <v>21</v>
       </c>
       <c r="I372" s="19" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J372" s="19"/>
     </row>
-    <row r="373" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" ht="45">
       <c r="A373" s="21" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B373" s="35">
         <v>7</v>
       </c>
       <c r="C373" s="19" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D373" s="21" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E373" s="21" t="s">
         <v>22</v>
@@ -14151,19 +14157,19 @@
         <v>21</v>
       </c>
       <c r="I373" s="19" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J373" s="19"/>
     </row>
-    <row r="374" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:11" customFormat="1" ht="30">
       <c r="A374" s="27" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B374" s="34">
         <v>2.4</v>
       </c>
       <c r="C374" s="29" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D374" s="28"/>
       <c r="E374" s="27" t="s">
@@ -14182,15 +14188,15 @@
       <c r="J374" s="37"/>
       <c r="K374" s="37"/>
     </row>
-    <row r="375" spans="1:11" customFormat="1" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:11" customFormat="1" ht="285">
       <c r="A375" s="27" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B375" s="34">
         <v>2.4</v>
       </c>
       <c r="C375" s="29" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D375" s="28"/>
       <c r="E375" s="27" t="s">
@@ -14209,15 +14215,15 @@
       <c r="J375" s="37"/>
       <c r="K375" s="37"/>
     </row>
-    <row r="376" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:11" customFormat="1" ht="30">
       <c r="A376" s="27" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B376" s="34">
         <v>2.4</v>
       </c>
       <c r="C376" s="29" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D376" s="28"/>
       <c r="E376" s="27" t="s">
@@ -14236,15 +14242,15 @@
       <c r="J376" s="37"/>
       <c r="K376" s="37"/>
     </row>
-    <row r="377" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:11" customFormat="1" ht="30">
       <c r="A377" s="27" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B377" s="34">
         <v>2.4</v>
       </c>
       <c r="C377" s="29" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D377" s="28"/>
       <c r="E377" s="27" t="s">
@@ -14263,15 +14269,15 @@
       <c r="J377" s="37"/>
       <c r="K377" s="37"/>
     </row>
-    <row r="378" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:11" customFormat="1" ht="30">
       <c r="A378" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B378" s="34">
         <v>2.4</v>
       </c>
       <c r="C378" s="29" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D378" s="28"/>
       <c r="E378" s="27" t="s">
@@ -14290,15 +14296,15 @@
       <c r="J378" s="37"/>
       <c r="K378" s="37"/>
     </row>
-    <row r="379" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:11" customFormat="1" ht="30">
       <c r="A379" s="27" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B379" s="34">
         <v>2.4</v>
       </c>
       <c r="C379" s="29" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D379" s="28"/>
       <c r="E379" s="27" t="s">
@@ -14317,15 +14323,15 @@
       <c r="J379" s="37"/>
       <c r="K379" s="37"/>
     </row>
-    <row r="380" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:11" customFormat="1">
       <c r="A380" s="27" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B380" s="34">
         <v>2.4</v>
       </c>
       <c r="C380" s="29" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D380" s="28"/>
       <c r="E380" s="27" t="s">
@@ -14344,15 +14350,15 @@
       <c r="J380" s="37"/>
       <c r="K380" s="37"/>
     </row>
-    <row r="381" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:11" customFormat="1" ht="30">
       <c r="A381" s="27" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B381" s="34">
         <v>2.4</v>
       </c>
       <c r="C381" s="29" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D381" s="28"/>
       <c r="E381" s="27" t="s">
@@ -14371,15 +14377,15 @@
       <c r="J381" s="37"/>
       <c r="K381" s="37"/>
     </row>
-    <row r="382" spans="1:11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:11" customFormat="1" ht="30">
       <c r="A382" s="27" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B382" s="34">
         <v>2.4</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D382" s="28"/>
       <c r="E382" s="27" t="s">
@@ -14398,15 +14404,15 @@
       <c r="J382" s="37"/>
       <c r="K382" s="37"/>
     </row>
-    <row r="383" spans="1:11" s="31" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:11" s="31" customFormat="1" ht="45">
       <c r="A383" s="27" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B383" s="34">
         <v>2.4</v>
       </c>
       <c r="C383" s="29" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D383" s="28"/>
       <c r="E383" s="27" t="s">
@@ -14423,11 +14429,11 @@
       </c>
       <c r="I383" s="30"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11">
       <c r="A384" s="3"/>
       <c r="B384" s="9"/>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2">
       <c r="A385" s="3"/>
       <c r="B385" s="9"/>
     </row>
